--- a/name/vnindex/20221223/VNINDEX_HOSE_5p_20221223.xlsx
+++ b/name/vnindex/20221223/VNINDEX_HOSE_5p_20221223.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,2557 +504,6007 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1671786900000</v>
+        <v>1671786840000</v>
       </c>
       <c r="B3">
-        <v>5778000</v>
+        <v>1839400</v>
       </c>
       <c r="C3">
-        <v>3587800</v>
+        <v>1762500</v>
       </c>
       <c r="D3">
-        <v>2142200</v>
+        <v>2131500</v>
       </c>
       <c r="E3">
-        <v>89307199000</v>
+        <v>32797231000</v>
       </c>
       <c r="F3">
-        <v>59437361000</v>
+        <v>28199235000</v>
       </c>
       <c r="G3">
-        <v>27940157000</v>
+        <v>27817903000</v>
       </c>
       <c r="H3">
-        <v>11508000</v>
+        <v>5733400</v>
       </c>
       <c r="I3">
-        <v>176684717000</v>
+        <v>88814369000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-23T09:15:00.000Z</v>
+        <v>2022-12-23T09:14:00.000Z</v>
       </c>
       <c r="K3">
-        <v>176685727000</v>
+        <v>88815379000</v>
       </c>
       <c r="L3">
-        <v>11508100</v>
+        <v>5733500</v>
       </c>
       <c r="M3">
-        <v>-2190200</v>
+        <v>-76900</v>
       </c>
       <c r="N3">
-        <v>-29869838000</v>
+        <v>-4597996000</v>
       </c>
       <c r="O3">
-        <v>-2190200</v>
+        <v>-76900</v>
       </c>
       <c r="P3">
-        <v>-29869838000</v>
+        <v>-4597996000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1671787200000</v>
+        <v>1671786960000</v>
       </c>
       <c r="B4">
-        <v>4818000</v>
+        <v>1366800</v>
       </c>
       <c r="C4">
-        <v>3025900</v>
+        <v>973100</v>
       </c>
       <c r="D4">
-        <v>37900</v>
+        <v>9100</v>
       </c>
       <c r="E4">
-        <v>73341488000</v>
+        <v>22474064000</v>
       </c>
       <c r="F4">
-        <v>49787403000</v>
+        <v>15919285000</v>
       </c>
       <c r="G4">
-        <v>647073000</v>
+        <v>83784000</v>
       </c>
       <c r="H4">
-        <v>7881800</v>
+        <v>2349000</v>
       </c>
       <c r="I4">
-        <v>123775964000</v>
+        <v>38477133000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-23T09:20:00.000Z</v>
+        <v>2022-12-23T09:16:00.000Z</v>
       </c>
       <c r="K4">
-        <v>300461691000</v>
+        <v>127292512000</v>
       </c>
       <c r="L4">
-        <v>19389900</v>
+        <v>8082500</v>
       </c>
       <c r="M4">
-        <v>-1792100</v>
+        <v>-393700</v>
       </c>
       <c r="N4">
-        <v>-23554085000</v>
+        <v>-6554779000</v>
       </c>
       <c r="O4">
-        <v>-3982300</v>
+        <v>-470600</v>
       </c>
       <c r="P4">
-        <v>-53423923000</v>
+        <v>-11152775000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1671787500000</v>
+        <v>1671787080000</v>
       </c>
       <c r="B5">
-        <v>4434800</v>
+        <v>2571800</v>
       </c>
       <c r="C5">
-        <v>2477600</v>
+        <v>852200</v>
       </c>
       <c r="D5">
-        <v>15200</v>
+        <v>1600</v>
       </c>
       <c r="E5">
-        <v>68878302000</v>
+        <v>34035904000</v>
       </c>
       <c r="F5">
-        <v>39259639000</v>
+        <v>15318841000</v>
       </c>
       <c r="G5">
-        <v>253308000</v>
+        <v>38470000</v>
       </c>
       <c r="H5">
-        <v>6927600</v>
+        <v>3425600</v>
       </c>
       <c r="I5">
-        <v>108391249000</v>
+        <v>49393215000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-23T09:25:00.000Z</v>
+        <v>2022-12-23T09:18:00.000Z</v>
       </c>
       <c r="K5">
-        <v>408852940000</v>
+        <v>176685727000</v>
       </c>
       <c r="L5">
-        <v>26317500</v>
+        <v>11508100</v>
       </c>
       <c r="M5">
-        <v>-1957200</v>
+        <v>-1719600</v>
       </c>
       <c r="N5">
-        <v>-29618663000</v>
+        <v>-18717063000</v>
       </c>
       <c r="O5">
-        <v>-5939500</v>
+        <v>-2190200</v>
       </c>
       <c r="P5">
-        <v>-83042586000</v>
+        <v>-29869838000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1671787800000</v>
+        <v>1671787200000</v>
       </c>
       <c r="B6">
-        <v>3109300</v>
+        <v>2340100</v>
       </c>
       <c r="C6">
-        <v>5596300</v>
+        <v>1429900</v>
       </c>
       <c r="D6">
-        <v>99500</v>
+        <v>28300</v>
       </c>
       <c r="E6">
-        <v>49305544000</v>
+        <v>35552596000</v>
       </c>
       <c r="F6">
-        <v>85665528000</v>
+        <v>23467872000</v>
       </c>
       <c r="G6">
-        <v>2263271000</v>
+        <v>420339000</v>
       </c>
       <c r="H6">
-        <v>8805100</v>
+        <v>3798300</v>
       </c>
       <c r="I6">
-        <v>137234343000</v>
+        <v>59440807000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-23T09:30:00.000Z</v>
+        <v>2022-12-23T09:20:00.000Z</v>
       </c>
       <c r="K6">
-        <v>546087283000</v>
+        <v>236126534000</v>
       </c>
       <c r="L6">
-        <v>35122600</v>
+        <v>15306400</v>
       </c>
       <c r="M6">
-        <v>2487000</v>
+        <v>-910200</v>
       </c>
       <c r="N6">
-        <v>36359984000</v>
+        <v>-12084724000</v>
       </c>
       <c r="O6">
-        <v>-3452500</v>
+        <v>-3100400</v>
       </c>
       <c r="P6">
-        <v>-46682602000</v>
+        <v>-41954562000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1671788100000</v>
+        <v>1671787320000</v>
       </c>
       <c r="B7">
-        <v>3092800</v>
+        <v>1905300</v>
       </c>
       <c r="C7">
-        <v>7760000</v>
+        <v>1130700</v>
       </c>
       <c r="D7">
-        <v>42900</v>
+        <v>9400</v>
       </c>
       <c r="E7">
-        <v>51151254000</v>
+        <v>27865442000</v>
       </c>
       <c r="F7">
-        <v>116995979000</v>
+        <v>17730091000</v>
       </c>
       <c r="G7">
-        <v>859516000</v>
+        <v>224454000</v>
       </c>
       <c r="H7">
-        <v>10895700</v>
+        <v>3045400</v>
       </c>
       <c r="I7">
-        <v>169006749000</v>
+        <v>45819987000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-23T09:35:00.000Z</v>
+        <v>2022-12-23T09:22:00.000Z</v>
       </c>
       <c r="K7">
-        <v>715094032000</v>
+        <v>281946521000</v>
       </c>
       <c r="L7">
-        <v>46018300</v>
+        <v>18351800</v>
       </c>
       <c r="M7">
-        <v>4667200</v>
+        <v>-774600</v>
       </c>
       <c r="N7">
-        <v>65844725000</v>
+        <v>-10135351000</v>
       </c>
       <c r="O7">
-        <v>1214700</v>
+        <v>-3875000</v>
       </c>
       <c r="P7">
-        <v>19162123000</v>
+        <v>-52089913000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1671788400000</v>
+        <v>1671787440000</v>
       </c>
       <c r="B8">
-        <v>5456700</v>
+        <v>1061900</v>
       </c>
       <c r="C8">
-        <v>4506400</v>
+        <v>974100</v>
       </c>
       <c r="D8">
-        <v>34800</v>
+        <v>600</v>
       </c>
       <c r="E8">
-        <v>79862283000</v>
+        <v>18218742000</v>
       </c>
       <c r="F8">
-        <v>67776806000</v>
+        <v>16706630000</v>
       </c>
       <c r="G8">
-        <v>900334000</v>
+        <v>10369000</v>
       </c>
       <c r="H8">
-        <v>9997900</v>
+        <v>2036600</v>
       </c>
       <c r="I8">
-        <v>148539423000</v>
+        <v>34935741000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-23T09:40:00.000Z</v>
+        <v>2022-12-23T09:24:00.000Z</v>
       </c>
       <c r="K8">
-        <v>863633455000</v>
+        <v>316882262000</v>
       </c>
       <c r="L8">
-        <v>56016200</v>
+        <v>20388400</v>
       </c>
       <c r="M8">
-        <v>-950300</v>
+        <v>-87800</v>
       </c>
       <c r="N8">
-        <v>-12085477000</v>
+        <v>-1512112000</v>
       </c>
       <c r="O8">
-        <v>264400</v>
+        <v>-3962800</v>
       </c>
       <c r="P8">
-        <v>7076646000</v>
+        <v>-53602025000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1671788700000</v>
+        <v>1671787560000</v>
       </c>
       <c r="B9">
-        <v>4879600</v>
+        <v>1469200</v>
       </c>
       <c r="C9">
-        <v>2969700</v>
+        <v>936800</v>
       </c>
       <c r="D9">
-        <v>48300</v>
+        <v>12000</v>
       </c>
       <c r="E9">
-        <v>79138471000</v>
+        <v>24910108000</v>
       </c>
       <c r="F9">
-        <v>47039723000</v>
+        <v>15698244000</v>
       </c>
       <c r="G9">
-        <v>461248000</v>
+        <v>188377000</v>
       </c>
       <c r="H9">
-        <v>7897600</v>
+        <v>2418000</v>
       </c>
       <c r="I9">
-        <v>126639442000</v>
+        <v>40796729000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-23T09:45:00.000Z</v>
+        <v>2022-12-23T09:26:00.000Z</v>
       </c>
       <c r="K9">
-        <v>990272897000</v>
+        <v>357678991000</v>
       </c>
       <c r="L9">
-        <v>63913800</v>
+        <v>22806400</v>
       </c>
       <c r="M9">
-        <v>-1909900</v>
+        <v>-532400</v>
       </c>
       <c r="N9">
-        <v>-32098748000</v>
+        <v>-9211864000</v>
       </c>
       <c r="O9">
-        <v>-1645500</v>
+        <v>-4495200</v>
       </c>
       <c r="P9">
-        <v>-25022102000</v>
+        <v>-62813889000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1671789000000</v>
+        <v>1671787680000</v>
       </c>
       <c r="B10">
-        <v>2405800</v>
+        <v>2476300</v>
       </c>
       <c r="C10">
-        <v>3356600</v>
+        <v>1032000</v>
       </c>
       <c r="D10">
-        <v>18300</v>
+        <v>2800</v>
       </c>
       <c r="E10">
-        <v>39043542000</v>
+        <v>35672902000</v>
       </c>
       <c r="F10">
-        <v>51920020000</v>
+        <v>15444205000</v>
       </c>
       <c r="G10">
-        <v>327313000</v>
+        <v>56842000</v>
       </c>
       <c r="H10">
-        <v>5780700</v>
+        <v>3511100</v>
       </c>
       <c r="I10">
-        <v>91290875000</v>
+        <v>51173949000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-23T09:50:00.000Z</v>
+        <v>2022-12-23T09:28:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1081563772000</v>
+        <v>408852940000</v>
       </c>
       <c r="L10">
-        <v>69694500</v>
+        <v>26317500</v>
       </c>
       <c r="M10">
-        <v>950800</v>
+        <v>-1444300</v>
       </c>
       <c r="N10">
-        <v>12876478000</v>
+        <v>-20228697000</v>
       </c>
       <c r="O10">
-        <v>-694700</v>
+        <v>-5939500</v>
       </c>
       <c r="P10">
-        <v>-12145624000</v>
+        <v>-83042586000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1671789300000</v>
+        <v>1671787800000</v>
       </c>
       <c r="B11">
-        <v>3180500</v>
+        <v>1398700</v>
       </c>
       <c r="C11">
-        <v>3244800</v>
+        <v>1878600</v>
       </c>
       <c r="D11">
-        <v>11800</v>
+        <v>20000</v>
       </c>
       <c r="E11">
-        <v>50213075000</v>
+        <v>22010761000</v>
       </c>
       <c r="F11">
-        <v>53690778000</v>
+        <v>27056631000</v>
       </c>
       <c r="G11">
-        <v>411188000</v>
+        <v>256015000</v>
       </c>
       <c r="H11">
-        <v>6437100</v>
+        <v>3297300</v>
       </c>
       <c r="I11">
-        <v>104315041000</v>
+        <v>49323407000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-23T09:55:00.000Z</v>
+        <v>2022-12-23T09:30:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1185878813000</v>
+        <v>458176347000</v>
       </c>
       <c r="L11">
-        <v>76131600</v>
+        <v>29614800</v>
       </c>
       <c r="M11">
-        <v>64300</v>
+        <v>479900</v>
       </c>
       <c r="N11">
-        <v>3477703000</v>
+        <v>5045870000</v>
       </c>
       <c r="O11">
-        <v>-630400</v>
+        <v>-5459600</v>
       </c>
       <c r="P11">
-        <v>-8667921000</v>
+        <v>-77996716000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1671789600000</v>
+        <v>1671787920000</v>
       </c>
       <c r="B12">
-        <v>2993300</v>
+        <v>1168700</v>
       </c>
       <c r="C12">
-        <v>3081000</v>
+        <v>2025300</v>
       </c>
       <c r="D12">
-        <v>45800</v>
+        <v>61100</v>
       </c>
       <c r="E12">
-        <v>48092771000</v>
+        <v>19355001000</v>
       </c>
       <c r="F12">
-        <v>52367525000</v>
+        <v>34268619000</v>
       </c>
       <c r="G12">
-        <v>502794000</v>
+        <v>1693537000</v>
       </c>
       <c r="H12">
-        <v>6120100</v>
+        <v>3255100</v>
       </c>
       <c r="I12">
-        <v>100963090000</v>
+        <v>55317157000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-23T10:00:00.000Z</v>
+        <v>2022-12-23T09:32:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1286841903000</v>
+        <v>513493504000</v>
       </c>
       <c r="L12">
-        <v>82251700</v>
+        <v>32869900</v>
       </c>
       <c r="M12">
-        <v>87700</v>
+        <v>856600</v>
       </c>
       <c r="N12">
-        <v>4274754000</v>
+        <v>14913618000</v>
       </c>
       <c r="O12">
-        <v>-542700</v>
+        <v>-4603000</v>
       </c>
       <c r="P12">
-        <v>-4393167000</v>
+        <v>-63083098000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1671789900000</v>
+        <v>1671788040000</v>
       </c>
       <c r="B13">
-        <v>2139400</v>
+        <v>919600</v>
       </c>
       <c r="C13">
-        <v>2271700</v>
+        <v>3322900</v>
       </c>
       <c r="D13">
-        <v>9100</v>
+        <v>19000</v>
       </c>
       <c r="E13">
-        <v>34362056000</v>
+        <v>14206125000</v>
       </c>
       <c r="F13">
-        <v>36106442000</v>
+        <v>51025763000</v>
       </c>
       <c r="G13">
-        <v>212711000</v>
+        <v>321951000</v>
       </c>
       <c r="H13">
-        <v>4420200</v>
+        <v>4261500</v>
       </c>
       <c r="I13">
-        <v>70681209000</v>
+        <v>65553839000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-23T10:05:00.000Z</v>
+        <v>2022-12-23T09:34:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1357523112000</v>
+        <v>579047343000</v>
       </c>
       <c r="L13">
-        <v>86671900</v>
+        <v>37131400</v>
       </c>
       <c r="M13">
-        <v>132300</v>
+        <v>2403300</v>
       </c>
       <c r="N13">
-        <v>1744386000</v>
+        <v>36819638000</v>
       </c>
       <c r="O13">
-        <v>-410400</v>
+        <v>-2199700</v>
       </c>
       <c r="P13">
-        <v>-2648781000</v>
+        <v>-26263460000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1671790200000</v>
+        <v>1671788160000</v>
       </c>
       <c r="B14">
-        <v>2479800</v>
+        <v>1142600</v>
       </c>
       <c r="C14">
-        <v>3178000</v>
+        <v>3560900</v>
       </c>
       <c r="D14">
-        <v>41200</v>
+        <v>18000</v>
       </c>
       <c r="E14">
-        <v>43214962000</v>
+        <v>20594226000</v>
       </c>
       <c r="F14">
-        <v>55805715000</v>
+        <v>53266032000</v>
       </c>
       <c r="G14">
-        <v>364494000</v>
+        <v>565454000</v>
       </c>
       <c r="H14">
-        <v>5699000</v>
+        <v>4721500</v>
       </c>
       <c r="I14">
-        <v>99385171000</v>
+        <v>74425712000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-23T10:10:00.000Z</v>
+        <v>2022-12-23T09:36:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1456908283000</v>
+        <v>653473055000</v>
       </c>
       <c r="L14">
-        <v>92370900</v>
+        <v>41852900</v>
       </c>
       <c r="M14">
-        <v>698200</v>
+        <v>2418300</v>
       </c>
       <c r="N14">
-        <v>12590753000</v>
+        <v>32671806000</v>
       </c>
       <c r="O14">
-        <v>287800</v>
+        <v>218600</v>
       </c>
       <c r="P14">
-        <v>9941972000</v>
+        <v>6408346000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1671790500000</v>
+        <v>1671788280000</v>
       </c>
       <c r="B15">
-        <v>2991000</v>
+        <v>1572500</v>
       </c>
       <c r="C15">
-        <v>2905000</v>
+        <v>2568600</v>
       </c>
       <c r="D15">
-        <v>22500</v>
+        <v>24300</v>
       </c>
       <c r="E15">
-        <v>48879644000</v>
+        <v>24290685000</v>
       </c>
       <c r="F15">
-        <v>48327737000</v>
+        <v>37044462000</v>
       </c>
       <c r="G15">
-        <v>352975000</v>
+        <v>285830000</v>
       </c>
       <c r="H15">
-        <v>5918500</v>
+        <v>4165400</v>
       </c>
       <c r="I15">
-        <v>97560356000</v>
+        <v>61620977000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-23T10:15:00.000Z</v>
+        <v>2022-12-23T09:38:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1554468639000</v>
+        <v>715094032000</v>
       </c>
       <c r="L15">
-        <v>98289400</v>
+        <v>46018300</v>
       </c>
       <c r="M15">
-        <v>-86000</v>
+        <v>996100</v>
       </c>
       <c r="N15">
-        <v>-551907000</v>
+        <v>12753777000</v>
       </c>
       <c r="O15">
-        <v>201800</v>
+        <v>1214700</v>
       </c>
       <c r="P15">
-        <v>9390065000</v>
+        <v>19162123000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1671790800000</v>
+        <v>1671788400000</v>
       </c>
       <c r="B16">
-        <v>8485400</v>
+        <v>1779400</v>
       </c>
       <c r="C16">
-        <v>1968600</v>
+        <v>2331300</v>
       </c>
       <c r="D16">
-        <v>32900</v>
+        <v>11200</v>
       </c>
       <c r="E16">
-        <v>136667166000</v>
+        <v>25783069000</v>
       </c>
       <c r="F16">
-        <v>35360776000</v>
+        <v>34747032000</v>
       </c>
       <c r="G16">
-        <v>742078000</v>
+        <v>254365000</v>
       </c>
       <c r="H16">
-        <v>10486900</v>
+        <v>4121900</v>
       </c>
       <c r="I16">
-        <v>172770020000</v>
+        <v>60784466000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-23T10:20:00.000Z</v>
+        <v>2022-12-23T09:40:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1727238659000</v>
+        <v>775878498000</v>
       </c>
       <c r="L16">
-        <v>108776300</v>
+        <v>50140200</v>
       </c>
       <c r="M16">
-        <v>-6516800</v>
+        <v>551900</v>
       </c>
       <c r="N16">
-        <v>-101306390000</v>
+        <v>8963963000</v>
       </c>
       <c r="O16">
-        <v>-6315000</v>
+        <v>1766600</v>
       </c>
       <c r="P16">
-        <v>-91916325000</v>
+        <v>28126086000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1671791100000</v>
+        <v>1671788520000</v>
       </c>
       <c r="B17">
-        <v>8234100</v>
+        <v>2081800</v>
       </c>
       <c r="C17">
-        <v>2304300</v>
+        <v>1531100</v>
       </c>
       <c r="D17">
-        <v>44100</v>
+        <v>21100</v>
       </c>
       <c r="E17">
-        <v>138288789000</v>
+        <v>35104313000</v>
       </c>
       <c r="F17">
-        <v>34994675000</v>
+        <v>22161313000</v>
       </c>
       <c r="G17">
-        <v>943259000</v>
+        <v>517279000</v>
       </c>
       <c r="H17">
-        <v>10582500</v>
+        <v>3634000</v>
       </c>
       <c r="I17">
-        <v>174226723000</v>
+        <v>57782905000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-23T10:25:00.000Z</v>
+        <v>2022-12-23T09:42:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1901465382000</v>
+        <v>833661403000</v>
       </c>
       <c r="L17">
-        <v>119358800</v>
+        <v>53774200</v>
       </c>
       <c r="M17">
-        <v>-5929800</v>
+        <v>-550700</v>
       </c>
       <c r="N17">
-        <v>-103294114000</v>
+        <v>-12943000000</v>
       </c>
       <c r="O17">
-        <v>-12244800</v>
+        <v>1215900</v>
       </c>
       <c r="P17">
-        <v>-195210439000</v>
+        <v>15183086000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1671791400000</v>
+        <v>1671788640000</v>
       </c>
       <c r="B18">
-        <v>1840600</v>
+        <v>3096300</v>
       </c>
       <c r="C18">
-        <v>2423400</v>
+        <v>1059600</v>
       </c>
       <c r="D18">
-        <v>19700</v>
+        <v>8300</v>
       </c>
       <c r="E18">
-        <v>29025937000</v>
+        <v>46302967000</v>
       </c>
       <c r="F18">
-        <v>38727185000</v>
+        <v>16933341000</v>
       </c>
       <c r="G18">
-        <v>459299000</v>
+        <v>235172000</v>
       </c>
       <c r="H18">
-        <v>4283700</v>
+        <v>4164200</v>
       </c>
       <c r="I18">
-        <v>68212421000</v>
+        <v>63471480000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-23T10:30:00.000Z</v>
+        <v>2022-12-23T09:44:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1969677803000</v>
+        <v>897132883000</v>
       </c>
       <c r="L18">
-        <v>123642500</v>
+        <v>57938400</v>
       </c>
       <c r="M18">
-        <v>582800</v>
+        <v>-2036700</v>
       </c>
       <c r="N18">
-        <v>9701248000</v>
+        <v>-29369626000</v>
       </c>
       <c r="O18">
-        <v>-11662000</v>
+        <v>-820800</v>
       </c>
       <c r="P18">
-        <v>-185509191000</v>
+        <v>-14186540000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1671791700000</v>
+        <v>1671788760000</v>
       </c>
       <c r="B19">
-        <v>2590300</v>
+        <v>2112200</v>
       </c>
       <c r="C19">
-        <v>2102800</v>
+        <v>962000</v>
       </c>
       <c r="D19">
-        <v>86100</v>
+        <v>26500</v>
       </c>
       <c r="E19">
-        <v>41417020000</v>
+        <v>30401683000</v>
       </c>
       <c r="F19">
-        <v>32639245000</v>
+        <v>15204760000</v>
       </c>
       <c r="G19">
-        <v>1370018000</v>
+        <v>224476000</v>
       </c>
       <c r="H19">
-        <v>4779200</v>
+        <v>3100700</v>
       </c>
       <c r="I19">
-        <v>75426283000</v>
+        <v>45830919000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-23T10:35:00.000Z</v>
+        <v>2022-12-23T09:46:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2045104086000</v>
+        <v>942963802000</v>
       </c>
       <c r="L19">
-        <v>128421700</v>
+        <v>61039100</v>
       </c>
       <c r="M19">
-        <v>-487500</v>
+        <v>-1150200</v>
       </c>
       <c r="N19">
-        <v>-8777775000</v>
+        <v>-15196923000</v>
       </c>
       <c r="O19">
-        <v>-12149500</v>
+        <v>-1971000</v>
       </c>
       <c r="P19">
-        <v>-194286966000</v>
+        <v>-29383463000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1671792000000</v>
+        <v>1671788880000</v>
       </c>
       <c r="B20">
-        <v>2818500</v>
+        <v>1266600</v>
       </c>
       <c r="C20">
-        <v>1814200</v>
+        <v>1592100</v>
       </c>
       <c r="D20">
-        <v>26700</v>
+        <v>16000</v>
       </c>
       <c r="E20">
-        <v>48735835000</v>
+        <v>21408722000</v>
       </c>
       <c r="F20">
-        <v>32063401000</v>
+        <v>25770083000</v>
       </c>
       <c r="G20">
-        <v>456349000</v>
+        <v>130290000</v>
       </c>
       <c r="H20">
-        <v>4659400</v>
+        <v>2874700</v>
       </c>
       <c r="I20">
-        <v>81255585000</v>
+        <v>47309095000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-23T10:40:00.000Z</v>
+        <v>2022-12-23T09:48:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2126359671000</v>
+        <v>990272897000</v>
       </c>
       <c r="L20">
-        <v>133081100</v>
+        <v>63913800</v>
       </c>
       <c r="M20">
-        <v>-1004300</v>
+        <v>325500</v>
       </c>
       <c r="N20">
-        <v>-16672434000</v>
+        <v>4361361000</v>
       </c>
       <c r="O20">
-        <v>-13153800</v>
+        <v>-1645500</v>
       </c>
       <c r="P20">
-        <v>-210959400000</v>
+        <v>-25022102000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1671792300000</v>
+        <v>1671789000000</v>
       </c>
       <c r="B21">
-        <v>2936300</v>
+        <v>1073900</v>
       </c>
       <c r="C21">
-        <v>1475800</v>
+        <v>1511600</v>
       </c>
       <c r="D21">
-        <v>5900</v>
+        <v>12600</v>
       </c>
       <c r="E21">
-        <v>41508755000</v>
+        <v>18647630000</v>
       </c>
       <c r="F21">
-        <v>24120377000</v>
+        <v>21722441000</v>
       </c>
       <c r="G21">
-        <v>30784000</v>
+        <v>186045000</v>
       </c>
       <c r="H21">
-        <v>4418000</v>
+        <v>2598100</v>
       </c>
       <c r="I21">
-        <v>65659916000</v>
+        <v>40556116000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-23T10:45:00.000Z</v>
+        <v>2022-12-23T09:50:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2192019587000</v>
+        <v>1030829013000</v>
       </c>
       <c r="L21">
-        <v>137499100</v>
+        <v>66511900</v>
       </c>
       <c r="M21">
-        <v>-1460500</v>
+        <v>437700</v>
       </c>
       <c r="N21">
-        <v>-17388378000</v>
+        <v>3074811000</v>
       </c>
       <c r="O21">
-        <v>-14614300</v>
+        <v>-1207800</v>
       </c>
       <c r="P21">
-        <v>-228347778000</v>
+        <v>-21947291000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1671792600000</v>
+        <v>1671789120000</v>
       </c>
       <c r="B22">
-        <v>9094400</v>
+        <v>859400</v>
       </c>
       <c r="C22">
-        <v>1371700</v>
+        <v>1244100</v>
       </c>
       <c r="D22">
-        <v>31000</v>
+        <v>4000</v>
       </c>
       <c r="E22">
-        <v>154604612000</v>
+        <v>14002522000</v>
       </c>
       <c r="F22">
-        <v>21294976000</v>
+        <v>19754725000</v>
       </c>
       <c r="G22">
-        <v>467219000</v>
+        <v>78287000</v>
       </c>
       <c r="H22">
-        <v>10497100</v>
+        <v>2107500</v>
       </c>
       <c r="I22">
-        <v>176366807000</v>
+        <v>33835534000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-23T10:50:00.000Z</v>
+        <v>2022-12-23T09:52:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2368386394000</v>
+        <v>1064664547000</v>
       </c>
       <c r="L22">
-        <v>147996200</v>
+        <v>68619400</v>
       </c>
       <c r="M22">
-        <v>-7722700</v>
+        <v>384700</v>
       </c>
       <c r="N22">
-        <v>-133309636000</v>
+        <v>5752203000</v>
       </c>
       <c r="O22">
-        <v>-22337000</v>
+        <v>-823100</v>
       </c>
       <c r="P22">
-        <v>-361657414000</v>
+        <v>-16195088000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1671792900000</v>
+        <v>1671789240000</v>
       </c>
       <c r="B23">
-        <v>6619800</v>
+        <v>1103300</v>
       </c>
       <c r="C23">
-        <v>1662200</v>
+        <v>1072100</v>
       </c>
       <c r="D23">
-        <v>23100</v>
+        <v>1800</v>
       </c>
       <c r="E23">
-        <v>110527125000</v>
+        <v>15534570000</v>
       </c>
       <c r="F23">
-        <v>27167670000</v>
+        <v>18480662000</v>
       </c>
       <c r="G23">
-        <v>234319000</v>
+        <v>63511000</v>
       </c>
       <c r="H23">
-        <v>8305100</v>
+        <v>2177200</v>
       </c>
       <c r="I23">
-        <v>137929114000</v>
+        <v>34078743000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-23T10:55:00.000Z</v>
+        <v>2022-12-23T09:54:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2506315508000</v>
+        <v>1098743290000</v>
       </c>
       <c r="L23">
-        <v>156301300</v>
+        <v>70796600</v>
       </c>
       <c r="M23">
-        <v>-4957600</v>
+        <v>-31200</v>
       </c>
       <c r="N23">
-        <v>-83359455000</v>
+        <v>2946092000</v>
       </c>
       <c r="O23">
-        <v>-27294600</v>
+        <v>-854300</v>
       </c>
       <c r="P23">
-        <v>-445016869000</v>
+        <v>-13248996000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1671793200000</v>
+        <v>1671789360000</v>
       </c>
       <c r="B24">
-        <v>4594200</v>
+        <v>1219900</v>
       </c>
       <c r="C24">
-        <v>2573900</v>
+        <v>1629000</v>
       </c>
       <c r="D24">
-        <v>21100</v>
+        <v>4300</v>
       </c>
       <c r="E24">
-        <v>71104917000</v>
+        <v>18427894000</v>
       </c>
       <c r="F24">
-        <v>42408062000</v>
+        <v>27440143000</v>
       </c>
       <c r="G24">
-        <v>551624000</v>
+        <v>63625000</v>
       </c>
       <c r="H24">
-        <v>7189200</v>
+        <v>2853200</v>
       </c>
       <c r="I24">
-        <v>114064603000</v>
+        <v>45931662000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-23T11:00:00.000Z</v>
+        <v>2022-12-23T09:56:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2620380111000</v>
+        <v>1144674952000</v>
       </c>
       <c r="L24">
-        <v>163490500</v>
+        <v>73649800</v>
       </c>
       <c r="M24">
-        <v>-2020300</v>
+        <v>409100</v>
       </c>
       <c r="N24">
-        <v>-28696855000</v>
+        <v>9012249000</v>
       </c>
       <c r="O24">
-        <v>-29314900</v>
+        <v>-445200</v>
       </c>
       <c r="P24">
-        <v>-473713724000</v>
+        <v>-4236747000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1671793500000</v>
+        <v>1671789480000</v>
       </c>
       <c r="B25">
-        <v>2601700</v>
+        <v>1329800</v>
       </c>
       <c r="C25">
-        <v>3153400</v>
+        <v>1144600</v>
       </c>
       <c r="D25">
-        <v>20700</v>
+        <v>7400</v>
       </c>
       <c r="E25">
-        <v>41274354000</v>
+        <v>22644001000</v>
       </c>
       <c r="F25">
-        <v>50018436000</v>
+        <v>18212827000</v>
       </c>
       <c r="G25">
-        <v>406186000</v>
+        <v>347033000</v>
       </c>
       <c r="H25">
-        <v>5775800</v>
+        <v>2481800</v>
       </c>
       <c r="I25">
-        <v>91698976000</v>
+        <v>41203861000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-23T11:05:00.000Z</v>
+        <v>2022-12-23T09:58:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2712079087000</v>
+        <v>1185878813000</v>
       </c>
       <c r="L25">
-        <v>169266300</v>
+        <v>76131600</v>
       </c>
       <c r="M25">
-        <v>551700</v>
+        <v>-185200</v>
       </c>
       <c r="N25">
-        <v>8744082000</v>
+        <v>-4431174000</v>
       </c>
       <c r="O25">
-        <v>-28763200</v>
+        <v>-630400</v>
       </c>
       <c r="P25">
-        <v>-464969642000</v>
+        <v>-8667921000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1671793800000</v>
+        <v>1671789600000</v>
       </c>
       <c r="B26">
-        <v>1435200</v>
+        <v>1454100</v>
       </c>
       <c r="C26">
-        <v>2859400</v>
+        <v>1425100</v>
       </c>
       <c r="D26">
-        <v>13900</v>
+        <v>11400</v>
       </c>
       <c r="E26">
-        <v>25732796000</v>
+        <v>27528987000</v>
       </c>
       <c r="F26">
-        <v>51313608000</v>
+        <v>24964897000</v>
       </c>
       <c r="G26">
-        <v>104490000</v>
+        <v>210631000</v>
       </c>
       <c r="H26">
-        <v>4308500</v>
+        <v>2890600</v>
       </c>
       <c r="I26">
-        <v>77150894000</v>
+        <v>52704515000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-23T11:10:00.000Z</v>
+        <v>2022-12-23T10:00:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2789229981000</v>
+        <v>1238583328000</v>
       </c>
       <c r="L26">
-        <v>173574800</v>
+        <v>79022200</v>
       </c>
       <c r="M26">
-        <v>1424200</v>
+        <v>-29000</v>
       </c>
       <c r="N26">
-        <v>25580812000</v>
+        <v>-2564090000</v>
       </c>
       <c r="O26">
-        <v>-27339000</v>
+        <v>-659400</v>
       </c>
       <c r="P26">
-        <v>-439388830000</v>
+        <v>-11232011000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1671794100000</v>
+        <v>1671789720000</v>
       </c>
       <c r="B27">
-        <v>1957400</v>
+        <v>823300</v>
       </c>
       <c r="C27">
-        <v>1337100</v>
+        <v>996500</v>
       </c>
       <c r="D27">
-        <v>57500</v>
+        <v>34400</v>
       </c>
       <c r="E27">
-        <v>34739914000</v>
+        <v>14074102000</v>
       </c>
       <c r="F27">
-        <v>23379717000</v>
+        <v>16651352000</v>
       </c>
       <c r="G27">
-        <v>1010605000</v>
+        <v>292163000</v>
       </c>
       <c r="H27">
-        <v>3352000</v>
+        <v>1854200</v>
       </c>
       <c r="I27">
-        <v>59130236000</v>
+        <v>31017617000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-23T11:15:00.000Z</v>
+        <v>2022-12-23T10:02:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2848360217000</v>
+        <v>1269600945000</v>
       </c>
       <c r="L27">
-        <v>176926800</v>
+        <v>80876400</v>
       </c>
       <c r="M27">
-        <v>-620300</v>
+        <v>173200</v>
       </c>
       <c r="N27">
-        <v>-11360197000</v>
+        <v>2577250000</v>
       </c>
       <c r="O27">
-        <v>-27959300</v>
+        <v>-486200</v>
       </c>
       <c r="P27">
-        <v>-450749027000</v>
+        <v>-8654761000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1671794400000</v>
+        <v>1671789840000</v>
       </c>
       <c r="B28">
-        <v>2168300</v>
+        <v>994400</v>
       </c>
       <c r="C28">
-        <v>1224900</v>
+        <v>1080200</v>
       </c>
       <c r="D28">
-        <v>21700</v>
+        <v>2000</v>
       </c>
       <c r="E28">
-        <v>35422133000</v>
+        <v>10140769000</v>
       </c>
       <c r="F28">
-        <v>24944109000</v>
+        <v>17372285000</v>
       </c>
       <c r="G28">
-        <v>524535000</v>
+        <v>11828000</v>
       </c>
       <c r="H28">
-        <v>3414900</v>
+        <v>2076600</v>
       </c>
       <c r="I28">
-        <v>60890777000</v>
+        <v>27524882000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-23T11:20:00.000Z</v>
+        <v>2022-12-23T10:04:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2909250994000</v>
+        <v>1297125827000</v>
       </c>
       <c r="L28">
-        <v>180341700</v>
+        <v>82953000</v>
       </c>
       <c r="M28">
-        <v>-943400</v>
+        <v>85800</v>
       </c>
       <c r="N28">
-        <v>-10478024000</v>
+        <v>7231516000</v>
       </c>
       <c r="O28">
-        <v>-28902700</v>
+        <v>-400400</v>
       </c>
       <c r="P28">
-        <v>-461227051000</v>
+        <v>-1423245000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1671794700000</v>
+        <v>1671789960000</v>
       </c>
       <c r="B29">
-        <v>2998900</v>
+        <v>1046000</v>
       </c>
       <c r="C29">
-        <v>1710100</v>
+        <v>749300</v>
       </c>
       <c r="D29">
-        <v>100500</v>
+        <v>5700</v>
       </c>
       <c r="E29">
-        <v>59742508000</v>
+        <v>18578427000</v>
       </c>
       <c r="F29">
-        <v>28987403000</v>
+        <v>12256049000</v>
       </c>
       <c r="G29">
-        <v>1332545000</v>
+        <v>188435000</v>
       </c>
       <c r="H29">
-        <v>4809500</v>
+        <v>1801000</v>
       </c>
       <c r="I29">
-        <v>90062456000</v>
+        <v>31022911000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-23T11:25:00.000Z</v>
+        <v>2022-12-23T10:06:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2999313450000</v>
+        <v>1328148738000</v>
       </c>
       <c r="L29">
-        <v>185151200</v>
+        <v>84754000</v>
       </c>
       <c r="M29">
-        <v>-1288800</v>
+        <v>-296700</v>
       </c>
       <c r="N29">
-        <v>-30755105000</v>
+        <v>-6322378000</v>
       </c>
       <c r="O29">
-        <v>-30191500</v>
+        <v>-697100</v>
       </c>
       <c r="P29">
-        <v>-491982156000</v>
+        <v>-7745623000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1671795000000</v>
+        <v>1671790080000</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>814900</v>
       </c>
       <c r="C30">
-        <v>200</v>
+        <v>1101600</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E30">
-        <v>1400000</v>
+        <v>12132542000</v>
       </c>
       <c r="F30">
-        <v>2840000</v>
+        <v>17229384000</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>12448000</v>
       </c>
       <c r="H30">
-        <v>300</v>
+        <v>1917900</v>
       </c>
       <c r="I30">
-        <v>4240000</v>
+        <v>29374374000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-23T11:30:00.000Z</v>
+        <v>2022-12-23T10:08:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2999317690000</v>
+        <v>1357523112000</v>
       </c>
       <c r="L30">
-        <v>185151500</v>
+        <v>86671900</v>
       </c>
       <c r="M30">
-        <v>100</v>
+        <v>286700</v>
       </c>
       <c r="N30">
-        <v>1440000</v>
+        <v>5096842000</v>
       </c>
       <c r="O30">
-        <v>-30191400</v>
+        <v>-410400</v>
       </c>
       <c r="P30">
-        <v>-491980716000</v>
+        <v>-2648781000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1671800400000</v>
+        <v>1671790200000</v>
       </c>
       <c r="B31">
-        <v>8567700</v>
+        <v>601900</v>
       </c>
       <c r="C31">
-        <v>3819300</v>
+        <v>1114700</v>
       </c>
       <c r="D31">
-        <v>350400</v>
+        <v>3000</v>
       </c>
       <c r="E31">
-        <v>133191086000</v>
+        <v>9762974000</v>
       </c>
       <c r="F31">
-        <v>63019299000</v>
+        <v>19374137000</v>
       </c>
       <c r="G31">
-        <v>6207262000</v>
+        <v>26259000</v>
       </c>
       <c r="H31">
-        <v>12737400</v>
+        <v>1719600</v>
       </c>
       <c r="I31">
-        <v>202417647000</v>
+        <v>29163370000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-23T13:00:00.000Z</v>
+        <v>2022-12-23T10:10:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3201735337000</v>
+        <v>1386686482000</v>
       </c>
       <c r="L31">
-        <v>197888900</v>
+        <v>88391500</v>
       </c>
       <c r="M31">
-        <v>-4748400</v>
+        <v>512800</v>
       </c>
       <c r="N31">
-        <v>-70171787000</v>
+        <v>9611163000</v>
       </c>
       <c r="O31">
-        <v>-34939800</v>
+        <v>102400</v>
       </c>
       <c r="P31">
-        <v>-562152503000</v>
+        <v>6962382000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1671800700000</v>
+        <v>1671790320000</v>
       </c>
       <c r="B32">
-        <v>2081300</v>
+        <v>1066000</v>
       </c>
       <c r="C32">
-        <v>6074800</v>
+        <v>1246700</v>
       </c>
       <c r="D32">
-        <v>20400</v>
+        <v>26200</v>
       </c>
       <c r="E32">
-        <v>33625877000</v>
+        <v>19964757000</v>
       </c>
       <c r="F32">
-        <v>102705249000</v>
+        <v>24054303000</v>
       </c>
       <c r="G32">
-        <v>445704000</v>
+        <v>162968000</v>
       </c>
       <c r="H32">
-        <v>8176500</v>
+        <v>2338900</v>
       </c>
       <c r="I32">
-        <v>136776830000</v>
+        <v>44182028000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-23T13:05:00.000Z</v>
+        <v>2022-12-23T10:12:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3338512167000</v>
+        <v>1430868510000</v>
       </c>
       <c r="L32">
-        <v>206065400</v>
+        <v>90730400</v>
       </c>
       <c r="M32">
-        <v>3993500</v>
+        <v>180700</v>
       </c>
       <c r="N32">
-        <v>69079372000</v>
+        <v>4089546000</v>
       </c>
       <c r="O32">
-        <v>-30946300</v>
+        <v>283100</v>
       </c>
       <c r="P32">
-        <v>-493073131000</v>
+        <v>11051928000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1671801000000</v>
+        <v>1671790440000</v>
       </c>
       <c r="B33">
-        <v>4548500</v>
+        <v>1459400</v>
       </c>
       <c r="C33">
-        <v>2992600</v>
+        <v>2090900</v>
       </c>
       <c r="D33">
-        <v>77800</v>
+        <v>16300</v>
       </c>
       <c r="E33">
-        <v>71134912000</v>
+        <v>25757576000</v>
       </c>
       <c r="F33">
-        <v>51198172000</v>
+        <v>32320738000</v>
       </c>
       <c r="G33">
-        <v>1380206000</v>
+        <v>205758000</v>
       </c>
       <c r="H33">
-        <v>7618900</v>
+        <v>3566600</v>
       </c>
       <c r="I33">
-        <v>123713290000</v>
+        <v>58284072000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-23T13:10:00.000Z</v>
+        <v>2022-12-23T10:14:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3462225457000</v>
+        <v>1489152582000</v>
       </c>
       <c r="L33">
-        <v>213684300</v>
+        <v>94297000</v>
       </c>
       <c r="M33">
-        <v>-1555900</v>
+        <v>631500</v>
       </c>
       <c r="N33">
-        <v>-19936740000</v>
+        <v>6563162000</v>
       </c>
       <c r="O33">
-        <v>-32502200</v>
+        <v>914600</v>
       </c>
       <c r="P33">
-        <v>-513009871000</v>
+        <v>17615090000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1671801300000</v>
+        <v>1671790560000</v>
       </c>
       <c r="B34">
-        <v>3460300</v>
+        <v>1339900</v>
       </c>
       <c r="C34">
-        <v>2390100</v>
+        <v>901500</v>
       </c>
       <c r="D34">
-        <v>27200</v>
+        <v>5500</v>
       </c>
       <c r="E34">
-        <v>51568022000</v>
+        <v>22644252000</v>
       </c>
       <c r="F34">
-        <v>41905455000</v>
+        <v>15634382000</v>
       </c>
       <c r="G34">
-        <v>279063000</v>
+        <v>219735000</v>
       </c>
       <c r="H34">
-        <v>5877600</v>
+        <v>2246900</v>
       </c>
       <c r="I34">
-        <v>93752540000</v>
+        <v>38498369000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-23T13:15:00.000Z</v>
+        <v>2022-12-23T10:16:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3555977997000</v>
+        <v>1527650951000</v>
       </c>
       <c r="L34">
-        <v>219561900</v>
+        <v>96543900</v>
       </c>
       <c r="M34">
-        <v>-1070200</v>
+        <v>-438400</v>
       </c>
       <c r="N34">
-        <v>-9662567000</v>
+        <v>-7009870000</v>
       </c>
       <c r="O34">
-        <v>-33572400</v>
+        <v>476200</v>
       </c>
       <c r="P34">
-        <v>-522672438000</v>
+        <v>10605220000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1671801600000</v>
+        <v>1671790680000</v>
       </c>
       <c r="B35">
-        <v>5430800</v>
+        <v>1003600</v>
       </c>
       <c r="C35">
-        <v>1789500</v>
+        <v>729200</v>
       </c>
       <c r="D35">
-        <v>110700</v>
+        <v>12700</v>
       </c>
       <c r="E35">
-        <v>82669539000</v>
+        <v>13965047000</v>
       </c>
       <c r="F35">
-        <v>31880356000</v>
+        <v>12749892000</v>
       </c>
       <c r="G35">
-        <v>1481897000</v>
+        <v>102749000</v>
       </c>
       <c r="H35">
-        <v>7331000</v>
+        <v>1745500</v>
       </c>
       <c r="I35">
-        <v>116031792000</v>
+        <v>26817688000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-23T13:20:00.000Z</v>
+        <v>2022-12-23T10:18:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3672009789000</v>
+        <v>1554468639000</v>
       </c>
       <c r="L35">
-        <v>226892900</v>
+        <v>98289400</v>
       </c>
       <c r="M35">
-        <v>-3641300</v>
+        <v>-274400</v>
       </c>
       <c r="N35">
-        <v>-50789183000</v>
+        <v>-1215155000</v>
       </c>
       <c r="O35">
-        <v>-37213700</v>
+        <v>201800</v>
       </c>
       <c r="P35">
-        <v>-573461621000</v>
+        <v>9390065000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1671801900000</v>
+        <v>1671790800000</v>
       </c>
       <c r="B36">
-        <v>4721400</v>
+        <v>2127000</v>
       </c>
       <c r="C36">
-        <v>2702000</v>
+        <v>963200</v>
       </c>
       <c r="D36">
-        <v>34600</v>
+        <v>16200</v>
       </c>
       <c r="E36">
-        <v>81613209000</v>
+        <v>39178906000</v>
       </c>
       <c r="F36">
-        <v>53650410000</v>
+        <v>16701210000</v>
       </c>
       <c r="G36">
-        <v>425763000</v>
+        <v>443045000</v>
       </c>
       <c r="H36">
-        <v>7458000</v>
+        <v>3106400</v>
       </c>
       <c r="I36">
-        <v>135689382000</v>
+        <v>56323161000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-23T13:25:00.000Z</v>
+        <v>2022-12-23T10:20:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3807699171000</v>
+        <v>1610791800000</v>
       </c>
       <c r="L36">
-        <v>234350900</v>
+        <v>101395800</v>
       </c>
       <c r="M36">
-        <v>-2019400</v>
+        <v>-1163800</v>
       </c>
       <c r="N36">
-        <v>-27962799000</v>
+        <v>-22477696000</v>
       </c>
       <c r="O36">
-        <v>-39233100</v>
+        <v>-962000</v>
       </c>
       <c r="P36">
-        <v>-601424420000</v>
+        <v>-13087631000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1671802200000</v>
+        <v>1671790920000</v>
       </c>
       <c r="B37">
-        <v>2770600</v>
+        <v>4239200</v>
       </c>
       <c r="C37">
-        <v>3590600</v>
+        <v>752400</v>
       </c>
       <c r="D37">
-        <v>14700</v>
+        <v>15700</v>
       </c>
       <c r="E37">
-        <v>50238724000</v>
+        <v>65986862000</v>
       </c>
       <c r="F37">
-        <v>70523012000</v>
+        <v>13704814000</v>
       </c>
       <c r="G37">
-        <v>381084000</v>
+        <v>283983000</v>
       </c>
       <c r="H37">
-        <v>6375900</v>
+        <v>5007300</v>
       </c>
       <c r="I37">
-        <v>121142820000</v>
+        <v>79975659000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-23T13:30:00.000Z</v>
+        <v>2022-12-23T10:22:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3928841991000</v>
+        <v>1690767459000</v>
       </c>
       <c r="L37">
-        <v>240726800</v>
+        <v>106403100</v>
       </c>
       <c r="M37">
-        <v>820000</v>
+        <v>-3486800</v>
       </c>
       <c r="N37">
-        <v>20284288000</v>
+        <v>-52282048000</v>
       </c>
       <c r="O37">
-        <v>-38413100</v>
+        <v>-4448800</v>
       </c>
       <c r="P37">
-        <v>-581140132000</v>
+        <v>-65369679000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1671802500000</v>
+        <v>1671791040000</v>
       </c>
       <c r="B38">
-        <v>2419200</v>
+        <v>4365900</v>
       </c>
       <c r="C38">
-        <v>5482200</v>
+        <v>651900</v>
       </c>
       <c r="D38">
-        <v>21600</v>
+        <v>23100</v>
       </c>
       <c r="E38">
-        <v>48129664000</v>
+        <v>69790699000</v>
       </c>
       <c r="F38">
-        <v>100730343000</v>
+        <v>10939830000</v>
       </c>
       <c r="G38">
-        <v>278513000</v>
+        <v>578224000</v>
       </c>
       <c r="H38">
-        <v>7923000</v>
+        <v>5040900</v>
       </c>
       <c r="I38">
-        <v>149138520000</v>
+        <v>81308753000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-23T13:35:00.000Z</v>
+        <v>2022-12-23T10:24:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4077980511000</v>
+        <v>1772076212000</v>
       </c>
       <c r="L38">
-        <v>248649800</v>
+        <v>111444000</v>
       </c>
       <c r="M38">
-        <v>3063000</v>
+        <v>-3714000</v>
       </c>
       <c r="N38">
-        <v>52600679000</v>
+        <v>-58850869000</v>
       </c>
       <c r="O38">
-        <v>-35350100</v>
+        <v>-8162800</v>
       </c>
       <c r="P38">
-        <v>-528539453000</v>
+        <v>-124220548000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1671802800000</v>
+        <v>1671791160000</v>
       </c>
       <c r="B39">
-        <v>2543100</v>
+        <v>4299200</v>
       </c>
       <c r="C39">
-        <v>7976500</v>
+        <v>787300</v>
       </c>
       <c r="D39">
-        <v>143000</v>
+        <v>13100</v>
       </c>
       <c r="E39">
-        <v>39980187000</v>
+        <v>73460342000</v>
       </c>
       <c r="F39">
-        <v>145087632000</v>
+        <v>12023630000</v>
       </c>
       <c r="G39">
-        <v>2942954000</v>
+        <v>183338000</v>
       </c>
       <c r="H39">
-        <v>10662600</v>
+        <v>5099600</v>
       </c>
       <c r="I39">
-        <v>188010773000</v>
+        <v>85667310000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-23T13:40:00.000Z</v>
+        <v>2022-12-23T10:26:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4265991284000</v>
+        <v>1857743522000</v>
       </c>
       <c r="L39">
-        <v>259312400</v>
+        <v>116543600</v>
       </c>
       <c r="M39">
-        <v>5433400</v>
+        <v>-3511900</v>
       </c>
       <c r="N39">
-        <v>105107445000</v>
+        <v>-61436712000</v>
       </c>
       <c r="O39">
-        <v>-29916700</v>
+        <v>-11674700</v>
       </c>
       <c r="P39">
-        <v>-423432008000</v>
+        <v>-185657260000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1671803100000</v>
+        <v>1671791280000</v>
       </c>
       <c r="B40">
-        <v>6109500</v>
+        <v>1688200</v>
       </c>
       <c r="C40">
-        <v>3781600</v>
+        <v>1118100</v>
       </c>
       <c r="D40">
-        <v>52500</v>
+        <v>8900</v>
       </c>
       <c r="E40">
-        <v>99477931000</v>
+        <v>26539146000</v>
       </c>
       <c r="F40">
-        <v>66172812000</v>
+        <v>16985967000</v>
       </c>
       <c r="G40">
-        <v>1224064000</v>
+        <v>196747000</v>
       </c>
       <c r="H40">
-        <v>9943600</v>
+        <v>2815200</v>
       </c>
       <c r="I40">
-        <v>166874807000</v>
+        <v>43721860000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-23T13:45:00.000Z</v>
+        <v>2022-12-23T10:28:00.000Z</v>
       </c>
       <c r="K40">
-        <v>4432866091000</v>
+        <v>1901465382000</v>
       </c>
       <c r="L40">
-        <v>269256000</v>
+        <v>119358800</v>
       </c>
       <c r="M40">
-        <v>-2327900</v>
+        <v>-570100</v>
       </c>
       <c r="N40">
-        <v>-33305119000</v>
+        <v>-9553179000</v>
       </c>
       <c r="O40">
-        <v>-32244600</v>
+        <v>-12244800</v>
       </c>
       <c r="P40">
-        <v>-456737127000</v>
+        <v>-195210439000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1671803400000</v>
+        <v>1671791400000</v>
       </c>
       <c r="B41">
-        <v>2907800</v>
+        <v>779900</v>
       </c>
       <c r="C41">
-        <v>3785900</v>
+        <v>972600</v>
       </c>
       <c r="D41">
-        <v>25100</v>
+        <v>2900</v>
       </c>
       <c r="E41">
-        <v>48227634000</v>
+        <v>13247028000</v>
       </c>
       <c r="F41">
-        <v>80071246000</v>
+        <v>15775080000</v>
       </c>
       <c r="G41">
-        <v>292477000</v>
+        <v>141635000</v>
       </c>
       <c r="H41">
-        <v>6718800</v>
+        <v>1755400</v>
       </c>
       <c r="I41">
-        <v>128591357000</v>
+        <v>29163743000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-23T13:50:00.000Z</v>
+        <v>2022-12-23T10:30:00.000Z</v>
       </c>
       <c r="K41">
-        <v>4561457448000</v>
+        <v>1930629125000</v>
       </c>
       <c r="L41">
-        <v>275974800</v>
+        <v>121114200</v>
       </c>
       <c r="M41">
-        <v>878100</v>
+        <v>192700</v>
       </c>
       <c r="N41">
-        <v>31843612000</v>
+        <v>2528052000</v>
       </c>
       <c r="O41">
-        <v>-31366500</v>
+        <v>-12052100</v>
       </c>
       <c r="P41">
-        <v>-424893515000</v>
+        <v>-192682387000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1671803700000</v>
+        <v>1671791520000</v>
       </c>
       <c r="B42">
-        <v>3190000</v>
+        <v>719000</v>
       </c>
       <c r="C42">
-        <v>2647800</v>
+        <v>723700</v>
       </c>
       <c r="D42">
-        <v>34900</v>
+        <v>15200</v>
       </c>
       <c r="E42">
-        <v>60849810000</v>
+        <v>11083573000</v>
       </c>
       <c r="F42">
-        <v>47272405000</v>
+        <v>11178563000</v>
       </c>
       <c r="G42">
-        <v>410522000</v>
+        <v>281384000</v>
       </c>
       <c r="H42">
-        <v>5872700</v>
+        <v>1457900</v>
       </c>
       <c r="I42">
-        <v>108532737000</v>
+        <v>22543520000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-23T13:55:00.000Z</v>
+        <v>2022-12-23T10:32:00.000Z</v>
       </c>
       <c r="K42">
-        <v>4669990185000</v>
+        <v>1953172645000</v>
       </c>
       <c r="L42">
-        <v>281847500</v>
+        <v>122572100</v>
       </c>
       <c r="M42">
-        <v>-542200</v>
+        <v>4700</v>
       </c>
       <c r="N42">
-        <v>-13577405000</v>
+        <v>94990000</v>
       </c>
       <c r="O42">
-        <v>-31908700</v>
+        <v>-12047400</v>
       </c>
       <c r="P42">
-        <v>-438470920000</v>
+        <v>-192587397000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1671804000000</v>
+        <v>1671791640000</v>
       </c>
       <c r="B43">
-        <v>2193400</v>
+        <v>731000</v>
       </c>
       <c r="C43">
-        <v>2853300</v>
+        <v>1111100</v>
       </c>
       <c r="D43">
-        <v>38000</v>
+        <v>1700</v>
       </c>
       <c r="E43">
-        <v>36721766000</v>
+        <v>10075527000</v>
       </c>
       <c r="F43">
-        <v>55307420000</v>
+        <v>18256594000</v>
       </c>
       <c r="G43">
-        <v>771915000</v>
+        <v>39910000</v>
       </c>
       <c r="H43">
-        <v>5084700</v>
+        <v>1843800</v>
       </c>
       <c r="I43">
-        <v>92801101000</v>
+        <v>28372031000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-23T14:00:00.000Z</v>
+        <v>2022-12-23T10:34:00.000Z</v>
       </c>
       <c r="K43">
-        <v>4762791286000</v>
+        <v>1981544676000</v>
       </c>
       <c r="L43">
-        <v>286932200</v>
+        <v>124415900</v>
       </c>
       <c r="M43">
-        <v>659900</v>
+        <v>380100</v>
       </c>
       <c r="N43">
-        <v>18585654000</v>
+        <v>8181067000</v>
       </c>
       <c r="O43">
-        <v>-31248800</v>
+        <v>-11667300</v>
       </c>
       <c r="P43">
-        <v>-419885266000</v>
+        <v>-184406330000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1671804300000</v>
+        <v>1671791760000</v>
       </c>
       <c r="B44">
-        <v>1977300</v>
+        <v>1203800</v>
       </c>
       <c r="C44">
-        <v>8865900</v>
+        <v>996600</v>
       </c>
       <c r="D44">
-        <v>92000</v>
+        <v>83400</v>
       </c>
       <c r="E44">
-        <v>43688650000</v>
+        <v>20534011000</v>
       </c>
       <c r="F44">
-        <v>162271111000</v>
+        <v>13820971000</v>
       </c>
       <c r="G44">
-        <v>1016657000</v>
+        <v>1262388000</v>
       </c>
       <c r="H44">
-        <v>10935200</v>
+        <v>2283800</v>
       </c>
       <c r="I44">
-        <v>206976418000</v>
+        <v>35617370000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-23T14:05:00.000Z</v>
+        <v>2022-12-23T10:36:00.000Z</v>
       </c>
       <c r="K44">
-        <v>4969767704000</v>
+        <v>2017162046000</v>
       </c>
       <c r="L44">
-        <v>297867400</v>
+        <v>126699700</v>
       </c>
       <c r="M44">
-        <v>6888600</v>
+        <v>-207200</v>
       </c>
       <c r="N44">
-        <v>118582461000</v>
+        <v>-6713040000</v>
       </c>
       <c r="O44">
-        <v>-24360200</v>
+        <v>-11874500</v>
       </c>
       <c r="P44">
-        <v>-301302805000</v>
+        <v>-191119370000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1671804600000</v>
+        <v>1671791880000</v>
       </c>
       <c r="B45">
-        <v>6313000</v>
+        <v>997200</v>
       </c>
       <c r="C45">
-        <v>5360000</v>
+        <v>722200</v>
       </c>
       <c r="D45">
-        <v>39500</v>
+        <v>2600</v>
       </c>
       <c r="E45">
-        <v>107504783000</v>
+        <v>15502818000</v>
       </c>
       <c r="F45">
-        <v>113117503000</v>
+        <v>12335222000</v>
       </c>
       <c r="G45">
-        <v>633136000</v>
+        <v>104000000</v>
       </c>
       <c r="H45">
-        <v>11712500</v>
+        <v>1722000</v>
       </c>
       <c r="I45">
-        <v>221255422000</v>
+        <v>27942040000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-23T14:10:00.000Z</v>
+        <v>2022-12-23T10:38:00.000Z</v>
       </c>
       <c r="K45">
-        <v>5191023126000</v>
+        <v>2045104086000</v>
       </c>
       <c r="L45">
-        <v>309579900</v>
+        <v>128421700</v>
       </c>
       <c r="M45">
-        <v>-953000</v>
+        <v>-275000</v>
       </c>
       <c r="N45">
-        <v>5612720000</v>
+        <v>-3167596000</v>
       </c>
       <c r="O45">
-        <v>-25313200</v>
+        <v>-12149500</v>
       </c>
       <c r="P45">
-        <v>-295690085000</v>
+        <v>-194286966000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1671804900000</v>
+        <v>1671792000000</v>
       </c>
       <c r="B46">
-        <v>5287600</v>
+        <v>1514200</v>
       </c>
       <c r="C46">
-        <v>5708700</v>
+        <v>705800</v>
       </c>
       <c r="D46">
-        <v>248300</v>
+        <v>400</v>
       </c>
       <c r="E46">
-        <v>81040301000</v>
+        <v>29708726000</v>
       </c>
       <c r="F46">
-        <v>130500626000</v>
+        <v>11773943000</v>
       </c>
       <c r="G46">
-        <v>3878387000</v>
+        <v>11428000</v>
       </c>
       <c r="H46">
-        <v>11244600</v>
+        <v>2220400</v>
       </c>
       <c r="I46">
-        <v>215419314000</v>
+        <v>41494097000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-23T14:15:00.000Z</v>
+        <v>2022-12-23T10:40:00.000Z</v>
       </c>
       <c r="K46">
-        <v>5406442440000</v>
+        <v>2086598183000</v>
       </c>
       <c r="L46">
-        <v>320824500</v>
+        <v>130642100</v>
       </c>
       <c r="M46">
-        <v>421100</v>
+        <v>-808400</v>
       </c>
       <c r="N46">
-        <v>49460325000</v>
+        <v>-17934783000</v>
       </c>
       <c r="O46">
-        <v>-24892100</v>
+        <v>-12957900</v>
       </c>
       <c r="P46">
-        <v>-246229760000</v>
+        <v>-212221749000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1671805200000</v>
+        <v>1671792120000</v>
       </c>
       <c r="B47">
-        <v>4390700</v>
+        <v>836200</v>
       </c>
       <c r="C47">
-        <v>9116900</v>
+        <v>866000</v>
       </c>
       <c r="D47">
-        <v>110500</v>
+        <v>22900</v>
       </c>
       <c r="E47">
-        <v>81292953000</v>
+        <v>12056747000</v>
       </c>
       <c r="F47">
-        <v>188145921000</v>
+        <v>15294898000</v>
       </c>
       <c r="G47">
-        <v>2285078000</v>
+        <v>350231000</v>
       </c>
       <c r="H47">
-        <v>13618100</v>
+        <v>1725100</v>
       </c>
       <c r="I47">
-        <v>271723952000</v>
+        <v>27701876000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-23T14:20:00.000Z</v>
+        <v>2022-12-23T10:42:00.000Z</v>
       </c>
       <c r="K47">
-        <v>5678166392000</v>
+        <v>2114300059000</v>
       </c>
       <c r="L47">
-        <v>334442600</v>
+        <v>132367200</v>
       </c>
       <c r="M47">
-        <v>4726200</v>
+        <v>29800</v>
       </c>
       <c r="N47">
-        <v>106852968000</v>
+        <v>3238151000</v>
       </c>
       <c r="O47">
-        <v>-20165900</v>
+        <v>-12928100</v>
       </c>
       <c r="P47">
-        <v>-139376792000</v>
+        <v>-208983598000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1671805500000</v>
+        <v>1671792240000</v>
       </c>
       <c r="B48">
-        <v>7266500</v>
+        <v>1006700</v>
       </c>
       <c r="C48">
-        <v>10539800</v>
+        <v>416500</v>
       </c>
       <c r="D48">
-        <v>135100</v>
+        <v>3400</v>
       </c>
       <c r="E48">
-        <v>114007610000</v>
+        <v>15598949000</v>
       </c>
       <c r="F48">
-        <v>209684723000</v>
+        <v>7871722000</v>
       </c>
       <c r="G48">
-        <v>2093854000</v>
+        <v>94690000</v>
       </c>
       <c r="H48">
-        <v>17941400</v>
+        <v>1426600</v>
       </c>
       <c r="I48">
-        <v>325786187000</v>
+        <v>23565361000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-23T14:25:00.000Z</v>
+        <v>2022-12-23T10:44:00.000Z</v>
       </c>
       <c r="K48">
-        <v>6003952579000</v>
+        <v>2137865420000</v>
       </c>
       <c r="L48">
-        <v>352384000</v>
+        <v>133793800</v>
       </c>
       <c r="M48">
-        <v>3273300</v>
+        <v>-590200</v>
       </c>
       <c r="N48">
-        <v>95677113000</v>
+        <v>-7727227000</v>
       </c>
       <c r="O48">
-        <v>-16892600</v>
+        <v>-13518300</v>
       </c>
       <c r="P48">
-        <v>-43699679000</v>
+        <v>-216710825000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1671805800000</v>
+        <v>1671792360000</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1007000</v>
       </c>
       <c r="C49">
-        <v>300</v>
+        <v>517300</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>14230412000</v>
       </c>
       <c r="F49">
-        <v>3000000</v>
+        <v>8805653000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>30784000</v>
       </c>
       <c r="H49">
-        <v>300</v>
+        <v>1530200</v>
       </c>
       <c r="I49">
-        <v>3000000</v>
+        <v>23066849000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-23T14:30:00.000Z</v>
+        <v>2022-12-23T10:46:00.000Z</v>
       </c>
       <c r="K49">
-        <v>6003955579000</v>
+        <v>2160932269000</v>
       </c>
       <c r="L49">
-        <v>352384300</v>
+        <v>135324000</v>
       </c>
       <c r="M49">
-        <v>300</v>
+        <v>-489700</v>
       </c>
       <c r="N49">
-        <v>3000000</v>
+        <v>-5424759000</v>
       </c>
       <c r="O49">
-        <v>-16892300</v>
+        <v>-14008000</v>
       </c>
       <c r="P49">
-        <v>-43696679000</v>
+        <v>-222135584000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1671806400000</v>
+        <v>1671792480000</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1390700</v>
       </c>
       <c r="C50">
-        <v>200</v>
+        <v>784400</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>18649756000</v>
       </c>
       <c r="F50">
-        <v>2000000</v>
+        <v>12437562000</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>200</v>
+        <v>2175100</v>
       </c>
       <c r="I50">
-        <v>2000000</v>
+        <v>31087318000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-23T14:40:00.000Z</v>
+        <v>2022-12-23T10:48:00.000Z</v>
       </c>
       <c r="K50">
-        <v>6003957579000</v>
+        <v>2192019587000</v>
       </c>
       <c r="L50">
-        <v>352384500</v>
+        <v>137499100</v>
       </c>
       <c r="M50">
-        <v>200</v>
+        <v>-606300</v>
       </c>
       <c r="N50">
-        <v>2000000</v>
+        <v>-6212194000</v>
       </c>
       <c r="O50">
-        <v>-16892100</v>
+        <v>-14614300</v>
       </c>
       <c r="P50">
-        <v>-43694679000</v>
+        <v>-228347778000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1671806700000</v>
+        <v>1671792600000</v>
       </c>
       <c r="B51">
-        <v>277300</v>
+        <v>1548100</v>
       </c>
       <c r="C51">
-        <v>424900</v>
+        <v>782800</v>
       </c>
       <c r="D51">
-        <v>37495300</v>
+        <v>2800</v>
       </c>
       <c r="E51">
-        <v>4684393000</v>
+        <v>30774930000</v>
       </c>
       <c r="F51">
-        <v>8291498000</v>
+        <v>11378260000</v>
       </c>
       <c r="G51">
-        <v>705862135000</v>
+        <v>45826000</v>
       </c>
       <c r="H51">
-        <v>38197500</v>
+        <v>2333700</v>
       </c>
       <c r="I51">
-        <v>718838026000</v>
+        <v>42199016000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-23T14:45:00.000Z</v>
+        <v>2022-12-23T10:50:00.000Z</v>
       </c>
       <c r="K51">
-        <v>6722795605000</v>
+        <v>2234218603000</v>
       </c>
       <c r="L51">
-        <v>390582000</v>
+        <v>139832800</v>
       </c>
       <c r="M51">
-        <v>147600</v>
+        <v>-765300</v>
       </c>
       <c r="N51">
-        <v>3607105000</v>
+        <v>-19396670000</v>
       </c>
       <c r="O51">
-        <v>-16744500</v>
+        <v>-15379600</v>
       </c>
       <c r="P51">
-        <v>-40087574000</v>
+        <v>-247744448000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1671807000000</v>
+        <v>1671792720000</v>
       </c>
       <c r="B52">
-        <v>1000</v>
+        <v>5325500</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>337700</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>27500</v>
       </c>
       <c r="E52">
-        <v>9900000</v>
+        <v>88969371000</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>5488290000</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>397923000</v>
       </c>
       <c r="H52">
-        <v>1000</v>
+        <v>5690700</v>
       </c>
       <c r="I52">
-        <v>9900000</v>
+        <v>94855584000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-23T14:50:00.000Z</v>
+        <v>2022-12-23T10:52:00.000Z</v>
       </c>
       <c r="K52">
-        <v>6722805505000</v>
+        <v>2329074187000</v>
       </c>
       <c r="L52">
-        <v>390583000</v>
+        <v>145523500</v>
       </c>
       <c r="M52">
-        <v>-1000</v>
+        <v>-4987800</v>
       </c>
       <c r="N52">
-        <v>-9900000</v>
+        <v>-83481081000</v>
       </c>
       <c r="O52">
-        <v>-16745500</v>
+        <v>-20367400</v>
       </c>
       <c r="P52">
-        <v>-40097474000</v>
+        <v>-331225529000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1671807300000</v>
+        <v>1671792840000</v>
       </c>
       <c r="B53">
+        <v>3094700</v>
+      </c>
+      <c r="C53">
+        <v>568500</v>
+      </c>
+      <c r="D53">
+        <v>2200</v>
+      </c>
+      <c r="E53">
+        <v>53817219000</v>
+      </c>
+      <c r="F53">
+        <v>9082380000</v>
+      </c>
+      <c r="G53">
+        <v>31195000</v>
+      </c>
+      <c r="H53">
+        <v>3665400</v>
+      </c>
+      <c r="I53">
+        <v>62930794000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-23T10:54:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2392004981000</v>
+      </c>
+      <c r="L53">
+        <v>149188900</v>
+      </c>
+      <c r="M53">
+        <v>-2526200</v>
+      </c>
+      <c r="N53">
+        <v>-44734839000</v>
+      </c>
+      <c r="O53">
+        <v>-22893600</v>
+      </c>
+      <c r="P53">
+        <v>-375960368000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1671792960000</v>
+      </c>
+      <c r="B54">
+        <v>2185200</v>
+      </c>
+      <c r="C54">
+        <v>776300</v>
+      </c>
+      <c r="D54">
+        <v>1200</v>
+      </c>
+      <c r="E54">
+        <v>35597497000</v>
+      </c>
+      <c r="F54">
+        <v>13196648000</v>
+      </c>
+      <c r="G54">
+        <v>55828000</v>
+      </c>
+      <c r="H54">
+        <v>2962700</v>
+      </c>
+      <c r="I54">
+        <v>48849973000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-23T10:56:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2440854954000</v>
+      </c>
+      <c r="L54">
+        <v>152151600</v>
+      </c>
+      <c r="M54">
+        <v>-1408900</v>
+      </c>
+      <c r="N54">
+        <v>-22400849000</v>
+      </c>
+      <c r="O54">
+        <v>-24302500</v>
+      </c>
+      <c r="P54">
+        <v>-398361217000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1671793080000</v>
+      </c>
+      <c r="B55">
+        <v>3560700</v>
+      </c>
+      <c r="C55">
+        <v>568600</v>
+      </c>
+      <c r="D55">
+        <v>20400</v>
+      </c>
+      <c r="E55">
+        <v>55972720000</v>
+      </c>
+      <c r="F55">
+        <v>9317068000</v>
+      </c>
+      <c r="G55">
+        <v>170766000</v>
+      </c>
+      <c r="H55">
+        <v>4149700</v>
+      </c>
+      <c r="I55">
+        <v>65460554000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-23T10:58:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2506315508000</v>
+      </c>
+      <c r="L55">
+        <v>156301300</v>
+      </c>
+      <c r="M55">
+        <v>-2992100</v>
+      </c>
+      <c r="N55">
+        <v>-46655652000</v>
+      </c>
+      <c r="O55">
+        <v>-27294600</v>
+      </c>
+      <c r="P55">
+        <v>-445016869000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1671793200000</v>
+      </c>
+      <c r="B56">
+        <v>2079500</v>
+      </c>
+      <c r="C56">
+        <v>988500</v>
+      </c>
+      <c r="D56">
+        <v>7300</v>
+      </c>
+      <c r="E56">
+        <v>32519415000</v>
+      </c>
+      <c r="F56">
+        <v>17026349000</v>
+      </c>
+      <c r="G56">
+        <v>342470000</v>
+      </c>
+      <c r="H56">
+        <v>3075300</v>
+      </c>
+      <c r="I56">
+        <v>49888234000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-23T11:00:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2556203742000</v>
+      </c>
+      <c r="L56">
+        <v>159376600</v>
+      </c>
+      <c r="M56">
+        <v>-1091000</v>
+      </c>
+      <c r="N56">
+        <v>-15493066000</v>
+      </c>
+      <c r="O56">
+        <v>-28385600</v>
+      </c>
+      <c r="P56">
+        <v>-460509935000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1671793320000</v>
+      </c>
+      <c r="B57">
+        <v>1907000</v>
+      </c>
+      <c r="C57">
+        <v>996400</v>
+      </c>
+      <c r="D57">
+        <v>13700</v>
+      </c>
+      <c r="E57">
+        <v>28901182000</v>
+      </c>
+      <c r="F57">
+        <v>15559396000</v>
+      </c>
+      <c r="G57">
+        <v>202124000</v>
+      </c>
+      <c r="H57">
+        <v>2917100</v>
+      </c>
+      <c r="I57">
+        <v>44662702000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-23T11:02:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2600866444000</v>
+      </c>
+      <c r="L57">
+        <v>162293700</v>
+      </c>
+      <c r="M57">
+        <v>-910600</v>
+      </c>
+      <c r="N57">
+        <v>-13341786000</v>
+      </c>
+      <c r="O57">
+        <v>-29296200</v>
+      </c>
+      <c r="P57">
+        <v>-473851721000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1671793440000</v>
+      </c>
+      <c r="B58">
+        <v>1020500</v>
+      </c>
+      <c r="C58">
+        <v>1071600</v>
+      </c>
+      <c r="D58">
+        <v>11600</v>
+      </c>
+      <c r="E58">
+        <v>16746879000</v>
+      </c>
+      <c r="F58">
+        <v>18309826000</v>
+      </c>
+      <c r="G58">
+        <v>278387000</v>
+      </c>
+      <c r="H58">
+        <v>2103700</v>
+      </c>
+      <c r="I58">
+        <v>35335092000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-23T11:04:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2636201536000</v>
+      </c>
+      <c r="L58">
+        <v>164397400</v>
+      </c>
+      <c r="M58">
+        <v>51100</v>
+      </c>
+      <c r="N58">
+        <v>1562947000</v>
+      </c>
+      <c r="O58">
+        <v>-29245100</v>
+      </c>
+      <c r="P58">
+        <v>-472288774000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1671793560000</v>
+      </c>
+      <c r="B59">
+        <v>1340300</v>
+      </c>
+      <c r="C59">
+        <v>958700</v>
+      </c>
+      <c r="D59">
+        <v>2200</v>
+      </c>
+      <c r="E59">
+        <v>20580983000</v>
+      </c>
+      <c r="F59">
+        <v>16522053000</v>
+      </c>
+      <c r="G59">
+        <v>55069000</v>
+      </c>
+      <c r="H59">
+        <v>2301200</v>
+      </c>
+      <c r="I59">
+        <v>37158105000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-23T11:06:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2673359641000</v>
+      </c>
+      <c r="L59">
+        <v>166698600</v>
+      </c>
+      <c r="M59">
+        <v>-381600</v>
+      </c>
+      <c r="N59">
+        <v>-4058930000</v>
+      </c>
+      <c r="O59">
+        <v>-29626700</v>
+      </c>
+      <c r="P59">
+        <v>-476347704000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1671793680000</v>
+      </c>
+      <c r="B60">
+        <v>848600</v>
+      </c>
+      <c r="C60">
+        <v>1712100</v>
+      </c>
+      <c r="D60">
+        <v>7000</v>
+      </c>
+      <c r="E60">
+        <v>13630812000</v>
+      </c>
+      <c r="F60">
+        <v>25008874000</v>
+      </c>
+      <c r="G60">
+        <v>79760000</v>
+      </c>
+      <c r="H60">
+        <v>2567700</v>
+      </c>
+      <c r="I60">
+        <v>38719446000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-23T11:08:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>2712079087000</v>
+      </c>
+      <c r="L60">
+        <v>169266300</v>
+      </c>
+      <c r="M60">
+        <v>863500</v>
+      </c>
+      <c r="N60">
+        <v>11378062000</v>
+      </c>
+      <c r="O60">
+        <v>-28763200</v>
+      </c>
+      <c r="P60">
+        <v>-464969642000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1671793800000</v>
+      </c>
+      <c r="B61">
+        <v>488700</v>
+      </c>
+      <c r="C61">
+        <v>1550600</v>
+      </c>
+      <c r="D61">
+        <v>1600</v>
+      </c>
+      <c r="E61">
+        <v>10760147000</v>
+      </c>
+      <c r="F61">
+        <v>27429245000</v>
+      </c>
+      <c r="G61">
+        <v>39100000</v>
+      </c>
+      <c r="H61">
+        <v>2040900</v>
+      </c>
+      <c r="I61">
+        <v>38228492000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-23T11:10:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>2750307579000</v>
+      </c>
+      <c r="L61">
+        <v>171307200</v>
+      </c>
+      <c r="M61">
+        <v>1061900</v>
+      </c>
+      <c r="N61">
+        <v>16669098000</v>
+      </c>
+      <c r="O61">
+        <v>-27701300</v>
+      </c>
+      <c r="P61">
+        <v>-448300544000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1671793920000</v>
+      </c>
+      <c r="B62">
+        <v>621600</v>
+      </c>
+      <c r="C62">
+        <v>933000</v>
+      </c>
+      <c r="D62">
+        <v>12100</v>
+      </c>
+      <c r="E62">
+        <v>9885237000</v>
+      </c>
+      <c r="F62">
+        <v>17089637000</v>
+      </c>
+      <c r="G62">
+        <v>63786000</v>
+      </c>
+      <c r="H62">
+        <v>1566700</v>
+      </c>
+      <c r="I62">
+        <v>27038660000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-23T11:12:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>2777346239000</v>
+      </c>
+      <c r="L62">
+        <v>172873900</v>
+      </c>
+      <c r="M62">
+        <v>311400</v>
+      </c>
+      <c r="N62">
+        <v>7204400000</v>
+      </c>
+      <c r="O62">
+        <v>-27389900</v>
+      </c>
+      <c r="P62">
+        <v>-441096144000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1671794040000</v>
+      </c>
+      <c r="B63">
+        <v>562100</v>
+      </c>
+      <c r="C63">
+        <v>627700</v>
+      </c>
+      <c r="D63">
+        <v>200</v>
+      </c>
+      <c r="E63">
+        <v>9418197000</v>
+      </c>
+      <c r="F63">
+        <v>12308649000</v>
+      </c>
+      <c r="G63">
+        <v>1604000</v>
+      </c>
+      <c r="H63">
+        <v>1190000</v>
+      </c>
+      <c r="I63">
+        <v>21728450000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-23T11:14:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>2799074689000</v>
+      </c>
+      <c r="L63">
+        <v>174063900</v>
+      </c>
+      <c r="M63">
+        <v>65600</v>
+      </c>
+      <c r="N63">
+        <v>2890452000</v>
+      </c>
+      <c r="O63">
+        <v>-27324300</v>
+      </c>
+      <c r="P63">
+        <v>-438205692000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1671794160000</v>
+      </c>
+      <c r="B64">
+        <v>903000</v>
+      </c>
+      <c r="C64">
+        <v>712000</v>
+      </c>
+      <c r="D64">
+        <v>47500</v>
+      </c>
+      <c r="E64">
+        <v>15765339000</v>
+      </c>
+      <c r="F64">
+        <v>11556877000</v>
+      </c>
+      <c r="G64">
+        <v>828605000</v>
+      </c>
+      <c r="H64">
+        <v>1662500</v>
+      </c>
+      <c r="I64">
+        <v>28150821000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-23T11:16:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>2827225510000</v>
+      </c>
+      <c r="L64">
+        <v>175726400</v>
+      </c>
+      <c r="M64">
+        <v>-191000</v>
+      </c>
+      <c r="N64">
+        <v>-4208462000</v>
+      </c>
+      <c r="O64">
+        <v>-27515300</v>
+      </c>
+      <c r="P64">
+        <v>-442414154000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1671794280000</v>
+      </c>
+      <c r="B65">
+        <v>817200</v>
+      </c>
+      <c r="C65">
+        <v>373200</v>
+      </c>
+      <c r="D65">
+        <v>10000</v>
+      </c>
+      <c r="E65">
+        <v>14643790000</v>
+      </c>
+      <c r="F65">
+        <v>6308917000</v>
+      </c>
+      <c r="G65">
+        <v>182000000</v>
+      </c>
+      <c r="H65">
+        <v>1200400</v>
+      </c>
+      <c r="I65">
+        <v>21134707000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-23T11:18:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2848360217000</v>
+      </c>
+      <c r="L65">
+        <v>176926800</v>
+      </c>
+      <c r="M65">
+        <v>-444000</v>
+      </c>
+      <c r="N65">
+        <v>-8334873000</v>
+      </c>
+      <c r="O65">
+        <v>-27959300</v>
+      </c>
+      <c r="P65">
+        <v>-450749027000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1671794400000</v>
+      </c>
+      <c r="B66">
+        <v>897100</v>
+      </c>
+      <c r="C66">
+        <v>411000</v>
+      </c>
+      <c r="D66">
+        <v>6300</v>
+      </c>
+      <c r="E66">
+        <v>12774884000</v>
+      </c>
+      <c r="F66">
+        <v>10394276000</v>
+      </c>
+      <c r="G66">
+        <v>110625000</v>
+      </c>
+      <c r="H66">
+        <v>1314400</v>
+      </c>
+      <c r="I66">
+        <v>23279785000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-23T11:20:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2871640002000</v>
+      </c>
+      <c r="L66">
+        <v>178241200</v>
+      </c>
+      <c r="M66">
+        <v>-486100</v>
+      </c>
+      <c r="N66">
+        <v>-2380608000</v>
+      </c>
+      <c r="O66">
+        <v>-28445400</v>
+      </c>
+      <c r="P66">
+        <v>-453129635000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1671794520000</v>
+      </c>
+      <c r="B67">
+        <v>807000</v>
+      </c>
+      <c r="C67">
+        <v>522900</v>
+      </c>
+      <c r="D67">
+        <v>5200</v>
+      </c>
+      <c r="E67">
+        <v>14544706000</v>
+      </c>
+      <c r="F67">
+        <v>10040884000</v>
+      </c>
+      <c r="G67">
+        <v>133640000</v>
+      </c>
+      <c r="H67">
+        <v>1335100</v>
+      </c>
+      <c r="I67">
+        <v>24719230000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-23T11:22:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>2896359232000</v>
+      </c>
+      <c r="L67">
+        <v>179576300</v>
+      </c>
+      <c r="M67">
+        <v>-284100</v>
+      </c>
+      <c r="N67">
+        <v>-4503822000</v>
+      </c>
+      <c r="O67">
+        <v>-28729500</v>
+      </c>
+      <c r="P67">
+        <v>-457633457000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1671794640000</v>
+      </c>
+      <c r="B68">
+        <v>950900</v>
+      </c>
+      <c r="C68">
+        <v>606800</v>
+      </c>
+      <c r="D68">
+        <v>10800</v>
+      </c>
+      <c r="E68">
+        <v>17679639000</v>
+      </c>
+      <c r="F68">
+        <v>9945075000</v>
+      </c>
+      <c r="G68">
+        <v>326830000</v>
+      </c>
+      <c r="H68">
+        <v>1568500</v>
+      </c>
+      <c r="I68">
+        <v>27951544000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-23T11:24:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>2924310776000</v>
+      </c>
+      <c r="L68">
+        <v>181144800</v>
+      </c>
+      <c r="M68">
+        <v>-344100</v>
+      </c>
+      <c r="N68">
+        <v>-7734564000</v>
+      </c>
+      <c r="O68">
+        <v>-29073600</v>
+      </c>
+      <c r="P68">
+        <v>-465368021000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1671794760000</v>
+      </c>
+      <c r="B69">
+        <v>1077900</v>
+      </c>
+      <c r="C69">
+        <v>771600</v>
+      </c>
+      <c r="D69">
+        <v>6200</v>
+      </c>
+      <c r="E69">
+        <v>23007952000</v>
+      </c>
+      <c r="F69">
+        <v>12615767000</v>
+      </c>
+      <c r="G69">
+        <v>180450000</v>
+      </c>
+      <c r="H69">
+        <v>1855700</v>
+      </c>
+      <c r="I69">
+        <v>35804169000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-23T11:26:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>2960114945000</v>
+      </c>
+      <c r="L69">
+        <v>183000500</v>
+      </c>
+      <c r="M69">
+        <v>-306300</v>
+      </c>
+      <c r="N69">
+        <v>-10392185000</v>
+      </c>
+      <c r="O69">
+        <v>-29379900</v>
+      </c>
+      <c r="P69">
+        <v>-475760206000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1671794880000</v>
+      </c>
+      <c r="B70">
+        <v>1434300</v>
+      </c>
+      <c r="C70">
+        <v>622700</v>
+      </c>
+      <c r="D70">
+        <v>93700</v>
+      </c>
+      <c r="E70">
+        <v>27157460000</v>
+      </c>
+      <c r="F70">
+        <v>10935510000</v>
+      </c>
+      <c r="G70">
+        <v>1105535000</v>
+      </c>
+      <c r="H70">
+        <v>2150700</v>
+      </c>
+      <c r="I70">
+        <v>39198505000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-23T11:28:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>2999313450000</v>
+      </c>
+      <c r="L70">
+        <v>185151200</v>
+      </c>
+      <c r="M70">
+        <v>-811600</v>
+      </c>
+      <c r="N70">
+        <v>-16221950000</v>
+      </c>
+      <c r="O70">
+        <v>-30191500</v>
+      </c>
+      <c r="P70">
+        <v>-491982156000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1671795000000</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>200</v>
+      </c>
+      <c r="D71">
         <v>0</v>
       </c>
-      <c r="C53">
-        <v>6200</v>
-      </c>
-      <c r="D53">
+      <c r="E71">
+        <v>1400000</v>
+      </c>
+      <c r="F71">
+        <v>2840000</v>
+      </c>
+      <c r="G71">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="H71">
+        <v>300</v>
+      </c>
+      <c r="I71">
+        <v>4240000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-23T11:30:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>2999317690000</v>
+      </c>
+      <c r="L71">
+        <v>185151500</v>
+      </c>
+      <c r="M71">
+        <v>100</v>
+      </c>
+      <c r="N71">
+        <v>1440000</v>
+      </c>
+      <c r="O71">
+        <v>-30191400</v>
+      </c>
+      <c r="P71">
+        <v>-491980716000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1671800400000</v>
+      </c>
+      <c r="B72">
+        <v>5619200</v>
+      </c>
+      <c r="C72">
+        <v>2304000</v>
+      </c>
+      <c r="D72">
+        <v>338000</v>
+      </c>
+      <c r="E72">
+        <v>89857038000</v>
+      </c>
+      <c r="F72">
+        <v>37980832000</v>
+      </c>
+      <c r="G72">
+        <v>6080653000</v>
+      </c>
+      <c r="H72">
+        <v>8261200</v>
+      </c>
+      <c r="I72">
+        <v>133918523000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-23T13:00:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3133236213000</v>
+      </c>
+      <c r="L72">
+        <v>193412700</v>
+      </c>
+      <c r="M72">
+        <v>-3315200</v>
+      </c>
+      <c r="N72">
+        <v>-51876206000</v>
+      </c>
+      <c r="O72">
+        <v>-33506600</v>
+      </c>
+      <c r="P72">
+        <v>-543856922000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1671800520000</v>
+      </c>
+      <c r="B73">
+        <v>2239200</v>
+      </c>
+      <c r="C73">
+        <v>800600</v>
+      </c>
+      <c r="D73">
+        <v>8800</v>
+      </c>
+      <c r="E73">
+        <v>32684122000</v>
+      </c>
+      <c r="F73">
+        <v>15015406000</v>
+      </c>
+      <c r="G73">
+        <v>87341000</v>
+      </c>
+      <c r="H73">
+        <v>3048600</v>
+      </c>
+      <c r="I73">
+        <v>47786869000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-23T13:02:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3181023082000</v>
+      </c>
+      <c r="L73">
+        <v>196461300</v>
+      </c>
+      <c r="M73">
+        <v>-1438600</v>
+      </c>
+      <c r="N73">
+        <v>-17668716000</v>
+      </c>
+      <c r="O73">
+        <v>-34945200</v>
+      </c>
+      <c r="P73">
+        <v>-561525638000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1671800640000</v>
+      </c>
+      <c r="B74">
+        <v>1149100</v>
+      </c>
+      <c r="C74">
+        <v>1849700</v>
+      </c>
+      <c r="D74">
+        <v>4100</v>
+      </c>
+      <c r="E74">
+        <v>17944990000</v>
+      </c>
+      <c r="F74">
+        <v>30769019000</v>
+      </c>
+      <c r="G74">
+        <v>45126000</v>
+      </c>
+      <c r="H74">
+        <v>3002900</v>
+      </c>
+      <c r="I74">
+        <v>48759135000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-23T13:04:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3229782217000</v>
+      </c>
+      <c r="L74">
+        <v>199464200</v>
+      </c>
+      <c r="M74">
+        <v>700600</v>
+      </c>
+      <c r="N74">
+        <v>12824029000</v>
+      </c>
+      <c r="O74">
+        <v>-34244600</v>
+      </c>
+      <c r="P74">
+        <v>-548701609000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1671800760000</v>
+      </c>
+      <c r="B75">
+        <v>772500</v>
+      </c>
+      <c r="C75">
+        <v>2781200</v>
+      </c>
+      <c r="D75">
+        <v>2800</v>
+      </c>
+      <c r="E75">
+        <v>12502639000</v>
+      </c>
+      <c r="F75">
+        <v>47573440000</v>
+      </c>
+      <c r="G75">
+        <v>46701000</v>
+      </c>
+      <c r="H75">
+        <v>3556500</v>
+      </c>
+      <c r="I75">
+        <v>60122780000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-23T13:06:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3289904997000</v>
+      </c>
+      <c r="L75">
+        <v>203020700</v>
+      </c>
+      <c r="M75">
+        <v>2008700</v>
+      </c>
+      <c r="N75">
+        <v>35070801000</v>
+      </c>
+      <c r="O75">
+        <v>-32235900</v>
+      </c>
+      <c r="P75">
+        <v>-513630808000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1671800880000</v>
+      </c>
+      <c r="B76">
+        <v>869000</v>
+      </c>
+      <c r="C76">
+        <v>2158600</v>
+      </c>
+      <c r="D76">
+        <v>17100</v>
+      </c>
+      <c r="E76">
+        <v>13828174000</v>
+      </c>
+      <c r="F76">
+        <v>34385851000</v>
+      </c>
+      <c r="G76">
+        <v>393145000</v>
+      </c>
+      <c r="H76">
+        <v>3044700</v>
+      </c>
+      <c r="I76">
+        <v>48607170000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-23T13:08:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3338512167000</v>
+      </c>
+      <c r="L76">
+        <v>206065400</v>
+      </c>
+      <c r="M76">
+        <v>1289600</v>
+      </c>
+      <c r="N76">
+        <v>20557677000</v>
+      </c>
+      <c r="O76">
+        <v>-30946300</v>
+      </c>
+      <c r="P76">
+        <v>-493073131000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1671801000000</v>
+      </c>
+      <c r="B77">
+        <v>1306000</v>
+      </c>
+      <c r="C77">
+        <v>1659000</v>
+      </c>
+      <c r="D77">
+        <v>27500</v>
+      </c>
+      <c r="E77">
+        <v>22173407000</v>
+      </c>
+      <c r="F77">
+        <v>26154296000</v>
+      </c>
+      <c r="G77">
+        <v>745975000</v>
+      </c>
+      <c r="H77">
+        <v>2992500</v>
+      </c>
+      <c r="I77">
+        <v>49073678000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-23T13:10:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3387585845000</v>
+      </c>
+      <c r="L77">
+        <v>209057900</v>
+      </c>
+      <c r="M77">
+        <v>353000</v>
+      </c>
+      <c r="N77">
+        <v>3980889000</v>
+      </c>
+      <c r="O77">
+        <v>-30593300</v>
+      </c>
+      <c r="P77">
+        <v>-489092242000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1671801120000</v>
+      </c>
+      <c r="B78">
+        <v>2313100</v>
+      </c>
+      <c r="C78">
+        <v>966700</v>
+      </c>
+      <c r="D78">
+        <v>46300</v>
+      </c>
+      <c r="E78">
+        <v>34669772000</v>
+      </c>
+      <c r="F78">
+        <v>19125186000</v>
+      </c>
+      <c r="G78">
+        <v>535031000</v>
+      </c>
+      <c r="H78">
+        <v>3326100</v>
+      </c>
+      <c r="I78">
+        <v>54329989000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-23T13:12:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3441915834000</v>
+      </c>
+      <c r="L78">
+        <v>212384000</v>
+      </c>
+      <c r="M78">
+        <v>-1346400</v>
+      </c>
+      <c r="N78">
+        <v>-15544586000</v>
+      </c>
+      <c r="O78">
+        <v>-31939700</v>
+      </c>
+      <c r="P78">
+        <v>-504636828000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1671801240000</v>
+      </c>
+      <c r="B79">
+        <v>1551400</v>
+      </c>
+      <c r="C79">
+        <v>849600</v>
+      </c>
+      <c r="D79">
+        <v>5800</v>
+      </c>
+      <c r="E79">
+        <v>23311744000</v>
+      </c>
+      <c r="F79">
+        <v>14591905000</v>
+      </c>
+      <c r="G79">
+        <v>140072000</v>
+      </c>
+      <c r="H79">
+        <v>2406800</v>
+      </c>
+      <c r="I79">
+        <v>38043721000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-23T13:14:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3479959555000</v>
+      </c>
+      <c r="L79">
+        <v>214790800</v>
+      </c>
+      <c r="M79">
+        <v>-701800</v>
+      </c>
+      <c r="N79">
+        <v>-8719839000</v>
+      </c>
+      <c r="O79">
+        <v>-32641500</v>
+      </c>
+      <c r="P79">
+        <v>-513356667000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1671801360000</v>
+      </c>
+      <c r="B80">
+        <v>1412100</v>
+      </c>
+      <c r="C80">
+        <v>841900</v>
+      </c>
+      <c r="D80">
+        <v>24700</v>
+      </c>
+      <c r="E80">
+        <v>20904370000</v>
+      </c>
+      <c r="F80">
+        <v>16122742000</v>
+      </c>
+      <c r="G80">
+        <v>221606000.00000003</v>
+      </c>
+      <c r="H80">
+        <v>2278700</v>
+      </c>
+      <c r="I80">
+        <v>37248718000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-23T13:16:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>3517208273000</v>
+      </c>
+      <c r="L80">
+        <v>217069500</v>
+      </c>
+      <c r="M80">
+        <v>-570200</v>
+      </c>
+      <c r="N80">
+        <v>-4781628000</v>
+      </c>
+      <c r="O80">
+        <v>-33211700</v>
+      </c>
+      <c r="P80">
+        <v>-518138295000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1671801480000</v>
+      </c>
+      <c r="B81">
+        <v>1426200</v>
+      </c>
+      <c r="C81">
+        <v>1065500</v>
+      </c>
+      <c r="D81">
+        <v>700</v>
+      </c>
+      <c r="E81">
+        <v>21643641000</v>
+      </c>
+      <c r="F81">
+        <v>17109498000</v>
+      </c>
+      <c r="G81">
+        <v>16585000</v>
+      </c>
+      <c r="H81">
+        <v>2492400</v>
+      </c>
+      <c r="I81">
+        <v>38769724000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-23T13:18:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>3555977997000</v>
+      </c>
+      <c r="L81">
+        <v>219561900</v>
+      </c>
+      <c r="M81">
+        <v>-360700</v>
+      </c>
+      <c r="N81">
+        <v>-4534143000</v>
+      </c>
+      <c r="O81">
+        <v>-33572400</v>
+      </c>
+      <c r="P81">
+        <v>-522672438000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1671801600000</v>
+      </c>
+      <c r="B82">
+        <v>2155600</v>
+      </c>
+      <c r="C82">
+        <v>597000</v>
+      </c>
+      <c r="D82">
+        <v>9700</v>
+      </c>
+      <c r="E82">
+        <v>33316445000</v>
+      </c>
+      <c r="F82">
+        <v>9839093000</v>
+      </c>
+      <c r="G82">
+        <v>324461000</v>
+      </c>
+      <c r="H82">
+        <v>2762300</v>
+      </c>
+      <c r="I82">
+        <v>43479999000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-23T13:20:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>3599457996000</v>
+      </c>
+      <c r="L82">
+        <v>222324200</v>
+      </c>
+      <c r="M82">
+        <v>-1558600</v>
+      </c>
+      <c r="N82">
+        <v>-23477352000</v>
+      </c>
+      <c r="O82">
+        <v>-35131000</v>
+      </c>
+      <c r="P82">
+        <v>-546149790000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1671801720000</v>
+      </c>
+      <c r="B83">
+        <v>2424100</v>
+      </c>
+      <c r="C83">
+        <v>822900</v>
+      </c>
+      <c r="D83">
+        <v>62500</v>
+      </c>
+      <c r="E83">
+        <v>37779840000</v>
+      </c>
+      <c r="F83">
+        <v>14869763000</v>
+      </c>
+      <c r="G83">
+        <v>836306000</v>
+      </c>
+      <c r="H83">
+        <v>3309500</v>
+      </c>
+      <c r="I83">
+        <v>53485909000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-23T13:22:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>3652943905000</v>
+      </c>
+      <c r="L83">
+        <v>225633700</v>
+      </c>
+      <c r="M83">
+        <v>-1601200</v>
+      </c>
+      <c r="N83">
+        <v>-22910077000</v>
+      </c>
+      <c r="O83">
+        <v>-36732200</v>
+      </c>
+      <c r="P83">
+        <v>-569059867000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1671801840000</v>
+      </c>
+      <c r="B84">
+        <v>1698800</v>
+      </c>
+      <c r="C84">
+        <v>916100</v>
+      </c>
+      <c r="D84">
+        <v>41800</v>
+      </c>
+      <c r="E84">
+        <v>27107137000</v>
+      </c>
+      <c r="F84">
+        <v>18544136000</v>
+      </c>
+      <c r="G84">
+        <v>454450000</v>
+      </c>
+      <c r="H84">
+        <v>2656700</v>
+      </c>
+      <c r="I84">
+        <v>46105723000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-23T13:24:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>3699049628000</v>
+      </c>
+      <c r="L84">
+        <v>228290400</v>
+      </c>
+      <c r="M84">
+        <v>-782700</v>
+      </c>
+      <c r="N84">
+        <v>-8563001000</v>
+      </c>
+      <c r="O84">
+        <v>-37514900</v>
+      </c>
+      <c r="P84">
+        <v>-577622868000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1671801960000</v>
+      </c>
+      <c r="B85">
+        <v>2327800</v>
+      </c>
+      <c r="C85">
+        <v>929000</v>
+      </c>
+      <c r="D85">
+        <v>31200</v>
+      </c>
+      <c r="E85">
+        <v>42341576000</v>
+      </c>
+      <c r="F85">
+        <v>18378025000</v>
+      </c>
+      <c r="G85">
+        <v>292037000</v>
+      </c>
+      <c r="H85">
+        <v>3288000</v>
+      </c>
+      <c r="I85">
+        <v>61011638000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-23T13:26:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>3760061266000</v>
+      </c>
+      <c r="L85">
+        <v>231578400</v>
+      </c>
+      <c r="M85">
+        <v>-1398800</v>
+      </c>
+      <c r="N85">
+        <v>-23963551000</v>
+      </c>
+      <c r="O85">
+        <v>-38913700</v>
+      </c>
+      <c r="P85">
+        <v>-601586419000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1671802080000</v>
+      </c>
+      <c r="B86">
+        <v>1545900</v>
+      </c>
+      <c r="C86">
+        <v>1226500</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>23737750000</v>
+      </c>
+      <c r="F86">
+        <v>23899749000</v>
+      </c>
+      <c r="G86">
+        <v>405999.99999999994</v>
+      </c>
+      <c r="H86">
+        <v>2772500</v>
+      </c>
+      <c r="I86">
+        <v>47637905000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-23T13:28:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>3807699171000</v>
+      </c>
+      <c r="L86">
+        <v>234350900</v>
+      </c>
+      <c r="M86">
+        <v>-319400</v>
+      </c>
+      <c r="N86">
+        <v>161999000</v>
+      </c>
+      <c r="O86">
+        <v>-39233100</v>
+      </c>
+      <c r="P86">
+        <v>-601424420000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1671802200000</v>
+      </c>
+      <c r="B87">
+        <v>1299900</v>
+      </c>
+      <c r="C87">
+        <v>1190300</v>
+      </c>
+      <c r="D87">
+        <v>6900</v>
+      </c>
+      <c r="E87">
+        <v>20987645000</v>
+      </c>
+      <c r="F87">
+        <v>23354310000</v>
+      </c>
+      <c r="G87">
+        <v>146211000</v>
+      </c>
+      <c r="H87">
+        <v>2497100</v>
+      </c>
+      <c r="I87">
+        <v>44488166000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-23T13:30:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>3852187337000</v>
+      </c>
+      <c r="L87">
+        <v>236848000</v>
+      </c>
+      <c r="M87">
+        <v>-109600</v>
+      </c>
+      <c r="N87">
+        <v>2366665000</v>
+      </c>
+      <c r="O87">
+        <v>-39342700</v>
+      </c>
+      <c r="P87">
+        <v>-599057755000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1671802320000</v>
+      </c>
+      <c r="B88">
+        <v>1093100</v>
+      </c>
+      <c r="C88">
+        <v>1507600</v>
+      </c>
+      <c r="D88">
+        <v>7200</v>
+      </c>
+      <c r="E88">
+        <v>22398486000</v>
+      </c>
+      <c r="F88">
+        <v>31114726000</v>
+      </c>
+      <c r="G88">
+        <v>232329000</v>
+      </c>
+      <c r="H88">
+        <v>2607900</v>
+      </c>
+      <c r="I88">
+        <v>53745541000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-23T13:32:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>3905932878000</v>
+      </c>
+      <c r="L88">
+        <v>239455900</v>
+      </c>
+      <c r="M88">
+        <v>414500</v>
+      </c>
+      <c r="N88">
+        <v>8716240000</v>
+      </c>
+      <c r="O88">
+        <v>-38928200</v>
+      </c>
+      <c r="P88">
+        <v>-590341515000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1671802440000</v>
+      </c>
+      <c r="B89">
+        <v>1095500</v>
+      </c>
+      <c r="C89">
+        <v>1804400</v>
+      </c>
+      <c r="D89">
+        <v>2400</v>
+      </c>
+      <c r="E89">
+        <v>23361933000</v>
+      </c>
+      <c r="F89">
+        <v>32135366000</v>
+      </c>
+      <c r="G89">
+        <v>18642000</v>
+      </c>
+      <c r="H89">
+        <v>2902300</v>
+      </c>
+      <c r="I89">
+        <v>55515941000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-23T13:34:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>3961448819000</v>
+      </c>
+      <c r="L89">
+        <v>242358200</v>
+      </c>
+      <c r="M89">
+        <v>708900</v>
+      </c>
+      <c r="N89">
+        <v>8773433000</v>
+      </c>
+      <c r="O89">
+        <v>-38219300</v>
+      </c>
+      <c r="P89">
+        <v>-581568082000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1671802560000</v>
+      </c>
+      <c r="B90">
+        <v>1104300</v>
+      </c>
+      <c r="C90">
+        <v>2750700</v>
+      </c>
+      <c r="D90">
+        <v>6600</v>
+      </c>
+      <c r="E90">
+        <v>21396204000</v>
+      </c>
+      <c r="F90">
+        <v>50836048000</v>
+      </c>
+      <c r="G90">
+        <v>134657000</v>
+      </c>
+      <c r="H90">
+        <v>3861600</v>
+      </c>
+      <c r="I90">
+        <v>72366909000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-23T13:36:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4033815728000</v>
+      </c>
+      <c r="L90">
+        <v>246219800</v>
+      </c>
+      <c r="M90">
+        <v>1646400</v>
+      </c>
+      <c r="N90">
+        <v>29439844000</v>
+      </c>
+      <c r="O90">
+        <v>-36572900</v>
+      </c>
+      <c r="P90">
+        <v>-552128238000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1671802680000</v>
+      </c>
+      <c r="B91">
+        <v>597000</v>
+      </c>
+      <c r="C91">
+        <v>1819800</v>
+      </c>
+      <c r="D91">
+        <v>13200</v>
+      </c>
+      <c r="E91">
+        <v>10224120000</v>
+      </c>
+      <c r="F91">
+        <v>33812905000</v>
+      </c>
+      <c r="G91">
+        <v>127758000</v>
+      </c>
+      <c r="H91">
+        <v>2430000</v>
+      </c>
+      <c r="I91">
+        <v>44164783000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-23T13:38:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4077980511000</v>
+      </c>
+      <c r="L91">
+        <v>248649800</v>
+      </c>
+      <c r="M91">
+        <v>1222800</v>
+      </c>
+      <c r="N91">
+        <v>23588785000</v>
+      </c>
+      <c r="O91">
+        <v>-35350100</v>
+      </c>
+      <c r="P91">
+        <v>-528539453000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1671802800000</v>
+      </c>
+      <c r="B92">
+        <v>1004800</v>
+      </c>
+      <c r="C92">
+        <v>2095200</v>
+      </c>
+      <c r="D92">
+        <v>54600</v>
+      </c>
+      <c r="E92">
+        <v>15098669000</v>
+      </c>
+      <c r="F92">
+        <v>41782559000</v>
+      </c>
+      <c r="G92">
+        <v>740837000</v>
+      </c>
+      <c r="H92">
+        <v>3154600</v>
+      </c>
+      <c r="I92">
+        <v>57622065000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-23T13:40:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4135602576000</v>
+      </c>
+      <c r="L92">
+        <v>251804400</v>
+      </c>
+      <c r="M92">
+        <v>1090400</v>
+      </c>
+      <c r="N92">
+        <v>26683890000</v>
+      </c>
+      <c r="O92">
+        <v>-34259700</v>
+      </c>
+      <c r="P92">
+        <v>-501855563000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1671802920000</v>
+      </c>
+      <c r="B93">
+        <v>1018900</v>
+      </c>
+      <c r="C93">
+        <v>4038000</v>
+      </c>
+      <c r="D93">
+        <v>26200</v>
+      </c>
+      <c r="E93">
+        <v>15977137000</v>
+      </c>
+      <c r="F93">
+        <v>69448918000</v>
+      </c>
+      <c r="G93">
+        <v>574168000</v>
+      </c>
+      <c r="H93">
+        <v>5083100</v>
+      </c>
+      <c r="I93">
+        <v>86000223000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-23T13:42:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4221602799000</v>
+      </c>
+      <c r="L93">
+        <v>256887500</v>
+      </c>
+      <c r="M93">
+        <v>3019100</v>
+      </c>
+      <c r="N93">
+        <v>53471781000</v>
+      </c>
+      <c r="O93">
+        <v>-31240600</v>
+      </c>
+      <c r="P93">
+        <v>-448383782000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1671803040000</v>
+      </c>
+      <c r="B94">
+        <v>1608000</v>
+      </c>
+      <c r="C94">
+        <v>3567700</v>
+      </c>
+      <c r="D94">
+        <v>81900</v>
+      </c>
+      <c r="E94">
+        <v>29138041000</v>
+      </c>
+      <c r="F94">
+        <v>63192708000</v>
+      </c>
+      <c r="G94">
+        <v>1837890000</v>
+      </c>
+      <c r="H94">
+        <v>5257600</v>
+      </c>
+      <c r="I94">
+        <v>94168639000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-23T13:44:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>4315771438000</v>
+      </c>
+      <c r="L94">
+        <v>262145100</v>
+      </c>
+      <c r="M94">
+        <v>1959700</v>
+      </c>
+      <c r="N94">
+        <v>34054667000</v>
+      </c>
+      <c r="O94">
+        <v>-29280900</v>
+      </c>
+      <c r="P94">
+        <v>-414329115000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1671803160000</v>
+      </c>
+      <c r="B95">
+        <v>2709600</v>
+      </c>
+      <c r="C95">
+        <v>1536000</v>
+      </c>
+      <c r="D95">
+        <v>10800</v>
+      </c>
+      <c r="E95">
+        <v>42883332000</v>
+      </c>
+      <c r="F95">
+        <v>28524157000</v>
+      </c>
+      <c r="G95">
+        <v>166709000</v>
+      </c>
+      <c r="H95">
+        <v>4256400</v>
+      </c>
+      <c r="I95">
+        <v>71574198000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-23T13:46:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>4387345636000</v>
+      </c>
+      <c r="L95">
+        <v>266401500</v>
+      </c>
+      <c r="M95">
+        <v>-1173600</v>
+      </c>
+      <c r="N95">
+        <v>-14359175000</v>
+      </c>
+      <c r="O95">
+        <v>-30454500</v>
+      </c>
+      <c r="P95">
+        <v>-428688290000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1671803280000</v>
+      </c>
+      <c r="B96">
+        <v>2311300</v>
+      </c>
+      <c r="C96">
+        <v>521200</v>
+      </c>
+      <c r="D96">
+        <v>22000</v>
+      </c>
+      <c r="E96">
+        <v>36360939000</v>
+      </c>
+      <c r="F96">
+        <v>8312102000</v>
+      </c>
+      <c r="G96">
+        <v>847414000</v>
+      </c>
+      <c r="H96">
+        <v>2854500</v>
+      </c>
+      <c r="I96">
+        <v>45520455000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-23T13:48:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>4432866091000</v>
+      </c>
+      <c r="L96">
+        <v>269256000</v>
+      </c>
+      <c r="M96">
+        <v>-1790100</v>
+      </c>
+      <c r="N96">
+        <v>-28048837000</v>
+      </c>
+      <c r="O96">
+        <v>-32244600</v>
+      </c>
+      <c r="P96">
+        <v>-456737127000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1671803400000</v>
+      </c>
+      <c r="B97">
+        <v>1463600</v>
+      </c>
+      <c r="C97">
+        <v>1235800</v>
+      </c>
+      <c r="D97">
+        <v>12200</v>
+      </c>
+      <c r="E97">
+        <v>24612498000</v>
+      </c>
+      <c r="F97">
+        <v>29213517000</v>
+      </c>
+      <c r="G97">
+        <v>112351000</v>
+      </c>
+      <c r="H97">
+        <v>2711600</v>
+      </c>
+      <c r="I97">
+        <v>53938366000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-23T13:50:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>4486804457000</v>
+      </c>
+      <c r="L97">
+        <v>271967600</v>
+      </c>
+      <c r="M97">
+        <v>-227800</v>
+      </c>
+      <c r="N97">
+        <v>4601019000</v>
+      </c>
+      <c r="O97">
+        <v>-32472400</v>
+      </c>
+      <c r="P97">
+        <v>-452136108000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1671803520000</v>
+      </c>
+      <c r="B98">
+        <v>1064600</v>
+      </c>
+      <c r="C98">
+        <v>1428500</v>
+      </c>
+      <c r="D98">
+        <v>7000</v>
+      </c>
+      <c r="E98">
+        <v>17226818000</v>
+      </c>
+      <c r="F98">
+        <v>30241078000</v>
+      </c>
+      <c r="G98">
+        <v>51046000</v>
+      </c>
+      <c r="H98">
+        <v>2500100</v>
+      </c>
+      <c r="I98">
+        <v>47518942000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-23T13:52:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>4534323399000</v>
+      </c>
+      <c r="L98">
+        <v>274467700</v>
+      </c>
+      <c r="M98">
+        <v>363900</v>
+      </c>
+      <c r="N98">
+        <v>13014260000</v>
+      </c>
+      <c r="O98">
+        <v>-32108500</v>
+      </c>
+      <c r="P98">
+        <v>-439121848000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1671803640000</v>
+      </c>
+      <c r="B99">
+        <v>800900</v>
+      </c>
+      <c r="C99">
+        <v>1771100</v>
+      </c>
+      <c r="D99">
+        <v>31400</v>
+      </c>
+      <c r="E99">
+        <v>15661691000</v>
+      </c>
+      <c r="F99">
+        <v>31821401000</v>
+      </c>
+      <c r="G99">
+        <v>297303000</v>
+      </c>
+      <c r="H99">
+        <v>2603400</v>
+      </c>
+      <c r="I99">
+        <v>47780395000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-23T13:54:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>4582103794000</v>
+      </c>
+      <c r="L99">
+        <v>277071100</v>
+      </c>
+      <c r="M99">
+        <v>970200</v>
+      </c>
+      <c r="N99">
+        <v>16159710000</v>
+      </c>
+      <c r="O99">
+        <v>-31138300</v>
+      </c>
+      <c r="P99">
+        <v>-422962138000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1671803760000</v>
+      </c>
+      <c r="B100">
+        <v>1183700</v>
+      </c>
+      <c r="C100">
+        <v>1093700</v>
+      </c>
+      <c r="D100">
+        <v>1200</v>
+      </c>
+      <c r="E100">
+        <v>22987870000</v>
+      </c>
+      <c r="F100">
+        <v>19963396000</v>
+      </c>
+      <c r="G100">
+        <v>44645000</v>
+      </c>
+      <c r="H100">
+        <v>2278600</v>
+      </c>
+      <c r="I100">
+        <v>42995911000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-23T13:56:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>4625099705000</v>
+      </c>
+      <c r="L100">
+        <v>279349700</v>
+      </c>
+      <c r="M100">
+        <v>-90000</v>
+      </c>
+      <c r="N100">
+        <v>-3024474000</v>
+      </c>
+      <c r="O100">
+        <v>-31228300</v>
+      </c>
+      <c r="P100">
+        <v>-425986612000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1671803880000</v>
+      </c>
+      <c r="B101">
+        <v>1585000</v>
+      </c>
+      <c r="C101">
+        <v>904600</v>
+      </c>
+      <c r="D101">
+        <v>8200</v>
+      </c>
+      <c r="E101">
+        <v>28588567000</v>
+      </c>
+      <c r="F101">
+        <v>16104259000</v>
+      </c>
+      <c r="G101">
+        <v>197654000</v>
+      </c>
+      <c r="H101">
+        <v>2497800</v>
+      </c>
+      <c r="I101">
+        <v>44890480000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-23T13:58:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>4669990185000</v>
+      </c>
+      <c r="L101">
+        <v>281847500</v>
+      </c>
+      <c r="M101">
+        <v>-680400</v>
+      </c>
+      <c r="N101">
+        <v>-12484308000</v>
+      </c>
+      <c r="O101">
+        <v>-31908700</v>
+      </c>
+      <c r="P101">
+        <v>-438470920000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1671804000000</v>
+      </c>
+      <c r="B102">
+        <v>997600</v>
+      </c>
+      <c r="C102">
+        <v>1069700</v>
+      </c>
+      <c r="D102">
+        <v>10500</v>
+      </c>
+      <c r="E102">
+        <v>18069380000</v>
+      </c>
+      <c r="F102">
+        <v>21529950000</v>
+      </c>
+      <c r="G102">
+        <v>383037000</v>
+      </c>
+      <c r="H102">
+        <v>2077800</v>
+      </c>
+      <c r="I102">
+        <v>39982367000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-23T14:00:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>4709972552000</v>
+      </c>
+      <c r="L102">
+        <v>283925300</v>
+      </c>
+      <c r="M102">
+        <v>72100</v>
+      </c>
+      <c r="N102">
+        <v>3460570000</v>
+      </c>
+      <c r="O102">
+        <v>-31836600</v>
+      </c>
+      <c r="P102">
+        <v>-435010350000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1671804120000</v>
+      </c>
+      <c r="B103">
+        <v>763900</v>
+      </c>
+      <c r="C103">
+        <v>1109600</v>
+      </c>
+      <c r="D103">
+        <v>22300</v>
+      </c>
+      <c r="E103">
+        <v>11662192000</v>
+      </c>
+      <c r="F103">
+        <v>19982095000</v>
+      </c>
+      <c r="G103">
+        <v>315618000</v>
+      </c>
+      <c r="H103">
+        <v>1895800</v>
+      </c>
+      <c r="I103">
+        <v>31959905000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-23T14:02:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>4741932457000</v>
+      </c>
+      <c r="L103">
+        <v>285821100</v>
+      </c>
+      <c r="M103">
+        <v>345700</v>
+      </c>
+      <c r="N103">
+        <v>8319903000</v>
+      </c>
+      <c r="O103">
+        <v>-31490900</v>
+      </c>
+      <c r="P103">
+        <v>-426690447000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1671804240000</v>
+      </c>
+      <c r="B104">
+        <v>867600</v>
+      </c>
+      <c r="C104">
+        <v>2244200</v>
+      </c>
+      <c r="D104">
+        <v>8100</v>
+      </c>
+      <c r="E104">
+        <v>14195666000</v>
+      </c>
+      <c r="F104">
+        <v>45087679000</v>
+      </c>
+      <c r="G104">
+        <v>185745000</v>
+      </c>
+      <c r="H104">
+        <v>3119900</v>
+      </c>
+      <c r="I104">
+        <v>59469090000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-23T14:04:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>4801401547000</v>
+      </c>
+      <c r="L104">
+        <v>288941000</v>
+      </c>
+      <c r="M104">
+        <v>1376600</v>
+      </c>
+      <c r="N104">
+        <v>30892013000</v>
+      </c>
+      <c r="O104">
+        <v>-30114300</v>
+      </c>
+      <c r="P104">
+        <v>-395798434000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1671804360000</v>
+      </c>
+      <c r="B105">
+        <v>751100</v>
+      </c>
+      <c r="C105">
+        <v>3674700</v>
+      </c>
+      <c r="D105">
+        <v>11000</v>
+      </c>
+      <c r="E105">
+        <v>22345631000</v>
+      </c>
+      <c r="F105">
+        <v>63405809000</v>
+      </c>
+      <c r="G105">
+        <v>130923000</v>
+      </c>
+      <c r="H105">
+        <v>4436800</v>
+      </c>
+      <c r="I105">
+        <v>85882363000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-23T14:06:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>4887283910000</v>
+      </c>
+      <c r="L105">
+        <v>293377800</v>
+      </c>
+      <c r="M105">
+        <v>2923600</v>
+      </c>
+      <c r="N105">
+        <v>41060178000</v>
+      </c>
+      <c r="O105">
+        <v>-27190700</v>
+      </c>
+      <c r="P105">
+        <v>-354738256000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1671804480000</v>
+      </c>
+      <c r="B106">
+        <v>790500</v>
+      </c>
+      <c r="C106">
+        <v>3621000</v>
+      </c>
+      <c r="D106">
+        <v>78100</v>
+      </c>
+      <c r="E106">
+        <v>14137547000</v>
+      </c>
+      <c r="F106">
+        <v>67572998000</v>
+      </c>
+      <c r="G106">
+        <v>773249000</v>
+      </c>
+      <c r="H106">
+        <v>4489600</v>
+      </c>
+      <c r="I106">
+        <v>82483794000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-23T14:08:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>4969767704000</v>
+      </c>
+      <c r="L106">
+        <v>297867400</v>
+      </c>
+      <c r="M106">
+        <v>2830500</v>
+      </c>
+      <c r="N106">
+        <v>53435451000</v>
+      </c>
+      <c r="O106">
+        <v>-24360200</v>
+      </c>
+      <c r="P106">
+        <v>-301302805000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1671804600000</v>
+      </c>
+      <c r="B107">
+        <v>1652500</v>
+      </c>
+      <c r="C107">
+        <v>2779700</v>
+      </c>
+      <c r="D107">
+        <v>4700</v>
+      </c>
+      <c r="E107">
+        <v>29130640000</v>
+      </c>
+      <c r="F107">
+        <v>56409861000</v>
+      </c>
+      <c r="G107">
+        <v>115015000</v>
+      </c>
+      <c r="H107">
+        <v>4436900</v>
+      </c>
+      <c r="I107">
+        <v>85655516000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-23T14:10:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>5055423220000</v>
+      </c>
+      <c r="L107">
+        <v>302304300</v>
+      </c>
+      <c r="M107">
+        <v>1127200</v>
+      </c>
+      <c r="N107">
+        <v>27279221000</v>
+      </c>
+      <c r="O107">
+        <v>-23233000</v>
+      </c>
+      <c r="P107">
+        <v>-274023584000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1671804720000</v>
+      </c>
+      <c r="B108">
+        <v>2409100</v>
+      </c>
+      <c r="C108">
+        <v>1685700</v>
+      </c>
+      <c r="D108">
+        <v>26200</v>
+      </c>
+      <c r="E108">
+        <v>43909420000</v>
+      </c>
+      <c r="F108">
+        <v>33776841000</v>
+      </c>
+      <c r="G108">
+        <v>424394000</v>
+      </c>
+      <c r="H108">
+        <v>4121000</v>
+      </c>
+      <c r="I108">
+        <v>78110655000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-23T14:12:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>5133533875000</v>
+      </c>
+      <c r="L108">
+        <v>306425300</v>
+      </c>
+      <c r="M108">
+        <v>-723400</v>
+      </c>
+      <c r="N108">
+        <v>-10132579000</v>
+      </c>
+      <c r="O108">
+        <v>-23956400</v>
+      </c>
+      <c r="P108">
+        <v>-284156163000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1671804840000</v>
+      </c>
+      <c r="B109">
+        <v>4377900</v>
+      </c>
+      <c r="C109">
+        <v>1869200</v>
+      </c>
+      <c r="D109">
+        <v>45600</v>
+      </c>
+      <c r="E109">
+        <v>63396292000</v>
+      </c>
+      <c r="F109">
+        <v>45151867000</v>
+      </c>
+      <c r="G109">
+        <v>509344000</v>
+      </c>
+      <c r="H109">
+        <v>6292700</v>
+      </c>
+      <c r="I109">
+        <v>109057503000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-23T14:14:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>5242591378000</v>
+      </c>
+      <c r="L109">
+        <v>312718000</v>
+      </c>
+      <c r="M109">
+        <v>-2508700</v>
+      </c>
+      <c r="N109">
+        <v>-18244425000</v>
+      </c>
+      <c r="O109">
+        <v>-26465100</v>
+      </c>
+      <c r="P109">
+        <v>-302400588000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1671804960000</v>
+      </c>
+      <c r="B110">
+        <v>1749500</v>
+      </c>
+      <c r="C110">
+        <v>2718400</v>
+      </c>
+      <c r="D110">
+        <v>203000</v>
+      </c>
+      <c r="E110">
+        <v>28996905000</v>
+      </c>
+      <c r="F110">
+        <v>67163410000</v>
+      </c>
+      <c r="G110">
+        <v>3289795000</v>
+      </c>
+      <c r="H110">
+        <v>4670900</v>
+      </c>
+      <c r="I110">
+        <v>99450110000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-23T14:16:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>5342041488000</v>
+      </c>
+      <c r="L110">
+        <v>317388900</v>
+      </c>
+      <c r="M110">
+        <v>968900</v>
+      </c>
+      <c r="N110">
+        <v>38166505000</v>
+      </c>
+      <c r="O110">
+        <v>-25496200</v>
+      </c>
+      <c r="P110">
+        <v>-264234083000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1671805080000</v>
+      </c>
+      <c r="B111">
+        <v>1411600</v>
+      </c>
+      <c r="C111">
+        <v>2015700</v>
+      </c>
+      <c r="D111">
+        <v>8300</v>
+      </c>
+      <c r="E111">
+        <v>23111827000</v>
+      </c>
+      <c r="F111">
+        <v>41116150000</v>
+      </c>
+      <c r="G111">
+        <v>172975000</v>
+      </c>
+      <c r="H111">
+        <v>3435600</v>
+      </c>
+      <c r="I111">
+        <v>64400952000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-23T14:18:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>5406442440000</v>
+      </c>
+      <c r="L111">
+        <v>320824500</v>
+      </c>
+      <c r="M111">
+        <v>604100</v>
+      </c>
+      <c r="N111">
+        <v>18004323000</v>
+      </c>
+      <c r="O111">
+        <v>-24892100</v>
+      </c>
+      <c r="P111">
+        <v>-246229760000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1671805200000</v>
+      </c>
+      <c r="B112">
+        <v>1412200</v>
+      </c>
+      <c r="C112">
+        <v>4846600</v>
+      </c>
+      <c r="D112">
+        <v>84800</v>
+      </c>
+      <c r="E112">
+        <v>28122069000</v>
+      </c>
+      <c r="F112">
+        <v>107436706000</v>
+      </c>
+      <c r="G112">
+        <v>1825882000</v>
+      </c>
+      <c r="H112">
+        <v>6343600</v>
+      </c>
+      <c r="I112">
+        <v>137384657000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-23T14:20:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>5543827097000</v>
+      </c>
+      <c r="L112">
+        <v>327168100</v>
+      </c>
+      <c r="M112">
+        <v>3434400</v>
+      </c>
+      <c r="N112">
+        <v>79314637000</v>
+      </c>
+      <c r="O112">
+        <v>-21457700</v>
+      </c>
+      <c r="P112">
+        <v>-166915123000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1671805320000</v>
+      </c>
+      <c r="B113">
+        <v>2041500</v>
+      </c>
+      <c r="C113">
+        <v>3051900</v>
+      </c>
+      <c r="D113">
+        <v>19600</v>
+      </c>
+      <c r="E113">
+        <v>37089660000</v>
+      </c>
+      <c r="F113">
+        <v>55568663000</v>
+      </c>
+      <c r="G113">
+        <v>309838000</v>
+      </c>
+      <c r="H113">
+        <v>5113000</v>
+      </c>
+      <c r="I113">
+        <v>92968161000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-23T14:22:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>5636795258000</v>
+      </c>
+      <c r="L113">
+        <v>332281100</v>
+      </c>
+      <c r="M113">
+        <v>1010400</v>
+      </c>
+      <c r="N113">
+        <v>18479003000</v>
+      </c>
+      <c r="O113">
+        <v>-20447300</v>
+      </c>
+      <c r="P113">
+        <v>-148436120000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1671805440000</v>
+      </c>
+      <c r="B114">
+        <v>2178900</v>
+      </c>
+      <c r="C114">
+        <v>2883600</v>
+      </c>
+      <c r="D114">
+        <v>9500</v>
+      </c>
+      <c r="E114">
+        <v>37804867000</v>
+      </c>
+      <c r="F114">
+        <v>59070504000</v>
+      </c>
+      <c r="G114">
+        <v>204709000</v>
+      </c>
+      <c r="H114">
+        <v>5072000</v>
+      </c>
+      <c r="I114">
+        <v>97080080000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-23T14:24:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>5733875338000</v>
+      </c>
+      <c r="L114">
+        <v>337353100</v>
+      </c>
+      <c r="M114">
+        <v>704700</v>
+      </c>
+      <c r="N114">
+        <v>21265637000</v>
+      </c>
+      <c r="O114">
+        <v>-19742600</v>
+      </c>
+      <c r="P114">
+        <v>-127170483000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1671805560000</v>
+      </c>
+      <c r="B115">
+        <v>3396000</v>
+      </c>
+      <c r="C115">
+        <v>3472500</v>
+      </c>
+      <c r="D115">
+        <v>26900</v>
+      </c>
+      <c r="E115">
+        <v>53929463000</v>
+      </c>
+      <c r="F115">
+        <v>70079015000</v>
+      </c>
+      <c r="G115">
+        <v>574337000</v>
+      </c>
+      <c r="H115">
+        <v>6895400</v>
+      </c>
+      <c r="I115">
+        <v>124582815000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-23T14:26:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>5858458153000</v>
+      </c>
+      <c r="L115">
+        <v>344248500</v>
+      </c>
+      <c r="M115">
+        <v>76500</v>
+      </c>
+      <c r="N115">
+        <v>16149552000</v>
+      </c>
+      <c r="O115">
+        <v>-19666100</v>
+      </c>
+      <c r="P115">
+        <v>-111020931000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1671805680000</v>
+      </c>
+      <c r="B116">
+        <v>2628600</v>
+      </c>
+      <c r="C116">
+        <v>5402100</v>
+      </c>
+      <c r="D116">
+        <v>104800</v>
+      </c>
+      <c r="E116">
+        <v>38354504000</v>
+      </c>
+      <c r="F116">
+        <v>105675756000</v>
+      </c>
+      <c r="G116">
+        <v>1464166000</v>
+      </c>
+      <c r="H116">
+        <v>8135500</v>
+      </c>
+      <c r="I116">
+        <v>145494426000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-23T14:28:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>6003952579000</v>
+      </c>
+      <c r="L116">
+        <v>352384000</v>
+      </c>
+      <c r="M116">
+        <v>2773500</v>
+      </c>
+      <c r="N116">
+        <v>67321252000</v>
+      </c>
+      <c r="O116">
+        <v>-16892600</v>
+      </c>
+      <c r="P116">
+        <v>-43699679000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1671805800000</v>
+      </c>
+      <c r="B117">
         <v>0</v>
       </c>
-      <c r="F53">
-        <v>62000000</v>
-      </c>
-      <c r="G53">
+      <c r="C117">
+        <v>100</v>
+      </c>
+      <c r="D117">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>6200</v>
-      </c>
-      <c r="I53">
-        <v>62000000</v>
-      </c>
-      <c r="J53" t="str">
-        <v>2022-12-23T14:55:00.000Z</v>
-      </c>
-      <c r="K53">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1000000</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>100</v>
+      </c>
+      <c r="I117">
+        <v>1000000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-23T14:30:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>6003953579000</v>
+      </c>
+      <c r="L117">
+        <v>352384100</v>
+      </c>
+      <c r="M117">
+        <v>100</v>
+      </c>
+      <c r="N117">
+        <v>1000000</v>
+      </c>
+      <c r="O117">
+        <v>-16892500</v>
+      </c>
+      <c r="P117">
+        <v>-43698679000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1671805920000</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>200</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>2000000</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>200</v>
+      </c>
+      <c r="I118">
+        <v>2000000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-23T14:32:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>6003955579000</v>
+      </c>
+      <c r="L118">
+        <v>352384300</v>
+      </c>
+      <c r="M118">
+        <v>200</v>
+      </c>
+      <c r="N118">
+        <v>2000000</v>
+      </c>
+      <c r="O118">
+        <v>-16892300</v>
+      </c>
+      <c r="P118">
+        <v>-43696679000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1671806640000</v>
+      </c>
+      <c r="B119">
+        <v>277300</v>
+      </c>
+      <c r="C119">
+        <v>425100</v>
+      </c>
+      <c r="D119">
+        <v>37495300</v>
+      </c>
+      <c r="E119">
+        <v>4684393000</v>
+      </c>
+      <c r="F119">
+        <v>8293498000</v>
+      </c>
+      <c r="G119">
+        <v>705862135000</v>
+      </c>
+      <c r="H119">
+        <v>38197700</v>
+      </c>
+      <c r="I119">
+        <v>718840026000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-23T14:44:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>6722795605000</v>
+      </c>
+      <c r="L119">
+        <v>390582000</v>
+      </c>
+      <c r="M119">
+        <v>147800</v>
+      </c>
+      <c r="N119">
+        <v>3609105000</v>
+      </c>
+      <c r="O119">
+        <v>-16744500</v>
+      </c>
+      <c r="P119">
+        <v>-40087574000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1671807120000</v>
+      </c>
+      <c r="B120">
+        <v>1000</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>9900000</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1000</v>
+      </c>
+      <c r="I120">
+        <v>9900000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-23T14:52:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>6722805505000</v>
+      </c>
+      <c r="L120">
+        <v>390583000</v>
+      </c>
+      <c r="M120">
+        <v>-1000</v>
+      </c>
+      <c r="N120">
+        <v>-9900000</v>
+      </c>
+      <c r="O120">
+        <v>-16745500</v>
+      </c>
+      <c r="P120">
+        <v>-40097474000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1671807360000</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>6100</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>61000000</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>6100</v>
+      </c>
+      <c r="I121">
+        <v>61000000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-23T14:56:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>6722866505000</v>
+      </c>
+      <c r="L121">
+        <v>390589100</v>
+      </c>
+      <c r="M121">
+        <v>6100</v>
+      </c>
+      <c r="N121">
+        <v>61000000</v>
+      </c>
+      <c r="O121">
+        <v>-16739400</v>
+      </c>
+      <c r="P121">
+        <v>-40036474000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1671807480000</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1000000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>1000000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-23T14:58:00.000Z</v>
+      </c>
+      <c r="K122">
         <v>6722867505000</v>
       </c>
-      <c r="L53">
+      <c r="L122">
         <v>390589200</v>
       </c>
-      <c r="M53">
-        <v>6200</v>
-      </c>
-      <c r="N53">
-        <v>62000000</v>
-      </c>
-      <c r="O53">
+      <c r="M122">
+        <v>100</v>
+      </c>
+      <c r="N122">
+        <v>1000000</v>
+      </c>
+      <c r="O122">
         <v>-16739300</v>
       </c>
-      <c r="P53">
+      <c r="P122">
         <v>-40035474000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P122"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221223/VNINDEX_HOSE_5p_20221223.xlsx
+++ b/name/vnindex/20221223/VNINDEX_HOSE_5p_20221223.xlsx
@@ -516,25 +516,25 @@
         <v>2131500</v>
       </c>
       <c r="E3">
-        <v>32797231000</v>
+        <v>26843390800</v>
       </c>
       <c r="F3">
-        <v>28199235000</v>
+        <v>27594640200</v>
       </c>
       <c r="G3">
-        <v>27817903000</v>
+        <v>24268655800</v>
       </c>
       <c r="H3">
         <v>5733400</v>
       </c>
       <c r="I3">
-        <v>88814369000</v>
+        <v>78706686800</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-23T09:14:00.000Z</v>
       </c>
       <c r="K3">
-        <v>88815379000</v>
+        <v>78707696800</v>
       </c>
       <c r="L3">
         <v>5733500</v>
@@ -543,13 +543,13 @@
         <v>-76900</v>
       </c>
       <c r="N3">
-        <v>-4597996000</v>
+        <v>751249400</v>
       </c>
       <c r="O3">
         <v>-76900</v>
       </c>
       <c r="P3">
-        <v>-4597996000</v>
+        <v>751249400</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>9100</v>
       </c>
       <c r="E4">
-        <v>22474064000</v>
+        <v>20155085300</v>
       </c>
       <c r="F4">
-        <v>15919285000</v>
+        <v>14937268000</v>
       </c>
       <c r="G4">
-        <v>83784000</v>
+        <v>52015800</v>
       </c>
       <c r="H4">
         <v>2349000</v>
       </c>
       <c r="I4">
-        <v>38477133000</v>
+        <v>35144369100</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-23T09:16:00.000Z</v>
       </c>
       <c r="K4">
-        <v>127292512000</v>
+        <v>113852065900</v>
       </c>
       <c r="L4">
         <v>8082500</v>
@@ -593,13 +593,13 @@
         <v>-393700</v>
       </c>
       <c r="N4">
-        <v>-6554779000</v>
+        <v>-5217817300</v>
       </c>
       <c r="O4">
         <v>-470600</v>
       </c>
       <c r="P4">
-        <v>-11152775000</v>
+        <v>-4466567900</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>1600</v>
       </c>
       <c r="E5">
-        <v>34035904000</v>
+        <v>29008336600</v>
       </c>
       <c r="F5">
-        <v>15318841000</v>
+        <v>13952209000</v>
       </c>
       <c r="G5">
         <v>38470000</v>
@@ -628,13 +628,13 @@
         <v>3425600</v>
       </c>
       <c r="I5">
-        <v>49393215000</v>
+        <v>42999015600</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-23T09:18:00.000Z</v>
       </c>
       <c r="K5">
-        <v>176685727000</v>
+        <v>156851081500</v>
       </c>
       <c r="L5">
         <v>11508100</v>
@@ -643,13 +643,13 @@
         <v>-1719600</v>
       </c>
       <c r="N5">
-        <v>-18717063000</v>
+        <v>-15056127600</v>
       </c>
       <c r="O5">
         <v>-2190200</v>
       </c>
       <c r="P5">
-        <v>-29869838000</v>
+        <v>-19522695500</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>28300</v>
       </c>
       <c r="E6">
-        <v>35552596000</v>
+        <v>32835915400</v>
       </c>
       <c r="F6">
-        <v>23467872000</v>
+        <v>20216726400</v>
       </c>
       <c r="G6">
-        <v>420339000</v>
+        <v>410548800</v>
       </c>
       <c r="H6">
         <v>3798300</v>
       </c>
       <c r="I6">
-        <v>59440807000</v>
+        <v>53463190600</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-23T09:20:00.000Z</v>
       </c>
       <c r="K6">
-        <v>236126534000</v>
+        <v>210314272100</v>
       </c>
       <c r="L6">
         <v>15306400</v>
@@ -693,13 +693,13 @@
         <v>-910200</v>
       </c>
       <c r="N6">
-        <v>-12084724000</v>
+        <v>-12619189000</v>
       </c>
       <c r="O6">
         <v>-3100400</v>
       </c>
       <c r="P6">
-        <v>-41954562000</v>
+        <v>-32141884500</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>9400</v>
       </c>
       <c r="E7">
-        <v>27865442000</v>
+        <v>25955853500</v>
       </c>
       <c r="F7">
-        <v>17730091000</v>
+        <v>16854867100</v>
       </c>
       <c r="G7">
-        <v>224454000</v>
+        <v>187291200</v>
       </c>
       <c r="H7">
         <v>3045400</v>
       </c>
       <c r="I7">
-        <v>45819987000</v>
+        <v>42998011800</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-23T09:22:00.000Z</v>
       </c>
       <c r="K7">
-        <v>281946521000</v>
+        <v>253312283900</v>
       </c>
       <c r="L7">
         <v>18351800</v>
@@ -743,13 +743,13 @@
         <v>-774600</v>
       </c>
       <c r="N7">
-        <v>-10135351000</v>
+        <v>-9100986400</v>
       </c>
       <c r="O7">
         <v>-3875000</v>
       </c>
       <c r="P7">
-        <v>-52089913000</v>
+        <v>-41242870900</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>600</v>
       </c>
       <c r="E8">
-        <v>18218742000</v>
+        <v>16622539800</v>
       </c>
       <c r="F8">
-        <v>16706630000</v>
+        <v>16187849300</v>
       </c>
       <c r="G8">
         <v>10369000</v>
@@ -778,13 +778,13 @@
         <v>2036600</v>
       </c>
       <c r="I8">
-        <v>34935741000</v>
+        <v>32820758100</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-23T09:24:00.000Z</v>
       </c>
       <c r="K8">
-        <v>316882262000</v>
+        <v>286133042000</v>
       </c>
       <c r="L8">
         <v>20388400</v>
@@ -793,13 +793,13 @@
         <v>-87800</v>
       </c>
       <c r="N8">
-        <v>-1512112000</v>
+        <v>-434690500</v>
       </c>
       <c r="O8">
         <v>-3962800</v>
       </c>
       <c r="P8">
-        <v>-53602025000</v>
+        <v>-41677561400</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>12000</v>
       </c>
       <c r="E9">
-        <v>24910108000</v>
+        <v>24641976400</v>
       </c>
       <c r="F9">
-        <v>15698244000</v>
+        <v>15064977900</v>
       </c>
       <c r="G9">
-        <v>188377000</v>
+        <v>185979400</v>
       </c>
       <c r="H9">
         <v>2418000</v>
       </c>
       <c r="I9">
-        <v>40796729000</v>
+        <v>39892933700</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-23T09:26:00.000Z</v>
       </c>
       <c r="K9">
-        <v>357678991000</v>
+        <v>326025975700</v>
       </c>
       <c r="L9">
         <v>22806400</v>
@@ -843,13 +843,13 @@
         <v>-532400</v>
       </c>
       <c r="N9">
-        <v>-9211864000</v>
+        <v>-9576998500</v>
       </c>
       <c r="O9">
         <v>-4495200</v>
       </c>
       <c r="P9">
-        <v>-62813889000</v>
+        <v>-51254559900</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>2800</v>
       </c>
       <c r="E10">
-        <v>35672902000</v>
+        <v>34905969700</v>
       </c>
       <c r="F10">
-        <v>15444205000</v>
+        <v>13657393600</v>
       </c>
       <c r="G10">
         <v>56842000</v>
@@ -878,13 +878,13 @@
         <v>3511100</v>
       </c>
       <c r="I10">
-        <v>51173949000</v>
+        <v>48620205300</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-23T09:28:00.000Z</v>
       </c>
       <c r="K10">
-        <v>408852940000</v>
+        <v>374646181000</v>
       </c>
       <c r="L10">
         <v>26317500</v>
@@ -893,13 +893,13 @@
         <v>-1444300</v>
       </c>
       <c r="N10">
-        <v>-20228697000</v>
+        <v>-21248576100</v>
       </c>
       <c r="O10">
         <v>-5939500</v>
       </c>
       <c r="P10">
-        <v>-83042586000</v>
+        <v>-72503136000</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>20000</v>
       </c>
       <c r="E11">
-        <v>22010761000</v>
+        <v>21000272500</v>
       </c>
       <c r="F11">
-        <v>27056631000</v>
+        <v>23327463900</v>
       </c>
       <c r="G11">
         <v>256015000</v>
@@ -928,13 +928,13 @@
         <v>3297300</v>
       </c>
       <c r="I11">
-        <v>49323407000</v>
+        <v>44583751400</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-23T09:30:00.000Z</v>
       </c>
       <c r="K11">
-        <v>458176347000</v>
+        <v>419229932400</v>
       </c>
       <c r="L11">
         <v>29614800</v>
@@ -943,13 +943,13 @@
         <v>479900</v>
       </c>
       <c r="N11">
-        <v>5045870000</v>
+        <v>2327191400</v>
       </c>
       <c r="O11">
         <v>-5459600</v>
       </c>
       <c r="P11">
-        <v>-77996716000</v>
+        <v>-70175944600</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>61100</v>
       </c>
       <c r="E12">
-        <v>19355001000</v>
+        <v>16721237400</v>
       </c>
       <c r="F12">
-        <v>34268619000</v>
+        <v>31021369500</v>
       </c>
       <c r="G12">
         <v>1693537000</v>
@@ -978,13 +978,13 @@
         <v>3255100</v>
       </c>
       <c r="I12">
-        <v>55317157000</v>
+        <v>49436143900</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-23T09:32:00.000Z</v>
       </c>
       <c r="K12">
-        <v>513493504000</v>
+        <v>468666076300</v>
       </c>
       <c r="L12">
         <v>32869900</v>
@@ -993,13 +993,13 @@
         <v>856600</v>
       </c>
       <c r="N12">
-        <v>14913618000</v>
+        <v>14300132100</v>
       </c>
       <c r="O12">
         <v>-4603000</v>
       </c>
       <c r="P12">
-        <v>-63083098000</v>
+        <v>-55875812500</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>19000</v>
       </c>
       <c r="E13">
-        <v>14206125000</v>
+        <v>13292139900</v>
       </c>
       <c r="F13">
-        <v>51025763000</v>
+        <v>46001792000</v>
       </c>
       <c r="G13">
         <v>321951000</v>
@@ -1028,13 +1028,13 @@
         <v>4261500</v>
       </c>
       <c r="I13">
-        <v>65553839000</v>
+        <v>59615882900</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-23T09:34:00.000Z</v>
       </c>
       <c r="K13">
-        <v>579047343000</v>
+        <v>528281959200</v>
       </c>
       <c r="L13">
         <v>37131400</v>
@@ -1043,13 +1043,13 @@
         <v>2403300</v>
       </c>
       <c r="N13">
-        <v>36819638000</v>
+        <v>32709652100</v>
       </c>
       <c r="O13">
         <v>-2199700</v>
       </c>
       <c r="P13">
-        <v>-26263460000</v>
+        <v>-23166160400</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>18000</v>
       </c>
       <c r="E14">
-        <v>20594226000</v>
+        <v>17208415200</v>
       </c>
       <c r="F14">
-        <v>53266032000</v>
+        <v>50719281300</v>
       </c>
       <c r="G14">
-        <v>565454000</v>
+        <v>520099400</v>
       </c>
       <c r="H14">
         <v>4721500</v>
       </c>
       <c r="I14">
-        <v>74425712000</v>
+        <v>68447795900</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-23T09:36:00.000Z</v>
       </c>
       <c r="K14">
-        <v>653473055000</v>
+        <v>596729755100</v>
       </c>
       <c r="L14">
         <v>41852900</v>
@@ -1093,13 +1093,13 @@
         <v>2418300</v>
       </c>
       <c r="N14">
-        <v>32671806000</v>
+        <v>33510866100</v>
       </c>
       <c r="O14">
         <v>218600</v>
       </c>
       <c r="P14">
-        <v>6408346000</v>
+        <v>10344705700</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>24300</v>
       </c>
       <c r="E15">
-        <v>24290685000</v>
+        <v>22344932700</v>
       </c>
       <c r="F15">
-        <v>37044462000</v>
+        <v>35303404800</v>
       </c>
       <c r="G15">
         <v>285830000</v>
@@ -1128,13 +1128,13 @@
         <v>4165400</v>
       </c>
       <c r="I15">
-        <v>61620977000</v>
+        <v>57934167500</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-23T09:38:00.000Z</v>
       </c>
       <c r="K15">
-        <v>715094032000</v>
+        <v>654663922600</v>
       </c>
       <c r="L15">
         <v>46018300</v>
@@ -1143,13 +1143,13 @@
         <v>996100</v>
       </c>
       <c r="N15">
-        <v>12753777000</v>
+        <v>12958472100</v>
       </c>
       <c r="O15">
         <v>1214700</v>
       </c>
       <c r="P15">
-        <v>19162123000</v>
+        <v>23303177800</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>11200</v>
       </c>
       <c r="E16">
-        <v>25783069000</v>
+        <v>20250806800</v>
       </c>
       <c r="F16">
-        <v>34747032000</v>
+        <v>32519262000</v>
       </c>
       <c r="G16">
-        <v>254365000</v>
+        <v>116702800</v>
       </c>
       <c r="H16">
         <v>4121900</v>
       </c>
       <c r="I16">
-        <v>60784466000</v>
+        <v>52886771600</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-23T09:40:00.000Z</v>
       </c>
       <c r="K16">
-        <v>775878498000</v>
+        <v>707550694200</v>
       </c>
       <c r="L16">
         <v>50140200</v>
@@ -1193,13 +1193,13 @@
         <v>551900</v>
       </c>
       <c r="N16">
-        <v>8963963000</v>
+        <v>12268455200</v>
       </c>
       <c r="O16">
         <v>1766600</v>
       </c>
       <c r="P16">
-        <v>28126086000</v>
+        <v>35571633000</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>21100</v>
       </c>
       <c r="E17">
-        <v>35104313000</v>
+        <v>29456866100</v>
       </c>
       <c r="F17">
-        <v>22161313000</v>
+        <v>19043733700</v>
       </c>
       <c r="G17">
         <v>517279000</v>
@@ -1228,13 +1228,13 @@
         <v>3634000</v>
       </c>
       <c r="I17">
-        <v>57782905000</v>
+        <v>49017878800</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-23T09:42:00.000Z</v>
       </c>
       <c r="K17">
-        <v>833661403000</v>
+        <v>756568573000</v>
       </c>
       <c r="L17">
         <v>53774200</v>
@@ -1243,13 +1243,13 @@
         <v>-550700</v>
       </c>
       <c r="N17">
-        <v>-12943000000</v>
+        <v>-10413132400</v>
       </c>
       <c r="O17">
         <v>1215900</v>
       </c>
       <c r="P17">
-        <v>15183086000</v>
+        <v>25158500600</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>8300</v>
       </c>
       <c r="E18">
-        <v>46302967000</v>
+        <v>41950324000</v>
       </c>
       <c r="F18">
-        <v>16933341000</v>
+        <v>15456319500</v>
       </c>
       <c r="G18">
         <v>235172000</v>
@@ -1278,13 +1278,13 @@
         <v>4164200</v>
       </c>
       <c r="I18">
-        <v>63471480000</v>
+        <v>57641815500</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-23T09:44:00.000Z</v>
       </c>
       <c r="K18">
-        <v>897132883000</v>
+        <v>814210388500</v>
       </c>
       <c r="L18">
         <v>57938400</v>
@@ -1293,13 +1293,13 @@
         <v>-2036700</v>
       </c>
       <c r="N18">
-        <v>-29369626000</v>
+        <v>-26494004500</v>
       </c>
       <c r="O18">
         <v>-820800</v>
       </c>
       <c r="P18">
-        <v>-14186540000</v>
+        <v>-1335503900</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>26500</v>
       </c>
       <c r="E19">
-        <v>30401683000</v>
+        <v>27728458900</v>
       </c>
       <c r="F19">
-        <v>15204760000</v>
+        <v>14155510300</v>
       </c>
       <c r="G19">
         <v>224476000</v>
@@ -1328,13 +1328,13 @@
         <v>3100700</v>
       </c>
       <c r="I19">
-        <v>45830919000</v>
+        <v>42108445200</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-23T09:46:00.000Z</v>
       </c>
       <c r="K19">
-        <v>942963802000</v>
+        <v>856318833700</v>
       </c>
       <c r="L19">
         <v>61039100</v>
@@ -1343,13 +1343,13 @@
         <v>-1150200</v>
       </c>
       <c r="N19">
-        <v>-15196923000</v>
+        <v>-13572948600</v>
       </c>
       <c r="O19">
         <v>-1971000</v>
       </c>
       <c r="P19">
-        <v>-29383463000</v>
+        <v>-14908452500</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>16000</v>
       </c>
       <c r="E20">
-        <v>21408722000</v>
+        <v>20271460400</v>
       </c>
       <c r="F20">
-        <v>25770083000</v>
+        <v>20720637500</v>
       </c>
       <c r="G20">
         <v>130290000</v>
@@ -1378,13 +1378,13 @@
         <v>2874700</v>
       </c>
       <c r="I20">
-        <v>47309095000</v>
+        <v>41122387900</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-23T09:48:00.000Z</v>
       </c>
       <c r="K20">
-        <v>990272897000</v>
+        <v>897441221600</v>
       </c>
       <c r="L20">
         <v>63913800</v>
@@ -1393,13 +1393,13 @@
         <v>325500</v>
       </c>
       <c r="N20">
-        <v>4361361000</v>
+        <v>449177100</v>
       </c>
       <c r="O20">
         <v>-1645500</v>
       </c>
       <c r="P20">
-        <v>-25022102000</v>
+        <v>-14459275400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>12600</v>
       </c>
       <c r="E21">
-        <v>18647630000</v>
+        <v>17026053200</v>
       </c>
       <c r="F21">
-        <v>21722441000</v>
+        <v>19114551500</v>
       </c>
       <c r="G21">
         <v>186045000</v>
@@ -1428,13 +1428,13 @@
         <v>2598100</v>
       </c>
       <c r="I21">
-        <v>40556116000</v>
+        <v>36326649700</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-23T09:50:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1030829013000</v>
+        <v>933767871300</v>
       </c>
       <c r="L21">
         <v>66511900</v>
@@ -1443,13 +1443,13 @@
         <v>437700</v>
       </c>
       <c r="N21">
-        <v>3074811000</v>
+        <v>2088498300</v>
       </c>
       <c r="O21">
         <v>-1207800</v>
       </c>
       <c r="P21">
-        <v>-21947291000</v>
+        <v>-12370777100</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>4000</v>
       </c>
       <c r="E22">
-        <v>14002522000</v>
+        <v>13516208800</v>
       </c>
       <c r="F22">
-        <v>19754725000</v>
+        <v>18295985200</v>
       </c>
       <c r="G22">
         <v>78287000</v>
@@ -1478,13 +1478,13 @@
         <v>2107500</v>
       </c>
       <c r="I22">
-        <v>33835534000</v>
+        <v>31890481000</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-23T09:52:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1064664547000</v>
+        <v>965658352300</v>
       </c>
       <c r="L22">
         <v>68619400</v>
@@ -1493,13 +1493,13 @@
         <v>384700</v>
       </c>
       <c r="N22">
-        <v>5752203000</v>
+        <v>4779776400</v>
       </c>
       <c r="O22">
         <v>-823100</v>
       </c>
       <c r="P22">
-        <v>-16195088000</v>
+        <v>-7591000700</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>1800</v>
       </c>
       <c r="E23">
-        <v>15534570000</v>
+        <v>15276828000</v>
       </c>
       <c r="F23">
-        <v>18480662000</v>
+        <v>17482960700</v>
       </c>
       <c r="G23">
         <v>63511000</v>
@@ -1528,13 +1528,13 @@
         <v>2177200</v>
       </c>
       <c r="I23">
-        <v>34078743000</v>
+        <v>32823299700</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-23T09:54:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1098743290000</v>
+        <v>998481652000</v>
       </c>
       <c r="L23">
         <v>70796600</v>
@@ -1543,13 +1543,13 @@
         <v>-31200</v>
       </c>
       <c r="N23">
-        <v>2946092000</v>
+        <v>2206132700</v>
       </c>
       <c r="O23">
         <v>-854300</v>
       </c>
       <c r="P23">
-        <v>-13248996000</v>
+        <v>-5384868000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>4300</v>
       </c>
       <c r="E24">
-        <v>18427894000</v>
+        <v>18274147900</v>
       </c>
       <c r="F24">
-        <v>27440143000</v>
+        <v>26814769000</v>
       </c>
       <c r="G24">
         <v>63625000</v>
@@ -1578,13 +1578,13 @@
         <v>2853200</v>
       </c>
       <c r="I24">
-        <v>45931662000</v>
+        <v>45152541900</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-23T09:56:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1144674952000</v>
+        <v>1043634193900</v>
       </c>
       <c r="L24">
         <v>73649800</v>
@@ -1593,13 +1593,13 @@
         <v>409100</v>
       </c>
       <c r="N24">
-        <v>9012249000</v>
+        <v>8540621100</v>
       </c>
       <c r="O24">
         <v>-445200</v>
       </c>
       <c r="P24">
-        <v>-4236747000</v>
+        <v>3155753100</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>7400</v>
       </c>
       <c r="E25">
-        <v>22644001000</v>
+        <v>22146499000</v>
       </c>
       <c r="F25">
-        <v>18212827000</v>
+        <v>17490450100</v>
       </c>
       <c r="G25">
         <v>347033000</v>
@@ -1628,13 +1628,13 @@
         <v>2481800</v>
       </c>
       <c r="I25">
-        <v>41203861000</v>
+        <v>39983982100</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-23T09:58:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1185878813000</v>
+        <v>1083618176000</v>
       </c>
       <c r="L25">
         <v>76131600</v>
@@ -1643,13 +1643,13 @@
         <v>-185200</v>
       </c>
       <c r="N25">
-        <v>-4431174000</v>
+        <v>-4656048900</v>
       </c>
       <c r="O25">
         <v>-630400</v>
       </c>
       <c r="P25">
-        <v>-8667921000</v>
+        <v>-1500295800</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>11400</v>
       </c>
       <c r="E26">
-        <v>27528987000</v>
+        <v>26768248500</v>
       </c>
       <c r="F26">
-        <v>24964897000</v>
+        <v>22517347000</v>
       </c>
       <c r="G26">
         <v>210631000</v>
@@ -1678,13 +1678,13 @@
         <v>2890600</v>
       </c>
       <c r="I26">
-        <v>52704515000</v>
+        <v>49496226500</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-23T10:00:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1238583328000</v>
+        <v>1133114402500</v>
       </c>
       <c r="L26">
         <v>79022200</v>
@@ -1693,13 +1693,13 @@
         <v>-29000</v>
       </c>
       <c r="N26">
-        <v>-2564090000</v>
+        <v>-4250901500</v>
       </c>
       <c r="O26">
         <v>-659400</v>
       </c>
       <c r="P26">
-        <v>-11232011000</v>
+        <v>-5751197300</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>34400</v>
       </c>
       <c r="E27">
-        <v>14074102000</v>
+        <v>14002273900</v>
       </c>
       <c r="F27">
-        <v>16651352000</v>
+        <v>15425279300</v>
       </c>
       <c r="G27">
         <v>292163000</v>
@@ -1728,13 +1728,13 @@
         <v>1854200</v>
       </c>
       <c r="I27">
-        <v>31017617000</v>
+        <v>29719716200</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-23T10:02:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1269600945000</v>
+        <v>1162834118700</v>
       </c>
       <c r="L27">
         <v>80876400</v>
@@ -1743,13 +1743,13 @@
         <v>173200</v>
       </c>
       <c r="N27">
-        <v>2577250000</v>
+        <v>1423005400</v>
       </c>
       <c r="O27">
         <v>-486200</v>
       </c>
       <c r="P27">
-        <v>-8654761000</v>
+        <v>-4328191900</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>2000</v>
       </c>
       <c r="E28">
-        <v>10140769000</v>
+        <v>9964545400</v>
       </c>
       <c r="F28">
-        <v>17372285000</v>
+        <v>16100058500</v>
       </c>
       <c r="G28">
         <v>11828000</v>
@@ -1778,13 +1778,13 @@
         <v>2076600</v>
       </c>
       <c r="I28">
-        <v>27524882000</v>
+        <v>26076431900</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-23T10:04:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1297125827000</v>
+        <v>1188910550600</v>
       </c>
       <c r="L28">
         <v>82953000</v>
@@ -1793,13 +1793,13 @@
         <v>85800</v>
       </c>
       <c r="N28">
-        <v>7231516000</v>
+        <v>6135513100</v>
       </c>
       <c r="O28">
         <v>-400400</v>
       </c>
       <c r="P28">
-        <v>-1423245000</v>
+        <v>1807321200</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>5700</v>
       </c>
       <c r="E29">
-        <v>18578427000</v>
+        <v>18548357100</v>
       </c>
       <c r="F29">
-        <v>12256049000</v>
+        <v>11480924900</v>
       </c>
       <c r="G29">
         <v>188435000</v>
@@ -1828,13 +1828,13 @@
         <v>1801000</v>
       </c>
       <c r="I29">
-        <v>31022911000</v>
+        <v>30217717000</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-23T10:06:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1328148738000</v>
+        <v>1219128267600</v>
       </c>
       <c r="L29">
         <v>84754000</v>
@@ -1843,13 +1843,13 @@
         <v>-296700</v>
       </c>
       <c r="N29">
-        <v>-6322378000</v>
+        <v>-7067432200</v>
       </c>
       <c r="O29">
         <v>-697100</v>
       </c>
       <c r="P29">
-        <v>-7745623000</v>
+        <v>-5260111000</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>1400</v>
       </c>
       <c r="E30">
-        <v>12132542000</v>
+        <v>11365909400</v>
       </c>
       <c r="F30">
-        <v>17229384000</v>
+        <v>16692821100</v>
       </c>
       <c r="G30">
         <v>12448000</v>
@@ -1878,13 +1878,13 @@
         <v>1917900</v>
       </c>
       <c r="I30">
-        <v>29374374000</v>
+        <v>28071178500</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-23T10:08:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1357523112000</v>
+        <v>1247199446100</v>
       </c>
       <c r="L30">
         <v>86671900</v>
@@ -1893,13 +1893,13 @@
         <v>286700</v>
       </c>
       <c r="N30">
-        <v>5096842000</v>
+        <v>5326911700</v>
       </c>
       <c r="O30">
         <v>-410400</v>
       </c>
       <c r="P30">
-        <v>-2648781000</v>
+        <v>66800700</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>3000</v>
       </c>
       <c r="E31">
-        <v>9762974000</v>
+        <v>9691945100</v>
       </c>
       <c r="F31">
-        <v>19374137000</v>
+        <v>18415996100</v>
       </c>
       <c r="G31">
         <v>26259000</v>
@@ -1928,13 +1928,13 @@
         <v>1719600</v>
       </c>
       <c r="I31">
-        <v>29163370000</v>
+        <v>28134200200</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-23T10:10:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1386686482000</v>
+        <v>1275333646300</v>
       </c>
       <c r="L31">
         <v>88391500</v>
@@ -1943,13 +1943,13 @@
         <v>512800</v>
       </c>
       <c r="N31">
-        <v>9611163000</v>
+        <v>8724051000</v>
       </c>
       <c r="O31">
         <v>102400</v>
       </c>
       <c r="P31">
-        <v>6962382000</v>
+        <v>8790851700</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>26200</v>
       </c>
       <c r="E32">
-        <v>19964757000</v>
+        <v>16581243900</v>
       </c>
       <c r="F32">
-        <v>24054303000</v>
+        <v>23246711400</v>
       </c>
       <c r="G32">
         <v>162968000</v>
@@ -1978,13 +1978,13 @@
         <v>2338900</v>
       </c>
       <c r="I32">
-        <v>44182028000</v>
+        <v>39990923300</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-23T10:12:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1430868510000</v>
+        <v>1315324569600</v>
       </c>
       <c r="L32">
         <v>90730400</v>
@@ -1993,13 +1993,13 @@
         <v>180700</v>
       </c>
       <c r="N32">
-        <v>4089546000</v>
+        <v>6665467500</v>
       </c>
       <c r="O32">
         <v>283100</v>
       </c>
       <c r="P32">
-        <v>11051928000</v>
+        <v>15456319200</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>16300</v>
       </c>
       <c r="E33">
-        <v>25757576000</v>
+        <v>24642592100</v>
       </c>
       <c r="F33">
-        <v>32320738000</v>
+        <v>12610967500</v>
       </c>
       <c r="G33">
         <v>205758000</v>
@@ -2028,13 +2028,13 @@
         <v>3566600</v>
       </c>
       <c r="I33">
-        <v>58284072000</v>
+        <v>37459317600</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-23T10:14:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1489152582000</v>
+        <v>1352783887200</v>
       </c>
       <c r="L33">
         <v>94297000</v>
@@ -2043,13 +2043,13 @@
         <v>631500</v>
       </c>
       <c r="N33">
-        <v>6563162000</v>
+        <v>-12031624600</v>
       </c>
       <c r="O33">
         <v>914600</v>
       </c>
       <c r="P33">
-        <v>17615090000</v>
+        <v>3424694600</v>
       </c>
     </row>
     <row r="34">
@@ -2066,25 +2066,25 @@
         <v>5500</v>
       </c>
       <c r="E34">
-        <v>22644252000</v>
+        <v>21393104400</v>
       </c>
       <c r="F34">
-        <v>15634382000</v>
+        <v>14660456900</v>
       </c>
       <c r="G34">
-        <v>219735000</v>
+        <v>101853000</v>
       </c>
       <c r="H34">
         <v>2246900</v>
       </c>
       <c r="I34">
-        <v>38498369000</v>
+        <v>36155414300</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-23T10:16:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1527650951000</v>
+        <v>1388939301500</v>
       </c>
       <c r="L34">
         <v>96543900</v>
@@ -2093,13 +2093,13 @@
         <v>-438400</v>
       </c>
       <c r="N34">
-        <v>-7009870000</v>
+        <v>-6732647500</v>
       </c>
       <c r="O34">
         <v>476200</v>
       </c>
       <c r="P34">
-        <v>10605220000</v>
+        <v>-3307952900</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>12700</v>
       </c>
       <c r="E35">
-        <v>13965047000</v>
+        <v>13217095700</v>
       </c>
       <c r="F35">
-        <v>12749892000</v>
+        <v>12299343000</v>
       </c>
       <c r="G35">
-        <v>102749000</v>
+        <v>89861900</v>
       </c>
       <c r="H35">
         <v>1745500</v>
       </c>
       <c r="I35">
-        <v>26817688000</v>
+        <v>25606300600</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-23T10:18:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1554468639000</v>
+        <v>1414545602100</v>
       </c>
       <c r="L35">
         <v>98289400</v>
@@ -2143,13 +2143,13 @@
         <v>-274400</v>
       </c>
       <c r="N35">
-        <v>-1215155000</v>
+        <v>-917752700</v>
       </c>
       <c r="O35">
         <v>201800</v>
       </c>
       <c r="P35">
-        <v>9390065000</v>
+        <v>-4225705600</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>16200</v>
       </c>
       <c r="E36">
-        <v>39178906000</v>
+        <v>36962624500</v>
       </c>
       <c r="F36">
-        <v>16701210000</v>
+        <v>15931880100</v>
       </c>
       <c r="G36">
         <v>443045000</v>
@@ -2178,13 +2178,13 @@
         <v>3106400</v>
       </c>
       <c r="I36">
-        <v>56323161000</v>
+        <v>53337549600</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-23T10:20:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1610791800000</v>
+        <v>1467883151700</v>
       </c>
       <c r="L36">
         <v>101395800</v>
@@ -2193,13 +2193,13 @@
         <v>-1163800</v>
       </c>
       <c r="N36">
-        <v>-22477696000</v>
+        <v>-21030744400</v>
       </c>
       <c r="O36">
         <v>-962000</v>
       </c>
       <c r="P36">
-        <v>-13087631000</v>
+        <v>-25256450000</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>15700</v>
       </c>
       <c r="E37">
-        <v>65986862000</v>
+        <v>58084072700</v>
       </c>
       <c r="F37">
-        <v>13704814000</v>
+        <v>12531288700</v>
       </c>
       <c r="G37">
         <v>283983000</v>
@@ -2228,13 +2228,13 @@
         <v>5007300</v>
       </c>
       <c r="I37">
-        <v>79975659000</v>
+        <v>70899344400</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-23T10:22:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1690767459000</v>
+        <v>1538782496100</v>
       </c>
       <c r="L37">
         <v>106403100</v>
@@ -2243,13 +2243,13 @@
         <v>-3486800</v>
       </c>
       <c r="N37">
-        <v>-52282048000</v>
+        <v>-45552784000</v>
       </c>
       <c r="O37">
         <v>-4448800</v>
       </c>
       <c r="P37">
-        <v>-65369679000</v>
+        <v>-70809234000</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>23100</v>
       </c>
       <c r="E38">
-        <v>69790699000</v>
+        <v>67276515700</v>
       </c>
       <c r="F38">
-        <v>10939830000</v>
+        <v>10100370300</v>
       </c>
       <c r="G38">
-        <v>578224000</v>
+        <v>203099500</v>
       </c>
       <c r="H38">
         <v>5040900</v>
       </c>
       <c r="I38">
-        <v>81308753000</v>
+        <v>77579985500</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-23T10:24:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1772076212000</v>
+        <v>1616362481600</v>
       </c>
       <c r="L38">
         <v>111444000</v>
@@ -2293,13 +2293,13 @@
         <v>-3714000</v>
       </c>
       <c r="N38">
-        <v>-58850869000</v>
+        <v>-57176145400</v>
       </c>
       <c r="O38">
         <v>-8162800</v>
       </c>
       <c r="P38">
-        <v>-124220548000</v>
+        <v>-127985379400</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>13100</v>
       </c>
       <c r="E39">
-        <v>73460342000</v>
+        <v>68331276200</v>
       </c>
       <c r="F39">
-        <v>12023630000</v>
+        <v>10666788200</v>
       </c>
       <c r="G39">
         <v>183338000</v>
@@ -2328,13 +2328,13 @@
         <v>5099600</v>
       </c>
       <c r="I39">
-        <v>85667310000</v>
+        <v>79181402400</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-23T10:26:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1857743522000</v>
+        <v>1695543884000</v>
       </c>
       <c r="L39">
         <v>116543600</v>
@@ -2343,13 +2343,13 @@
         <v>-3511900</v>
       </c>
       <c r="N39">
-        <v>-61436712000</v>
+        <v>-57664488000</v>
       </c>
       <c r="O39">
         <v>-11674700</v>
       </c>
       <c r="P39">
-        <v>-185657260000</v>
+        <v>-185649867400</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>8900</v>
       </c>
       <c r="E40">
-        <v>26539146000</v>
+        <v>25065521100</v>
       </c>
       <c r="F40">
-        <v>16985967000</v>
+        <v>15065889000</v>
       </c>
       <c r="G40">
         <v>196747000</v>
@@ -2378,13 +2378,13 @@
         <v>2815200</v>
       </c>
       <c r="I40">
-        <v>43721860000</v>
+        <v>40328157100</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-23T10:28:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1901465382000</v>
+        <v>1735872041100</v>
       </c>
       <c r="L40">
         <v>119358800</v>
@@ -2393,13 +2393,13 @@
         <v>-570100</v>
       </c>
       <c r="N40">
-        <v>-9553179000</v>
+        <v>-9999632100</v>
       </c>
       <c r="O40">
         <v>-12244800</v>
       </c>
       <c r="P40">
-        <v>-195210439000</v>
+        <v>-195649499500</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>2900</v>
       </c>
       <c r="E41">
-        <v>13247028000</v>
+        <v>12249426600</v>
       </c>
       <c r="F41">
-        <v>15775080000</v>
+        <v>15743112000</v>
       </c>
       <c r="G41">
         <v>141635000</v>
@@ -2428,13 +2428,13 @@
         <v>1755400</v>
       </c>
       <c r="I41">
-        <v>29163743000</v>
+        <v>28134173600</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-23T10:30:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1930629125000</v>
+        <v>1764006214700</v>
       </c>
       <c r="L41">
         <v>121114200</v>
@@ -2443,13 +2443,13 @@
         <v>192700</v>
       </c>
       <c r="N41">
-        <v>2528052000</v>
+        <v>3493685400</v>
       </c>
       <c r="O41">
         <v>-12052100</v>
       </c>
       <c r="P41">
-        <v>-192682387000</v>
+        <v>-192155814100</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>15200</v>
       </c>
       <c r="E42">
-        <v>11083573000</v>
+        <v>9736421500</v>
       </c>
       <c r="F42">
-        <v>11178563000</v>
+        <v>10375167200</v>
       </c>
       <c r="G42">
         <v>281384000</v>
@@ -2478,13 +2478,13 @@
         <v>1457900</v>
       </c>
       <c r="I42">
-        <v>22543520000</v>
+        <v>20392972700</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-23T10:32:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1953172645000</v>
+        <v>1784399187400</v>
       </c>
       <c r="L42">
         <v>122572100</v>
@@ -2493,13 +2493,13 @@
         <v>4700</v>
       </c>
       <c r="N42">
-        <v>94990000</v>
+        <v>638745700</v>
       </c>
       <c r="O42">
         <v>-12047400</v>
       </c>
       <c r="P42">
-        <v>-192587397000</v>
+        <v>-191517068400</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>1700</v>
       </c>
       <c r="E43">
-        <v>10075527000</v>
+        <v>9366436800</v>
       </c>
       <c r="F43">
-        <v>18256594000</v>
+        <v>16728323800</v>
       </c>
       <c r="G43">
-        <v>39910000</v>
+        <v>36413500</v>
       </c>
       <c r="H43">
         <v>1843800</v>
       </c>
       <c r="I43">
-        <v>28372031000</v>
+        <v>26131174100</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-23T10:34:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1981544676000</v>
+        <v>1810530361500</v>
       </c>
       <c r="L43">
         <v>124415900</v>
@@ -2543,13 +2543,13 @@
         <v>380100</v>
       </c>
       <c r="N43">
-        <v>8181067000</v>
+        <v>7361887000</v>
       </c>
       <c r="O43">
         <v>-11667300</v>
       </c>
       <c r="P43">
-        <v>-184406330000</v>
+        <v>-184155181400</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>83400</v>
       </c>
       <c r="E44">
-        <v>20534011000</v>
+        <v>19927118500</v>
       </c>
       <c r="F44">
-        <v>13820971000</v>
+        <v>9942153700</v>
       </c>
       <c r="G44">
         <v>1262388000</v>
@@ -2578,13 +2578,13 @@
         <v>2283800</v>
       </c>
       <c r="I44">
-        <v>35617370000</v>
+        <v>31131660200</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-23T10:36:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2017162046000</v>
+        <v>1841662021700</v>
       </c>
       <c r="L44">
         <v>126699700</v>
@@ -2593,13 +2593,13 @@
         <v>-207200</v>
       </c>
       <c r="N44">
-        <v>-6713040000</v>
+        <v>-9984964800</v>
       </c>
       <c r="O44">
         <v>-11874500</v>
       </c>
       <c r="P44">
-        <v>-191119370000</v>
+        <v>-194140146200</v>
       </c>
     </row>
     <row r="45">
@@ -2619,7 +2619,7 @@
         <v>15502818000</v>
       </c>
       <c r="F45">
-        <v>12335222000</v>
+        <v>11774183600</v>
       </c>
       <c r="G45">
         <v>104000000</v>
@@ -2628,13 +2628,13 @@
         <v>1722000</v>
       </c>
       <c r="I45">
-        <v>27942040000</v>
+        <v>27381001600</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-23T10:38:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2045104086000</v>
+        <v>1869043023300</v>
       </c>
       <c r="L45">
         <v>128421700</v>
@@ -2643,13 +2643,13 @@
         <v>-275000</v>
       </c>
       <c r="N45">
-        <v>-3167596000</v>
+        <v>-3728634400</v>
       </c>
       <c r="O45">
         <v>-12149500</v>
       </c>
       <c r="P45">
-        <v>-194286966000</v>
+        <v>-197868780600</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>400</v>
       </c>
       <c r="E46">
-        <v>29708726000</v>
+        <v>26368070000</v>
       </c>
       <c r="F46">
-        <v>11773943000</v>
+        <v>11591925200</v>
       </c>
       <c r="G46">
         <v>11428000</v>
@@ -2678,13 +2678,13 @@
         <v>2220400</v>
       </c>
       <c r="I46">
-        <v>41494097000</v>
+        <v>37971423200</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-23T10:40:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2086598183000</v>
+        <v>1907014446500</v>
       </c>
       <c r="L46">
         <v>130642100</v>
@@ -2693,13 +2693,13 @@
         <v>-808400</v>
       </c>
       <c r="N46">
-        <v>-17934783000</v>
+        <v>-14776144800</v>
       </c>
       <c r="O46">
         <v>-12957900</v>
       </c>
       <c r="P46">
-        <v>-212221749000</v>
+        <v>-212644925400</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>22900</v>
       </c>
       <c r="E47">
-        <v>12056747000</v>
+        <v>11501802500</v>
       </c>
       <c r="F47">
-        <v>15294898000</v>
+        <v>15053339800</v>
       </c>
       <c r="G47">
         <v>350231000</v>
@@ -2728,13 +2728,13 @@
         <v>1725100</v>
       </c>
       <c r="I47">
-        <v>27701876000</v>
+        <v>26905373300</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-23T10:42:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2114300059000</v>
+        <v>1933919819800</v>
       </c>
       <c r="L47">
         <v>132367200</v>
@@ -2743,13 +2743,13 @@
         <v>29800</v>
       </c>
       <c r="N47">
-        <v>3238151000</v>
+        <v>3551537300</v>
       </c>
       <c r="O47">
         <v>-12928100</v>
       </c>
       <c r="P47">
-        <v>-208983598000</v>
+        <v>-209093388100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>3400</v>
       </c>
       <c r="E48">
-        <v>15598949000</v>
+        <v>15323624600</v>
       </c>
       <c r="F48">
-        <v>7871722000</v>
+        <v>7823670100</v>
       </c>
       <c r="G48">
         <v>94690000</v>
@@ -2778,13 +2778,13 @@
         <v>1426600</v>
       </c>
       <c r="I48">
-        <v>23565361000</v>
+        <v>23241984700</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-23T10:44:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2137865420000</v>
+        <v>1957161804500</v>
       </c>
       <c r="L48">
         <v>133793800</v>
@@ -2793,13 +2793,13 @@
         <v>-590200</v>
       </c>
       <c r="N48">
-        <v>-7727227000</v>
+        <v>-7499954500</v>
       </c>
       <c r="O48">
         <v>-13518300</v>
       </c>
       <c r="P48">
-        <v>-216710825000</v>
+        <v>-216593342600</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>5900</v>
       </c>
       <c r="E49">
-        <v>14230412000</v>
+        <v>13921721000</v>
       </c>
       <c r="F49">
-        <v>8805653000</v>
+        <v>7917641900</v>
       </c>
       <c r="G49">
         <v>30784000</v>
@@ -2828,13 +2828,13 @@
         <v>1530200</v>
       </c>
       <c r="I49">
-        <v>23066849000</v>
+        <v>21870146900</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-23T10:46:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2160932269000</v>
+        <v>1979031951400</v>
       </c>
       <c r="L49">
         <v>135324000</v>
@@ -2843,13 +2843,13 @@
         <v>-489700</v>
       </c>
       <c r="N49">
-        <v>-5424759000</v>
+        <v>-6004079100</v>
       </c>
       <c r="O49">
         <v>-14008000</v>
       </c>
       <c r="P49">
-        <v>-222135584000</v>
+        <v>-222597421700</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>18649756000</v>
+        <v>17691115600</v>
       </c>
       <c r="F50">
-        <v>12437562000</v>
+        <v>12297302400</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2878,13 +2878,13 @@
         <v>2175100</v>
       </c>
       <c r="I50">
-        <v>31087318000</v>
+        <v>29988418000</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-23T10:48:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2192019587000</v>
+        <v>2009020369400</v>
       </c>
       <c r="L50">
         <v>137499100</v>
@@ -2893,13 +2893,13 @@
         <v>-606300</v>
       </c>
       <c r="N50">
-        <v>-6212194000</v>
+        <v>-5393813200</v>
       </c>
       <c r="O50">
         <v>-14614300</v>
       </c>
       <c r="P50">
-        <v>-228347778000</v>
+        <v>-227991234900</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>2800</v>
       </c>
       <c r="E51">
-        <v>30774930000</v>
+        <v>30153152400</v>
       </c>
       <c r="F51">
-        <v>11378260000</v>
+        <v>9520519600</v>
       </c>
       <c r="G51">
         <v>45826000</v>
@@ -2928,13 +2928,13 @@
         <v>2333700</v>
       </c>
       <c r="I51">
-        <v>42199016000</v>
+        <v>39719498000</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-23T10:50:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2234218603000</v>
+        <v>2048739867400</v>
       </c>
       <c r="L51">
         <v>139832800</v>
@@ -2943,13 +2943,13 @@
         <v>-765300</v>
       </c>
       <c r="N51">
-        <v>-19396670000</v>
+        <v>-20632632800</v>
       </c>
       <c r="O51">
         <v>-15379600</v>
       </c>
       <c r="P51">
-        <v>-247744448000</v>
+        <v>-248623867700</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>27500</v>
       </c>
       <c r="E52">
-        <v>88969371000</v>
+        <v>77938812600</v>
       </c>
       <c r="F52">
-        <v>5488290000</v>
+        <v>5348030400</v>
       </c>
       <c r="G52">
         <v>397923000</v>
@@ -2978,13 +2978,13 @@
         <v>5690700</v>
       </c>
       <c r="I52">
-        <v>94855584000</v>
+        <v>83684766000</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-23T10:52:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2329074187000</v>
+        <v>2132424633400</v>
       </c>
       <c r="L52">
         <v>145523500</v>
@@ -2993,13 +2993,13 @@
         <v>-4987800</v>
       </c>
       <c r="N52">
-        <v>-83481081000</v>
+        <v>-72590782200</v>
       </c>
       <c r="O52">
         <v>-20367400</v>
       </c>
       <c r="P52">
-        <v>-331225529000</v>
+        <v>-321214649900</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>2200</v>
       </c>
       <c r="E53">
-        <v>53817219000</v>
+        <v>39120630300</v>
       </c>
       <c r="F53">
-        <v>9082380000</v>
+        <v>7895068500</v>
       </c>
       <c r="G53">
         <v>31195000</v>
@@ -3028,13 +3028,13 @@
         <v>3665400</v>
       </c>
       <c r="I53">
-        <v>62930794000</v>
+        <v>47046893800</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-23T10:54:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2392004981000</v>
+        <v>2179471527200</v>
       </c>
       <c r="L53">
         <v>149188900</v>
@@ -3043,13 +3043,13 @@
         <v>-2526200</v>
       </c>
       <c r="N53">
-        <v>-44734839000</v>
+        <v>-31225561800</v>
       </c>
       <c r="O53">
         <v>-22893600</v>
       </c>
       <c r="P53">
-        <v>-375960368000</v>
+        <v>-352440211700</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>1200</v>
       </c>
       <c r="E54">
-        <v>35597497000</v>
+        <v>26420782900</v>
       </c>
       <c r="F54">
-        <v>13196648000</v>
+        <v>12289256300</v>
       </c>
       <c r="G54">
         <v>55828000</v>
@@ -3078,13 +3078,13 @@
         <v>2962700</v>
       </c>
       <c r="I54">
-        <v>48849973000</v>
+        <v>38765867200</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-23T10:56:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2440854954000</v>
+        <v>2218237394400</v>
       </c>
       <c r="L54">
         <v>152151600</v>
@@ -3093,13 +3093,13 @@
         <v>-1408900</v>
       </c>
       <c r="N54">
-        <v>-22400849000</v>
+        <v>-14131526600</v>
       </c>
       <c r="O54">
         <v>-24302500</v>
       </c>
       <c r="P54">
-        <v>-398361217000</v>
+        <v>-366571738300</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>20400</v>
       </c>
       <c r="E55">
-        <v>55972720000</v>
+        <v>51124972600</v>
       </c>
       <c r="F55">
-        <v>9317068000</v>
+        <v>8128757500</v>
       </c>
       <c r="G55">
         <v>170766000</v>
@@ -3128,13 +3128,13 @@
         <v>4149700</v>
       </c>
       <c r="I55">
-        <v>65460554000</v>
+        <v>59424496100</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-23T10:58:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2506315508000</v>
+        <v>2277661890500</v>
       </c>
       <c r="L55">
         <v>156301300</v>
@@ -3143,13 +3143,13 @@
         <v>-2992100</v>
       </c>
       <c r="N55">
-        <v>-46655652000</v>
+        <v>-42996215100</v>
       </c>
       <c r="O55">
         <v>-27294600</v>
       </c>
       <c r="P55">
-        <v>-445016869000</v>
+        <v>-409567953400</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>7300</v>
       </c>
       <c r="E56">
-        <v>32519415000</v>
+        <v>31100535300</v>
       </c>
       <c r="F56">
-        <v>17026349000</v>
+        <v>15063214100</v>
       </c>
       <c r="G56">
-        <v>342470000</v>
+        <v>271840700</v>
       </c>
       <c r="H56">
         <v>3075300</v>
       </c>
       <c r="I56">
-        <v>49888234000</v>
+        <v>46435590100</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-23T11:00:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2556203742000</v>
+        <v>2324097480600</v>
       </c>
       <c r="L56">
         <v>159376600</v>
@@ -3193,13 +3193,13 @@
         <v>-1091000</v>
       </c>
       <c r="N56">
-        <v>-15493066000</v>
+        <v>-16037321200</v>
       </c>
       <c r="O56">
         <v>-28385600</v>
       </c>
       <c r="P56">
-        <v>-460509935000</v>
+        <v>-425605274600</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>13700</v>
       </c>
       <c r="E57">
-        <v>28901182000</v>
+        <v>22674714700</v>
       </c>
       <c r="F57">
-        <v>15559396000</v>
+        <v>14426629900</v>
       </c>
       <c r="G57">
         <v>202124000</v>
@@ -3228,13 +3228,13 @@
         <v>2917100</v>
       </c>
       <c r="I57">
-        <v>44662702000</v>
+        <v>37303468600</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-23T11:02:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2600866444000</v>
+        <v>2361400949200</v>
       </c>
       <c r="L57">
         <v>162293700</v>
@@ -3243,13 +3243,13 @@
         <v>-910600</v>
       </c>
       <c r="N57">
-        <v>-13341786000</v>
+        <v>-8248084800</v>
       </c>
       <c r="O57">
         <v>-29296200</v>
       </c>
       <c r="P57">
-        <v>-473851721000</v>
+        <v>-433853359400</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>11600</v>
       </c>
       <c r="E58">
-        <v>16746879000</v>
+        <v>14760567300</v>
       </c>
       <c r="F58">
-        <v>18309826000</v>
+        <v>16125712300</v>
       </c>
       <c r="G58">
         <v>278387000</v>
@@ -3278,13 +3278,13 @@
         <v>2103700</v>
       </c>
       <c r="I58">
-        <v>35335092000</v>
+        <v>31164666600</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-23T11:04:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2636201536000</v>
+        <v>2392565615800</v>
       </c>
       <c r="L58">
         <v>164397400</v>
@@ -3293,13 +3293,13 @@
         <v>51100</v>
       </c>
       <c r="N58">
-        <v>1562947000</v>
+        <v>1365145000</v>
       </c>
       <c r="O58">
         <v>-29245100</v>
       </c>
       <c r="P58">
-        <v>-472288774000</v>
+        <v>-432488214400</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>2200</v>
       </c>
       <c r="E59">
-        <v>20580983000</v>
+        <v>18306859400</v>
       </c>
       <c r="F59">
-        <v>16522053000</v>
+        <v>14158818600</v>
       </c>
       <c r="G59">
         <v>55069000</v>
@@ -3328,13 +3328,13 @@
         <v>2301200</v>
       </c>
       <c r="I59">
-        <v>37158105000</v>
+        <v>32520747000</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-23T11:06:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2673359641000</v>
+        <v>2425086362800</v>
       </c>
       <c r="L59">
         <v>166698600</v>
@@ -3343,13 +3343,13 @@
         <v>-381600</v>
       </c>
       <c r="N59">
-        <v>-4058930000</v>
+        <v>-4148040800</v>
       </c>
       <c r="O59">
         <v>-29626700</v>
       </c>
       <c r="P59">
-        <v>-476347704000</v>
+        <v>-436636255200</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>7000</v>
       </c>
       <c r="E60">
-        <v>13630812000</v>
+        <v>13218125100</v>
       </c>
       <c r="F60">
-        <v>25008874000</v>
+        <v>22625060200</v>
       </c>
       <c r="G60">
         <v>79760000</v>
@@ -3378,13 +3378,13 @@
         <v>2567700</v>
       </c>
       <c r="I60">
-        <v>38719446000</v>
+        <v>35922945300</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-23T11:08:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2712079087000</v>
+        <v>2461009308100</v>
       </c>
       <c r="L60">
         <v>169266300</v>
@@ -3393,13 +3393,13 @@
         <v>863500</v>
       </c>
       <c r="N60">
-        <v>11378062000</v>
+        <v>9406935100</v>
       </c>
       <c r="O60">
         <v>-28763200</v>
       </c>
       <c r="P60">
-        <v>-464969642000</v>
+        <v>-427229320100</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>1600</v>
       </c>
       <c r="E61">
-        <v>10760147000</v>
+        <v>10473234200</v>
       </c>
       <c r="F61">
-        <v>27429245000</v>
+        <v>26670204800</v>
       </c>
       <c r="G61">
         <v>39100000</v>
@@ -3428,13 +3428,13 @@
         <v>2040900</v>
       </c>
       <c r="I61">
-        <v>38228492000</v>
+        <v>37182539000</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-23T11:10:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2750307579000</v>
+        <v>2498191847100</v>
       </c>
       <c r="L61">
         <v>171307200</v>
@@ -3443,13 +3443,13 @@
         <v>1061900</v>
       </c>
       <c r="N61">
-        <v>16669098000</v>
+        <v>16196970600</v>
       </c>
       <c r="O61">
         <v>-27701300</v>
       </c>
       <c r="P61">
-        <v>-448300544000</v>
+        <v>-411032349500</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>12100</v>
       </c>
       <c r="E62">
-        <v>9885237000</v>
+        <v>9754967400</v>
       </c>
       <c r="F62">
-        <v>17089637000</v>
+        <v>16695631400</v>
       </c>
       <c r="G62">
         <v>63786000</v>
@@ -3478,13 +3478,13 @@
         <v>1566700</v>
       </c>
       <c r="I62">
-        <v>27038660000</v>
+        <v>26514384800</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-23T11:12:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2777346239000</v>
+        <v>2524706231900</v>
       </c>
       <c r="L62">
         <v>172873900</v>
@@ -3493,13 +3493,13 @@
         <v>311400</v>
       </c>
       <c r="N62">
-        <v>7204400000</v>
+        <v>6940664000</v>
       </c>
       <c r="O62">
         <v>-27389900</v>
       </c>
       <c r="P62">
-        <v>-441096144000</v>
+        <v>-404091685500</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>200</v>
       </c>
       <c r="E63">
-        <v>9418197000</v>
+        <v>9189226200</v>
       </c>
       <c r="F63">
-        <v>12308649000</v>
+        <v>11049609300</v>
       </c>
       <c r="G63">
         <v>1604000</v>
@@ -3528,13 +3528,13 @@
         <v>1190000</v>
       </c>
       <c r="I63">
-        <v>21728450000</v>
+        <v>20240439500</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-23T11:14:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2799074689000</v>
+        <v>2544946671400</v>
       </c>
       <c r="L63">
         <v>174063900</v>
@@ -3543,13 +3543,13 @@
         <v>65600</v>
       </c>
       <c r="N63">
-        <v>2890452000</v>
+        <v>1860383100</v>
       </c>
       <c r="O63">
         <v>-27324300</v>
       </c>
       <c r="P63">
-        <v>-438205692000</v>
+        <v>-402231302400</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>47500</v>
       </c>
       <c r="E64">
-        <v>15765339000</v>
+        <v>15600703800</v>
       </c>
       <c r="F64">
-        <v>11556877000</v>
+        <v>10357677400</v>
       </c>
       <c r="G64">
         <v>828605000</v>
@@ -3578,13 +3578,13 @@
         <v>1662500</v>
       </c>
       <c r="I64">
-        <v>28150821000</v>
+        <v>26786986200</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-23T11:16:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2827225510000</v>
+        <v>2571733657600</v>
       </c>
       <c r="L64">
         <v>175726400</v>
@@ -3593,13 +3593,13 @@
         <v>-191000</v>
       </c>
       <c r="N64">
-        <v>-4208462000</v>
+        <v>-5243026400</v>
       </c>
       <c r="O64">
         <v>-27515300</v>
       </c>
       <c r="P64">
-        <v>-442414154000</v>
+        <v>-407474328800</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>10000</v>
       </c>
       <c r="E65">
-        <v>14643790000</v>
+        <v>13909325200</v>
       </c>
       <c r="F65">
-        <v>6308917000</v>
+        <v>6006519700</v>
       </c>
       <c r="G65">
         <v>182000000</v>
@@ -3628,13 +3628,13 @@
         <v>1200400</v>
       </c>
       <c r="I65">
-        <v>21134707000</v>
+        <v>20097844900</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-23T11:18:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2848360217000</v>
+        <v>2591831502500</v>
       </c>
       <c r="L65">
         <v>176926800</v>
@@ -3643,13 +3643,13 @@
         <v>-444000</v>
       </c>
       <c r="N65">
-        <v>-8334873000</v>
+        <v>-7902805500</v>
       </c>
       <c r="O65">
         <v>-27959300</v>
       </c>
       <c r="P65">
-        <v>-450749027000</v>
+        <v>-415377134300</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>6300</v>
       </c>
       <c r="E66">
-        <v>12774884000</v>
+        <v>8687975000</v>
       </c>
       <c r="F66">
-        <v>10394276000</v>
+        <v>9412159100</v>
       </c>
       <c r="G66">
         <v>110625000</v>
@@ -3678,13 +3678,13 @@
         <v>1314400</v>
       </c>
       <c r="I66">
-        <v>23279785000</v>
+        <v>18210759100</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-23T11:20:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2871640002000</v>
+        <v>2610042261600</v>
       </c>
       <c r="L66">
         <v>178241200</v>
@@ -3693,13 +3693,13 @@
         <v>-486100</v>
       </c>
       <c r="N66">
-        <v>-2380608000</v>
+        <v>724184100</v>
       </c>
       <c r="O66">
         <v>-28445400</v>
       </c>
       <c r="P66">
-        <v>-453129635000</v>
+        <v>-414652950200</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>5200</v>
       </c>
       <c r="E67">
-        <v>14544706000</v>
+        <v>14360290600</v>
       </c>
       <c r="F67">
-        <v>10040884000</v>
+        <v>8982943000</v>
       </c>
       <c r="G67">
         <v>133640000</v>
@@ -3728,13 +3728,13 @@
         <v>1335100</v>
       </c>
       <c r="I67">
-        <v>24719230000</v>
+        <v>23476873600</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-23T11:22:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2896359232000</v>
+        <v>2633519135200</v>
       </c>
       <c r="L67">
         <v>179576300</v>
@@ -3743,13 +3743,13 @@
         <v>-284100</v>
       </c>
       <c r="N67">
-        <v>-4503822000</v>
+        <v>-5377347600</v>
       </c>
       <c r="O67">
         <v>-28729500</v>
       </c>
       <c r="P67">
-        <v>-457633457000</v>
+        <v>-420030297800</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>10800</v>
       </c>
       <c r="E68">
-        <v>17679639000</v>
+        <v>16745773800</v>
       </c>
       <c r="F68">
-        <v>9945075000</v>
+        <v>7837684500</v>
       </c>
       <c r="G68">
-        <v>326830000</v>
+        <v>296060800</v>
       </c>
       <c r="H68">
         <v>1568500</v>
       </c>
       <c r="I68">
-        <v>27951544000</v>
+        <v>24879519100</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-23T11:24:00.000Z</v>
       </c>
       <c r="K68">
-        <v>2924310776000</v>
+        <v>2658398654300</v>
       </c>
       <c r="L68">
         <v>181144800</v>
@@ -3793,13 +3793,13 @@
         <v>-344100</v>
       </c>
       <c r="N68">
-        <v>-7734564000</v>
+        <v>-8908089300</v>
       </c>
       <c r="O68">
         <v>-29073600</v>
       </c>
       <c r="P68">
-        <v>-465368021000</v>
+        <v>-428938387100</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>6200</v>
       </c>
       <c r="E69">
-        <v>23007952000</v>
+        <v>16044222700</v>
       </c>
       <c r="F69">
-        <v>12615767000</v>
+        <v>9584501300</v>
       </c>
       <c r="G69">
         <v>180450000</v>
@@ -3828,13 +3828,13 @@
         <v>1855700</v>
       </c>
       <c r="I69">
-        <v>35804169000</v>
+        <v>25809174000</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-23T11:26:00.000Z</v>
       </c>
       <c r="K69">
-        <v>2960114945000</v>
+        <v>2684207828300</v>
       </c>
       <c r="L69">
         <v>183000500</v>
@@ -3843,13 +3843,13 @@
         <v>-306300</v>
       </c>
       <c r="N69">
-        <v>-10392185000</v>
+        <v>-6459721400</v>
       </c>
       <c r="O69">
         <v>-29379900</v>
       </c>
       <c r="P69">
-        <v>-475760206000</v>
+        <v>-435398108500</v>
       </c>
     </row>
     <row r="70">
@@ -3866,10 +3866,10 @@
         <v>93700</v>
       </c>
       <c r="E70">
-        <v>27157460000</v>
+        <v>24973646000</v>
       </c>
       <c r="F70">
-        <v>10935510000</v>
+        <v>10786059600</v>
       </c>
       <c r="G70">
         <v>1105535000</v>
@@ -3878,13 +3878,13 @@
         <v>2150700</v>
       </c>
       <c r="I70">
-        <v>39198505000</v>
+        <v>36865240600</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-23T11:28:00.000Z</v>
       </c>
       <c r="K70">
-        <v>2999313450000</v>
+        <v>2721073068900</v>
       </c>
       <c r="L70">
         <v>185151200</v>
@@ -3893,13 +3893,13 @@
         <v>-811600</v>
       </c>
       <c r="N70">
-        <v>-16221950000</v>
+        <v>-14187586400</v>
       </c>
       <c r="O70">
         <v>-30191500</v>
       </c>
       <c r="P70">
-        <v>-491982156000</v>
+        <v>-449585694900</v>
       </c>
     </row>
     <row r="71">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1400000</v>
+        <v>1400</v>
       </c>
       <c r="F71">
         <v>2840000</v>
@@ -3928,13 +3928,13 @@
         <v>300</v>
       </c>
       <c r="I71">
-        <v>4240000</v>
+        <v>2841400</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-23T11:30:00.000Z</v>
       </c>
       <c r="K71">
-        <v>2999317690000</v>
+        <v>2721075910300</v>
       </c>
       <c r="L71">
         <v>185151500</v>
@@ -3943,13 +3943,13 @@
         <v>100</v>
       </c>
       <c r="N71">
-        <v>1440000</v>
+        <v>2838600</v>
       </c>
       <c r="O71">
         <v>-30191400</v>
       </c>
       <c r="P71">
-        <v>-491980716000</v>
+        <v>-449582856300</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>338000</v>
       </c>
       <c r="E72">
-        <v>89857038000</v>
+        <v>82794008100</v>
       </c>
       <c r="F72">
-        <v>37980832000</v>
+        <v>34750066000</v>
       </c>
       <c r="G72">
-        <v>6080653000</v>
+        <v>5160074500</v>
       </c>
       <c r="H72">
         <v>8261200</v>
       </c>
       <c r="I72">
-        <v>133918523000</v>
+        <v>122704148600</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-23T13:00:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3133236213000</v>
+        <v>2843780058900</v>
       </c>
       <c r="L72">
         <v>193412700</v>
@@ -3993,13 +3993,13 @@
         <v>-3315200</v>
       </c>
       <c r="N72">
-        <v>-51876206000</v>
+        <v>-48043942100</v>
       </c>
       <c r="O72">
         <v>-33506600</v>
       </c>
       <c r="P72">
-        <v>-543856922000</v>
+        <v>-497626798400</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>8800</v>
       </c>
       <c r="E73">
-        <v>32684122000</v>
+        <v>31451156200</v>
       </c>
       <c r="F73">
-        <v>15015406000</v>
+        <v>12926596900</v>
       </c>
       <c r="G73">
-        <v>87341000</v>
+        <v>83744600</v>
       </c>
       <c r="H73">
         <v>3048600</v>
       </c>
       <c r="I73">
-        <v>47786869000</v>
+        <v>44461497700</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-23T13:02:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3181023082000</v>
+        <v>2888241556600</v>
       </c>
       <c r="L73">
         <v>196461300</v>
@@ -4043,13 +4043,13 @@
         <v>-1438600</v>
       </c>
       <c r="N73">
-        <v>-17668716000</v>
+        <v>-18524559300</v>
       </c>
       <c r="O73">
         <v>-34945200</v>
       </c>
       <c r="P73">
-        <v>-561525638000</v>
+        <v>-516151357700</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>4100</v>
       </c>
       <c r="E74">
-        <v>17944990000</v>
+        <v>17274461200</v>
       </c>
       <c r="F74">
-        <v>30769019000</v>
+        <v>26200292300</v>
       </c>
       <c r="G74">
         <v>45126000</v>
@@ -4078,13 +4078,13 @@
         <v>3002900</v>
       </c>
       <c r="I74">
-        <v>48759135000</v>
+        <v>43519879500</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-23T13:04:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3229782217000</v>
+        <v>2931761436100</v>
       </c>
       <c r="L74">
         <v>199464200</v>
@@ -4093,13 +4093,13 @@
         <v>700600</v>
       </c>
       <c r="N74">
-        <v>12824029000</v>
+        <v>8925831100</v>
       </c>
       <c r="O74">
         <v>-34244600</v>
       </c>
       <c r="P74">
-        <v>-548701609000</v>
+        <v>-507225526600</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>2800</v>
       </c>
       <c r="E75">
-        <v>12502639000</v>
+        <v>11797045300</v>
       </c>
       <c r="F75">
-        <v>47573440000</v>
+        <v>43577140300</v>
       </c>
       <c r="G75">
         <v>46701000</v>
@@ -4128,13 +4128,13 @@
         <v>3556500</v>
       </c>
       <c r="I75">
-        <v>60122780000</v>
+        <v>55420886600</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-23T13:06:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3289904997000</v>
+        <v>2987182322700</v>
       </c>
       <c r="L75">
         <v>203020700</v>
@@ -4143,13 +4143,13 @@
         <v>2008700</v>
       </c>
       <c r="N75">
-        <v>35070801000</v>
+        <v>31780095000</v>
       </c>
       <c r="O75">
         <v>-32235900</v>
       </c>
       <c r="P75">
-        <v>-513630808000</v>
+        <v>-475445431600</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>17100</v>
       </c>
       <c r="E76">
-        <v>13828174000</v>
+        <v>13032270700</v>
       </c>
       <c r="F76">
-        <v>34385851000</v>
+        <v>32807730700</v>
       </c>
       <c r="G76">
         <v>393145000</v>
@@ -4178,13 +4178,13 @@
         <v>3044700</v>
       </c>
       <c r="I76">
-        <v>48607170000</v>
+        <v>46233146400</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-23T13:08:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3338512167000</v>
+        <v>3033415469100</v>
       </c>
       <c r="L76">
         <v>206065400</v>
@@ -4193,13 +4193,13 @@
         <v>1289600</v>
       </c>
       <c r="N76">
-        <v>20557677000</v>
+        <v>19775460000</v>
       </c>
       <c r="O76">
         <v>-30946300</v>
       </c>
       <c r="P76">
-        <v>-493073131000</v>
+        <v>-455669971600</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>27500</v>
       </c>
       <c r="E77">
-        <v>22173407000</v>
+        <v>18649334600</v>
       </c>
       <c r="F77">
-        <v>26154296000</v>
+        <v>25243507700</v>
       </c>
       <c r="G77">
-        <v>745975000</v>
+        <v>714206800</v>
       </c>
       <c r="H77">
         <v>2992500</v>
       </c>
       <c r="I77">
-        <v>49073678000</v>
+        <v>44607049100</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-23T13:10:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3387585845000</v>
+        <v>3078022518200</v>
       </c>
       <c r="L77">
         <v>209057900</v>
@@ -4243,13 +4243,13 @@
         <v>353000</v>
       </c>
       <c r="N77">
-        <v>3980889000</v>
+        <v>6594173100</v>
       </c>
       <c r="O77">
         <v>-30593300</v>
       </c>
       <c r="P77">
-        <v>-489092242000</v>
+        <v>-449075798500</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>46300</v>
       </c>
       <c r="E78">
-        <v>34669772000</v>
+        <v>31224820400</v>
       </c>
       <c r="F78">
-        <v>19125186000</v>
+        <v>17441671200</v>
       </c>
       <c r="G78">
-        <v>535031000</v>
+        <v>528137900</v>
       </c>
       <c r="H78">
         <v>3326100</v>
       </c>
       <c r="I78">
-        <v>54329989000</v>
+        <v>49194629500</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-23T13:12:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3441915834000</v>
+        <v>3127217147700</v>
       </c>
       <c r="L78">
         <v>212384000</v>
@@ -4293,13 +4293,13 @@
         <v>-1346400</v>
       </c>
       <c r="N78">
-        <v>-15544586000</v>
+        <v>-13783149200</v>
       </c>
       <c r="O78">
         <v>-31939700</v>
       </c>
       <c r="P78">
-        <v>-504636828000</v>
+        <v>-462858947700</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>5800</v>
       </c>
       <c r="E79">
-        <v>23311744000</v>
+        <v>20156302600</v>
       </c>
       <c r="F79">
-        <v>14591905000</v>
+        <v>13758639100</v>
       </c>
       <c r="G79">
         <v>140072000</v>
@@ -4328,13 +4328,13 @@
         <v>2406800</v>
       </c>
       <c r="I79">
-        <v>38043721000</v>
+        <v>34055013700</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-23T13:14:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3479959555000</v>
+        <v>3161272161400</v>
       </c>
       <c r="L79">
         <v>214790800</v>
@@ -4343,13 +4343,13 @@
         <v>-701800</v>
       </c>
       <c r="N79">
-        <v>-8719839000</v>
+        <v>-6397663500</v>
       </c>
       <c r="O79">
         <v>-32641500</v>
       </c>
       <c r="P79">
-        <v>-513356667000</v>
+        <v>-469256611200</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>24700</v>
       </c>
       <c r="E80">
-        <v>20904370000</v>
+        <v>18471005800</v>
       </c>
       <c r="F80">
-        <v>16122742000</v>
+        <v>14055811000</v>
       </c>
       <c r="G80">
-        <v>221606000.00000003</v>
+        <v>206221400.00000003</v>
       </c>
       <c r="H80">
         <v>2278700</v>
       </c>
       <c r="I80">
-        <v>37248718000</v>
+        <v>32733038200</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-23T13:16:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3517208273000</v>
+        <v>3194005199600</v>
       </c>
       <c r="L80">
         <v>217069500</v>
@@ -4393,13 +4393,13 @@
         <v>-570200</v>
       </c>
       <c r="N80">
-        <v>-4781628000</v>
+        <v>-4415194800</v>
       </c>
       <c r="O80">
         <v>-33211700</v>
       </c>
       <c r="P80">
-        <v>-518138295000</v>
+        <v>-473671806000</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>700</v>
       </c>
       <c r="E81">
-        <v>21643641000</v>
+        <v>20099286900</v>
       </c>
       <c r="F81">
-        <v>17109498000</v>
+        <v>13931379300</v>
       </c>
       <c r="G81">
         <v>16585000</v>
@@ -4428,13 +4428,13 @@
         <v>2492400</v>
       </c>
       <c r="I81">
-        <v>38769724000</v>
+        <v>34047251200</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-23T13:18:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3555977997000</v>
+        <v>3228052450800</v>
       </c>
       <c r="L81">
         <v>219561900</v>
@@ -4443,13 +4443,13 @@
         <v>-360700</v>
       </c>
       <c r="N81">
-        <v>-4534143000</v>
+        <v>-6167907600</v>
       </c>
       <c r="O81">
         <v>-33572400</v>
       </c>
       <c r="P81">
-        <v>-522672438000</v>
+        <v>-479839713600</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>9700</v>
       </c>
       <c r="E82">
-        <v>33316445000</v>
+        <v>31397366000</v>
       </c>
       <c r="F82">
-        <v>9839093000</v>
+        <v>7743890300</v>
       </c>
       <c r="G82">
         <v>324461000</v>
@@ -4478,13 +4478,13 @@
         <v>2762300</v>
       </c>
       <c r="I82">
-        <v>43479999000</v>
+        <v>39465717300</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-23T13:20:00.000Z</v>
       </c>
       <c r="K82">
-        <v>3599457996000</v>
+        <v>3267518168100</v>
       </c>
       <c r="L82">
         <v>222324200</v>
@@ -4493,13 +4493,13 @@
         <v>-1558600</v>
       </c>
       <c r="N82">
-        <v>-23477352000</v>
+        <v>-23653475700</v>
       </c>
       <c r="O82">
         <v>-35131000</v>
       </c>
       <c r="P82">
-        <v>-546149790000</v>
+        <v>-503493189300</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>62500</v>
       </c>
       <c r="E83">
-        <v>37779840000</v>
+        <v>36706214700</v>
       </c>
       <c r="F83">
-        <v>14869763000</v>
+        <v>14178055400</v>
       </c>
       <c r="G83">
         <v>836306000</v>
@@ -4528,13 +4528,13 @@
         <v>3309500</v>
       </c>
       <c r="I83">
-        <v>53485909000</v>
+        <v>51720576100</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-23T13:22:00.000Z</v>
       </c>
       <c r="K83">
-        <v>3652943905000</v>
+        <v>3319238744200</v>
       </c>
       <c r="L83">
         <v>225633700</v>
@@ -4543,13 +4543,13 @@
         <v>-1601200</v>
       </c>
       <c r="N83">
-        <v>-22910077000</v>
+        <v>-22528159300</v>
       </c>
       <c r="O83">
         <v>-36732200</v>
       </c>
       <c r="P83">
-        <v>-569059867000</v>
+        <v>-526021348600</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>41800</v>
       </c>
       <c r="E84">
-        <v>27107137000</v>
+        <v>26181064000</v>
       </c>
       <c r="F84">
-        <v>18544136000</v>
+        <v>17975605100</v>
       </c>
       <c r="G84">
-        <v>454450000</v>
+        <v>448855600</v>
       </c>
       <c r="H84">
         <v>2656700</v>
       </c>
       <c r="I84">
-        <v>46105723000</v>
+        <v>44605524700</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-23T13:24:00.000Z</v>
       </c>
       <c r="K84">
-        <v>3699049628000</v>
+        <v>3363844268900</v>
       </c>
       <c r="L84">
         <v>228290400</v>
@@ -4593,13 +4593,13 @@
         <v>-782700</v>
       </c>
       <c r="N84">
-        <v>-8563001000</v>
+        <v>-8205458900</v>
       </c>
       <c r="O84">
         <v>-37514900</v>
       </c>
       <c r="P84">
-        <v>-577622868000</v>
+        <v>-534226807500</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>31200</v>
       </c>
       <c r="E85">
-        <v>42341576000</v>
+        <v>41153964800</v>
       </c>
       <c r="F85">
-        <v>18378025000</v>
+        <v>17995308100</v>
       </c>
       <c r="G85">
-        <v>292037000</v>
+        <v>290039000</v>
       </c>
       <c r="H85">
         <v>3288000</v>
       </c>
       <c r="I85">
-        <v>61011638000</v>
+        <v>59439311900</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-23T13:26:00.000Z</v>
       </c>
       <c r="K85">
-        <v>3760061266000</v>
+        <v>3423283580800</v>
       </c>
       <c r="L85">
         <v>231578400</v>
@@ -4643,13 +4643,13 @@
         <v>-1398800</v>
       </c>
       <c r="N85">
-        <v>-23963551000</v>
+        <v>-23158656700</v>
       </c>
       <c r="O85">
         <v>-38913700</v>
       </c>
       <c r="P85">
-        <v>-601586419000</v>
+        <v>-557385464200</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>100</v>
       </c>
       <c r="E86">
-        <v>23737750000</v>
+        <v>22526162800</v>
       </c>
       <c r="F86">
-        <v>23899749000</v>
+        <v>23050499100</v>
       </c>
       <c r="G86">
         <v>405999.99999999994</v>
@@ -4678,13 +4678,13 @@
         <v>2772500</v>
       </c>
       <c r="I86">
-        <v>47637905000</v>
+        <v>45577067900</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-23T13:28:00.000Z</v>
       </c>
       <c r="K86">
-        <v>3807699171000</v>
+        <v>3468860648700</v>
       </c>
       <c r="L86">
         <v>234350900</v>
@@ -4693,13 +4693,13 @@
         <v>-319400</v>
       </c>
       <c r="N86">
-        <v>161999000</v>
+        <v>524336300</v>
       </c>
       <c r="O86">
         <v>-39233100</v>
       </c>
       <c r="P86">
-        <v>-601424420000</v>
+        <v>-556861127900</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>6900</v>
       </c>
       <c r="E87">
-        <v>20987645000</v>
+        <v>20072660900</v>
       </c>
       <c r="F87">
-        <v>23354310000</v>
+        <v>22910154600</v>
       </c>
       <c r="G87">
-        <v>146211000</v>
+        <v>144612600</v>
       </c>
       <c r="H87">
         <v>2497100</v>
       </c>
       <c r="I87">
-        <v>44488166000</v>
+        <v>43127428100</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-23T13:30:00.000Z</v>
       </c>
       <c r="K87">
-        <v>3852187337000</v>
+        <v>3511988076800</v>
       </c>
       <c r="L87">
         <v>236848000</v>
@@ -4743,13 +4743,13 @@
         <v>-109600</v>
       </c>
       <c r="N87">
-        <v>2366665000</v>
+        <v>2837493700</v>
       </c>
       <c r="O87">
         <v>-39342700</v>
       </c>
       <c r="P87">
-        <v>-599057755000</v>
+        <v>-554023634200</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>7200</v>
       </c>
       <c r="E88">
-        <v>22398486000</v>
+        <v>15503088300</v>
       </c>
       <c r="F88">
-        <v>31114726000</v>
+        <v>19296655900</v>
       </c>
       <c r="G88">
-        <v>232329000</v>
+        <v>229232100</v>
       </c>
       <c r="H88">
         <v>2607900</v>
       </c>
       <c r="I88">
-        <v>53745541000</v>
+        <v>35028976300</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-23T13:32:00.000Z</v>
       </c>
       <c r="K88">
-        <v>3905932878000</v>
+        <v>3547017053100</v>
       </c>
       <c r="L88">
         <v>239455900</v>
@@ -4793,13 +4793,13 @@
         <v>414500</v>
       </c>
       <c r="N88">
-        <v>8716240000</v>
+        <v>3793567600</v>
       </c>
       <c r="O88">
         <v>-38928200</v>
       </c>
       <c r="P88">
-        <v>-590341515000</v>
+        <v>-550230066600</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>2400</v>
       </c>
       <c r="E89">
-        <v>23361933000</v>
+        <v>22150245900</v>
       </c>
       <c r="F89">
-        <v>32135366000</v>
+        <v>25255352900</v>
       </c>
       <c r="G89">
         <v>18642000</v>
@@ -4828,13 +4828,13 @@
         <v>2902300</v>
       </c>
       <c r="I89">
-        <v>55515941000</v>
+        <v>47424240800</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-23T13:34:00.000Z</v>
       </c>
       <c r="K89">
-        <v>3961448819000</v>
+        <v>3594441293900</v>
       </c>
       <c r="L89">
         <v>242358200</v>
@@ -4843,13 +4843,13 @@
         <v>708900</v>
       </c>
       <c r="N89">
-        <v>8773433000</v>
+        <v>3105107000</v>
       </c>
       <c r="O89">
         <v>-38219300</v>
       </c>
       <c r="P89">
-        <v>-581568082000</v>
+        <v>-547124959600</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>6600</v>
       </c>
       <c r="E90">
-        <v>21396204000</v>
+        <v>18693009900</v>
       </c>
       <c r="F90">
-        <v>50836048000</v>
+        <v>45020569300</v>
       </c>
       <c r="G90">
         <v>134657000</v>
@@ -4878,13 +4878,13 @@
         <v>3861600</v>
       </c>
       <c r="I90">
-        <v>72366909000</v>
+        <v>63848236200</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-23T13:36:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4033815728000</v>
+        <v>3658289530100</v>
       </c>
       <c r="L90">
         <v>246219800</v>
@@ -4893,13 +4893,13 @@
         <v>1646400</v>
       </c>
       <c r="N90">
-        <v>29439844000</v>
+        <v>26327559400</v>
       </c>
       <c r="O90">
         <v>-36572900</v>
       </c>
       <c r="P90">
-        <v>-552128238000</v>
+        <v>-520797400200</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>13200</v>
       </c>
       <c r="E91">
-        <v>10224120000</v>
+        <v>9011034300</v>
       </c>
       <c r="F91">
-        <v>33812905000</v>
+        <v>32519399800</v>
       </c>
       <c r="G91">
         <v>127758000</v>
@@ -4928,13 +4928,13 @@
         <v>2430000</v>
       </c>
       <c r="I91">
-        <v>44164783000</v>
+        <v>41658192100</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-23T13:38:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4077980511000</v>
+        <v>3699947722200</v>
       </c>
       <c r="L91">
         <v>248649800</v>
@@ -4943,13 +4943,13 @@
         <v>1222800</v>
       </c>
       <c r="N91">
-        <v>23588785000</v>
+        <v>23508365500</v>
       </c>
       <c r="O91">
         <v>-35350100</v>
       </c>
       <c r="P91">
-        <v>-528539453000</v>
+        <v>-497289034700</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>54600</v>
       </c>
       <c r="E92">
-        <v>15098669000</v>
+        <v>14274993500</v>
       </c>
       <c r="F92">
-        <v>41782559000</v>
+        <v>35818129400</v>
       </c>
       <c r="G92">
         <v>740837000</v>
@@ -4978,13 +4978,13 @@
         <v>3154600</v>
       </c>
       <c r="I92">
-        <v>57622065000</v>
+        <v>50833959900</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-23T13:40:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4135602576000</v>
+        <v>3750781682100</v>
       </c>
       <c r="L92">
         <v>251804400</v>
@@ -4993,13 +4993,13 @@
         <v>1090400</v>
       </c>
       <c r="N92">
-        <v>26683890000</v>
+        <v>21543135900</v>
       </c>
       <c r="O92">
         <v>-34259700</v>
       </c>
       <c r="P92">
-        <v>-501855563000</v>
+        <v>-475745898800</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>26200</v>
       </c>
       <c r="E93">
-        <v>15977137000</v>
+        <v>14318497300</v>
       </c>
       <c r="F93">
-        <v>69448918000</v>
+        <v>62891881600</v>
       </c>
       <c r="G93">
         <v>574168000</v>
@@ -5028,13 +5028,13 @@
         <v>5083100</v>
       </c>
       <c r="I93">
-        <v>86000223000</v>
+        <v>77784546900</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-23T13:42:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4221602799000</v>
+        <v>3828566229000</v>
       </c>
       <c r="L93">
         <v>256887500</v>
@@ -5043,13 +5043,13 @@
         <v>3019100</v>
       </c>
       <c r="N93">
-        <v>53471781000</v>
+        <v>48573384300</v>
       </c>
       <c r="O93">
         <v>-31240600</v>
       </c>
       <c r="P93">
-        <v>-448383782000</v>
+        <v>-427172514500</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>81900</v>
       </c>
       <c r="E94">
-        <v>29138041000</v>
+        <v>27251929000</v>
       </c>
       <c r="F94">
-        <v>63192708000</v>
+        <v>58399006500</v>
       </c>
       <c r="G94">
-        <v>1837890000</v>
+        <v>1836291600</v>
       </c>
       <c r="H94">
         <v>5257600</v>
       </c>
       <c r="I94">
-        <v>94168639000</v>
+        <v>87487227100</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-23T13:44:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4315771438000</v>
+        <v>3916053456100</v>
       </c>
       <c r="L94">
         <v>262145100</v>
@@ -5093,13 +5093,13 @@
         <v>1959700</v>
       </c>
       <c r="N94">
-        <v>34054667000</v>
+        <v>31147077500</v>
       </c>
       <c r="O94">
         <v>-29280900</v>
       </c>
       <c r="P94">
-        <v>-414329115000</v>
+        <v>-396025437000</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>10800</v>
       </c>
       <c r="E95">
-        <v>42883332000</v>
+        <v>38291228700</v>
       </c>
       <c r="F95">
-        <v>28524157000</v>
+        <v>25760623300</v>
       </c>
       <c r="G95">
-        <v>166709000</v>
+        <v>130745000</v>
       </c>
       <c r="H95">
         <v>4256400</v>
       </c>
       <c r="I95">
-        <v>71574198000</v>
+        <v>64182597000</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-23T13:46:00.000Z</v>
       </c>
       <c r="K95">
-        <v>4387345636000</v>
+        <v>3980236053100</v>
       </c>
       <c r="L95">
         <v>266401500</v>
@@ -5143,13 +5143,13 @@
         <v>-1173600</v>
       </c>
       <c r="N95">
-        <v>-14359175000</v>
+        <v>-12530605400</v>
       </c>
       <c r="O95">
         <v>-30454500</v>
       </c>
       <c r="P95">
-        <v>-428688290000</v>
+        <v>-408556042400</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>22000</v>
       </c>
       <c r="E96">
-        <v>36360939000</v>
+        <v>31187517600</v>
       </c>
       <c r="F96">
-        <v>8312102000</v>
+        <v>6979535900</v>
       </c>
       <c r="G96">
-        <v>847414000</v>
+        <v>193268800</v>
       </c>
       <c r="H96">
         <v>2854500</v>
       </c>
       <c r="I96">
-        <v>45520455000</v>
+        <v>38360322300</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-23T13:48:00.000Z</v>
       </c>
       <c r="K96">
-        <v>4432866091000</v>
+        <v>4018596375400</v>
       </c>
       <c r="L96">
         <v>269256000</v>
@@ -5193,13 +5193,13 @@
         <v>-1790100</v>
       </c>
       <c r="N96">
-        <v>-28048837000</v>
+        <v>-24207981700</v>
       </c>
       <c r="O96">
         <v>-32244600</v>
       </c>
       <c r="P96">
-        <v>-456737127000</v>
+        <v>-432764024100</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>12200</v>
       </c>
       <c r="E97">
-        <v>24612498000</v>
+        <v>23182329600</v>
       </c>
       <c r="F97">
-        <v>29213517000</v>
+        <v>26041791900</v>
       </c>
       <c r="G97">
         <v>112351000</v>
@@ -5228,13 +5228,13 @@
         <v>2711600</v>
       </c>
       <c r="I97">
-        <v>53938366000</v>
+        <v>49336472500</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-23T13:50:00.000Z</v>
       </c>
       <c r="K97">
-        <v>4486804457000</v>
+        <v>4067932847900</v>
       </c>
       <c r="L97">
         <v>271967600</v>
@@ -5243,13 +5243,13 @@
         <v>-227800</v>
       </c>
       <c r="N97">
-        <v>4601019000</v>
+        <v>2859462300</v>
       </c>
       <c r="O97">
         <v>-32472400</v>
       </c>
       <c r="P97">
-        <v>-452136108000</v>
+        <v>-429904561800</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>7000</v>
       </c>
       <c r="E98">
-        <v>17226818000</v>
+        <v>15694751600</v>
       </c>
       <c r="F98">
-        <v>30241078000</v>
+        <v>29313806200</v>
       </c>
       <c r="G98">
         <v>51046000</v>
@@ -5278,13 +5278,13 @@
         <v>2500100</v>
       </c>
       <c r="I98">
-        <v>47518942000</v>
+        <v>45059603800</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-23T13:52:00.000Z</v>
       </c>
       <c r="K98">
-        <v>4534323399000</v>
+        <v>4112992451700</v>
       </c>
       <c r="L98">
         <v>274467700</v>
@@ -5293,13 +5293,13 @@
         <v>363900</v>
       </c>
       <c r="N98">
-        <v>13014260000</v>
+        <v>13619054600</v>
       </c>
       <c r="O98">
         <v>-32108500</v>
       </c>
       <c r="P98">
-        <v>-439121848000</v>
+        <v>-416285507200</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>31400</v>
       </c>
       <c r="E99">
-        <v>15661691000</v>
+        <v>12840415100</v>
       </c>
       <c r="F99">
-        <v>31821401000</v>
+        <v>29447277500</v>
       </c>
       <c r="G99">
         <v>297303000</v>
@@ -5328,13 +5328,13 @@
         <v>2603400</v>
       </c>
       <c r="I99">
-        <v>47780395000</v>
+        <v>42584995600</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-23T13:54:00.000Z</v>
       </c>
       <c r="K99">
-        <v>4582103794000</v>
+        <v>4155577447300</v>
       </c>
       <c r="L99">
         <v>277071100</v>
@@ -5343,13 +5343,13 @@
         <v>970200</v>
       </c>
       <c r="N99">
-        <v>16159710000</v>
+        <v>16606862400</v>
       </c>
       <c r="O99">
         <v>-31138300</v>
       </c>
       <c r="P99">
-        <v>-422962138000</v>
+        <v>-399678644800</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>1200</v>
       </c>
       <c r="E100">
-        <v>22987870000</v>
+        <v>21806952100</v>
       </c>
       <c r="F100">
-        <v>19963396000</v>
+        <v>17756405200</v>
       </c>
       <c r="G100">
         <v>44645000</v>
@@ -5378,13 +5378,13 @@
         <v>2278600</v>
       </c>
       <c r="I100">
-        <v>42995911000</v>
+        <v>39608002300</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-23T13:56:00.000Z</v>
       </c>
       <c r="K100">
-        <v>4625099705000</v>
+        <v>4195185449600</v>
       </c>
       <c r="L100">
         <v>279349700</v>
@@ -5393,13 +5393,13 @@
         <v>-90000</v>
       </c>
       <c r="N100">
-        <v>-3024474000</v>
+        <v>-4050546900</v>
       </c>
       <c r="O100">
         <v>-31228300</v>
       </c>
       <c r="P100">
-        <v>-425986612000</v>
+        <v>-403729191700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>8200</v>
       </c>
       <c r="E101">
-        <v>28588567000</v>
+        <v>25752605800</v>
       </c>
       <c r="F101">
-        <v>16104259000</v>
+        <v>14840823700</v>
       </c>
       <c r="G101">
-        <v>197654000</v>
+        <v>191260400</v>
       </c>
       <c r="H101">
         <v>2497800</v>
       </c>
       <c r="I101">
-        <v>44890480000</v>
+        <v>40784689900</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-23T13:58:00.000Z</v>
       </c>
       <c r="K101">
-        <v>4669990185000</v>
+        <v>4235970139500</v>
       </c>
       <c r="L101">
         <v>281847500</v>
@@ -5443,13 +5443,13 @@
         <v>-680400</v>
       </c>
       <c r="N101">
-        <v>-12484308000</v>
+        <v>-10911782100</v>
       </c>
       <c r="O101">
         <v>-31908700</v>
       </c>
       <c r="P101">
-        <v>-438470920000</v>
+        <v>-414640973800</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>10500</v>
       </c>
       <c r="E102">
-        <v>18069380000</v>
+        <v>16319931200</v>
       </c>
       <c r="F102">
-        <v>21529950000</v>
+        <v>18963618900</v>
       </c>
       <c r="G102">
         <v>383037000</v>
@@ -5478,13 +5478,13 @@
         <v>2077800</v>
       </c>
       <c r="I102">
-        <v>39982367000</v>
+        <v>35666587100</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-23T14:00:00.000Z</v>
       </c>
       <c r="K102">
-        <v>4709972552000</v>
+        <v>4271636726600</v>
       </c>
       <c r="L102">
         <v>283925300</v>
@@ -5493,13 +5493,13 @@
         <v>72100</v>
       </c>
       <c r="N102">
-        <v>3460570000</v>
+        <v>2643687700</v>
       </c>
       <c r="O102">
         <v>-31836600</v>
       </c>
       <c r="P102">
-        <v>-435010350000</v>
+        <v>-411997286100</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>22300</v>
       </c>
       <c r="E103">
-        <v>11662192000</v>
+        <v>9777778300</v>
       </c>
       <c r="F103">
-        <v>19982095000</v>
+        <v>19363714000</v>
       </c>
       <c r="G103">
         <v>315618000</v>
@@ -5528,13 +5528,13 @@
         <v>1895800</v>
       </c>
       <c r="I103">
-        <v>31959905000</v>
+        <v>29457110300</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-23T14:02:00.000Z</v>
       </c>
       <c r="K103">
-        <v>4741932457000</v>
+        <v>4301093836900</v>
       </c>
       <c r="L103">
         <v>285821100</v>
@@ -5543,13 +5543,13 @@
         <v>345700</v>
       </c>
       <c r="N103">
-        <v>8319903000</v>
+        <v>9585935700</v>
       </c>
       <c r="O103">
         <v>-31490900</v>
       </c>
       <c r="P103">
-        <v>-426690447000</v>
+        <v>-402411350400</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>8100</v>
       </c>
       <c r="E104">
-        <v>14195666000</v>
+        <v>12716147000</v>
       </c>
       <c r="F104">
-        <v>45087679000</v>
+        <v>42038930800</v>
       </c>
       <c r="G104">
         <v>185745000</v>
@@ -5578,13 +5578,13 @@
         <v>3119900</v>
       </c>
       <c r="I104">
-        <v>59469090000</v>
+        <v>54940822800</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-23T14:04:00.000Z</v>
       </c>
       <c r="K104">
-        <v>4801401547000</v>
+        <v>4356034659700</v>
       </c>
       <c r="L104">
         <v>288941000</v>
@@ -5593,13 +5593,13 @@
         <v>1376600</v>
       </c>
       <c r="N104">
-        <v>30892013000</v>
+        <v>29322783800</v>
       </c>
       <c r="O104">
         <v>-30114300</v>
       </c>
       <c r="P104">
-        <v>-395798434000</v>
+        <v>-373088566600</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>11000</v>
       </c>
       <c r="E105">
-        <v>22345631000</v>
+        <v>21511066400</v>
       </c>
       <c r="F105">
-        <v>63405809000</v>
+        <v>60034683500</v>
       </c>
       <c r="G105">
         <v>130923000</v>
@@ -5628,13 +5628,13 @@
         <v>4436800</v>
       </c>
       <c r="I105">
-        <v>85882363000</v>
+        <v>81676672900</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-23T14:06:00.000Z</v>
       </c>
       <c r="K105">
-        <v>4887283910000</v>
+        <v>4437711332600</v>
       </c>
       <c r="L105">
         <v>293377800</v>
@@ -5643,13 +5643,13 @@
         <v>2923600</v>
       </c>
       <c r="N105">
-        <v>41060178000</v>
+        <v>38523617100</v>
       </c>
       <c r="O105">
         <v>-27190700</v>
       </c>
       <c r="P105">
-        <v>-354738256000</v>
+        <v>-334564949500</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>78100</v>
       </c>
       <c r="E106">
-        <v>14137547000</v>
+        <v>13724460500</v>
       </c>
       <c r="F106">
-        <v>67572998000</v>
+        <v>62113662800</v>
       </c>
       <c r="G106">
-        <v>773249000</v>
+        <v>751271000</v>
       </c>
       <c r="H106">
         <v>4489600</v>
       </c>
       <c r="I106">
-        <v>82483794000</v>
+        <v>76589394300</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-23T14:08:00.000Z</v>
       </c>
       <c r="K106">
-        <v>4969767704000</v>
+        <v>4514300726900</v>
       </c>
       <c r="L106">
         <v>297867400</v>
@@ -5693,13 +5693,13 @@
         <v>2830500</v>
       </c>
       <c r="N106">
-        <v>53435451000</v>
+        <v>48389202300</v>
       </c>
       <c r="O106">
         <v>-24360200</v>
       </c>
       <c r="P106">
-        <v>-301302805000</v>
+        <v>-286175747200</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>4700</v>
       </c>
       <c r="E107">
-        <v>29130640000</v>
+        <v>26052521200</v>
       </c>
       <c r="F107">
-        <v>56409861000</v>
+        <v>52660614000</v>
       </c>
       <c r="G107">
         <v>115015000</v>
@@ -5728,13 +5728,13 @@
         <v>4436900</v>
       </c>
       <c r="I107">
-        <v>85655516000</v>
+        <v>78828150200</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-23T14:10:00.000Z</v>
       </c>
       <c r="K107">
-        <v>5055423220000</v>
+        <v>4593128877100</v>
       </c>
       <c r="L107">
         <v>302304300</v>
@@ -5743,13 +5743,13 @@
         <v>1127200</v>
       </c>
       <c r="N107">
-        <v>27279221000</v>
+        <v>26608092800</v>
       </c>
       <c r="O107">
         <v>-23233000</v>
       </c>
       <c r="P107">
-        <v>-274023584000</v>
+        <v>-259567654400</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>26200</v>
       </c>
       <c r="E108">
-        <v>43909420000</v>
+        <v>40683848800</v>
       </c>
       <c r="F108">
-        <v>33776841000</v>
+        <v>31439181000</v>
       </c>
       <c r="G108">
         <v>424394000</v>
@@ -5778,13 +5778,13 @@
         <v>4121000</v>
       </c>
       <c r="I108">
-        <v>78110655000</v>
+        <v>72547423800</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-23T14:12:00.000Z</v>
       </c>
       <c r="K108">
-        <v>5133533875000</v>
+        <v>4665676300900</v>
       </c>
       <c r="L108">
         <v>306425300</v>
@@ -5793,13 +5793,13 @@
         <v>-723400</v>
       </c>
       <c r="N108">
-        <v>-10132579000</v>
+        <v>-9244667800</v>
       </c>
       <c r="O108">
         <v>-23956400</v>
       </c>
       <c r="P108">
-        <v>-284156163000</v>
+        <v>-268812322200</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>45600</v>
       </c>
       <c r="E109">
-        <v>63396292000</v>
+        <v>58169524000</v>
       </c>
       <c r="F109">
-        <v>45151867000</v>
+        <v>44227692100</v>
       </c>
       <c r="G109">
-        <v>509344000</v>
+        <v>278375200</v>
       </c>
       <c r="H109">
         <v>6292700</v>
       </c>
       <c r="I109">
-        <v>109057503000</v>
+        <v>102675591300</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-23T14:14:00.000Z</v>
       </c>
       <c r="K109">
-        <v>5242591378000</v>
+        <v>4768351892200</v>
       </c>
       <c r="L109">
         <v>312718000</v>
@@ -5843,13 +5843,13 @@
         <v>-2508700</v>
       </c>
       <c r="N109">
-        <v>-18244425000</v>
+        <v>-13941831900</v>
       </c>
       <c r="O109">
         <v>-26465100</v>
       </c>
       <c r="P109">
-        <v>-302400588000</v>
+        <v>-282754154100</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>203000</v>
       </c>
       <c r="E110">
-        <v>28996905000</v>
+        <v>26883920100</v>
       </c>
       <c r="F110">
-        <v>67163410000</v>
+        <v>63562714300</v>
       </c>
       <c r="G110">
         <v>3289795000</v>
@@ -5878,13 +5878,13 @@
         <v>4670900</v>
       </c>
       <c r="I110">
-        <v>99450110000</v>
+        <v>93736429400</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-23T14:16:00.000Z</v>
       </c>
       <c r="K110">
-        <v>5342041488000</v>
+        <v>4862088321600</v>
       </c>
       <c r="L110">
         <v>317388900</v>
@@ -5893,13 +5893,13 @@
         <v>968900</v>
       </c>
       <c r="N110">
-        <v>38166505000</v>
+        <v>36678794200</v>
       </c>
       <c r="O110">
         <v>-25496200</v>
       </c>
       <c r="P110">
-        <v>-264234083000</v>
+        <v>-246075359900</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>8300</v>
       </c>
       <c r="E111">
-        <v>23111827000</v>
+        <v>21228112600</v>
       </c>
       <c r="F111">
-        <v>41116150000</v>
+        <v>37695474100</v>
       </c>
       <c r="G111">
         <v>172975000</v>
@@ -5928,13 +5928,13 @@
         <v>3435600</v>
       </c>
       <c r="I111">
-        <v>64400952000</v>
+        <v>59096561700</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-23T14:18:00.000Z</v>
       </c>
       <c r="K111">
-        <v>5406442440000</v>
+        <v>4921184883300</v>
       </c>
       <c r="L111">
         <v>320824500</v>
@@ -5943,13 +5943,13 @@
         <v>604100</v>
       </c>
       <c r="N111">
-        <v>18004323000</v>
+        <v>16467361500</v>
       </c>
       <c r="O111">
         <v>-24892100</v>
       </c>
       <c r="P111">
-        <v>-246229760000</v>
+        <v>-229607998400</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>84800</v>
       </c>
       <c r="E112">
-        <v>28122069000</v>
+        <v>26613079500</v>
       </c>
       <c r="F112">
-        <v>107436706000</v>
+        <v>99077673400</v>
       </c>
       <c r="G112">
         <v>1825882000</v>
@@ -5978,13 +5978,13 @@
         <v>6343600</v>
       </c>
       <c r="I112">
-        <v>137384657000</v>
+        <v>127516634900</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-23T14:20:00.000Z</v>
       </c>
       <c r="K112">
-        <v>5543827097000</v>
+        <v>5048701518200</v>
       </c>
       <c r="L112">
         <v>327168100</v>
@@ -5993,13 +5993,13 @@
         <v>3434400</v>
       </c>
       <c r="N112">
-        <v>79314637000</v>
+        <v>72464593900</v>
       </c>
       <c r="O112">
         <v>-21457700</v>
       </c>
       <c r="P112">
-        <v>-166915123000</v>
+        <v>-157143404500</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>19600</v>
       </c>
       <c r="E113">
-        <v>37089660000</v>
+        <v>36143507100</v>
       </c>
       <c r="F113">
-        <v>55568663000</v>
+        <v>48125313800</v>
       </c>
       <c r="G113">
         <v>309838000</v>
@@ -6028,13 +6028,13 @@
         <v>5113000</v>
       </c>
       <c r="I113">
-        <v>92968161000</v>
+        <v>84578658900</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-23T14:22:00.000Z</v>
       </c>
       <c r="K113">
-        <v>5636795258000</v>
+        <v>5133280177100</v>
       </c>
       <c r="L113">
         <v>332281100</v>
@@ -6043,13 +6043,13 @@
         <v>1010400</v>
       </c>
       <c r="N113">
-        <v>18479003000</v>
+        <v>11981806700</v>
       </c>
       <c r="O113">
         <v>-20447300</v>
       </c>
       <c r="P113">
-        <v>-148436120000</v>
+        <v>-145161597800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>9500</v>
       </c>
       <c r="E114">
-        <v>37804867000</v>
+        <v>34838136700</v>
       </c>
       <c r="F114">
-        <v>59070504000</v>
+        <v>52866614100</v>
       </c>
       <c r="G114">
-        <v>204709000</v>
+        <v>161851900</v>
       </c>
       <c r="H114">
         <v>5072000</v>
       </c>
       <c r="I114">
-        <v>97080080000</v>
+        <v>87866602700</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-23T14:24:00.000Z</v>
       </c>
       <c r="K114">
-        <v>5733875338000</v>
+        <v>5221146779800</v>
       </c>
       <c r="L114">
         <v>337353100</v>
@@ -6093,13 +6093,13 @@
         <v>704700</v>
       </c>
       <c r="N114">
-        <v>21265637000</v>
+        <v>18028477400</v>
       </c>
       <c r="O114">
         <v>-19742600</v>
       </c>
       <c r="P114">
-        <v>-127170483000</v>
+        <v>-127133120400</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>26900</v>
       </c>
       <c r="E115">
-        <v>53929463000</v>
+        <v>49822673900</v>
       </c>
       <c r="F115">
-        <v>70079015000</v>
+        <v>64130069900</v>
       </c>
       <c r="G115">
-        <v>574337000</v>
+        <v>568143200</v>
       </c>
       <c r="H115">
         <v>6895400</v>
       </c>
       <c r="I115">
-        <v>124582815000</v>
+        <v>114520887000</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-23T14:26:00.000Z</v>
       </c>
       <c r="K115">
-        <v>5858458153000</v>
+        <v>5335667666800</v>
       </c>
       <c r="L115">
         <v>344248500</v>
@@ -6143,13 +6143,13 @@
         <v>76500</v>
       </c>
       <c r="N115">
-        <v>16149552000</v>
+        <v>14307396000</v>
       </c>
       <c r="O115">
         <v>-19666100</v>
       </c>
       <c r="P115">
-        <v>-111020931000</v>
+        <v>-112825724400</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>104800</v>
       </c>
       <c r="E116">
-        <v>38354504000</v>
+        <v>34022240600</v>
       </c>
       <c r="F116">
-        <v>105675756000</v>
+        <v>93411232800</v>
       </c>
       <c r="G116">
-        <v>1464166000</v>
+        <v>1173457000</v>
       </c>
       <c r="H116">
         <v>8135500</v>
       </c>
       <c r="I116">
-        <v>145494426000</v>
+        <v>128606930400</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-23T14:28:00.000Z</v>
       </c>
       <c r="K116">
-        <v>6003952579000</v>
+        <v>5464274597200</v>
       </c>
       <c r="L116">
         <v>352384000</v>
@@ -6193,13 +6193,13 @@
         <v>2773500</v>
       </c>
       <c r="N116">
-        <v>67321252000</v>
+        <v>59388992200</v>
       </c>
       <c r="O116">
         <v>-16892600</v>
       </c>
       <c r="P116">
-        <v>-43699679000</v>
+        <v>-53436732200</v>
       </c>
     </row>
     <row r="117">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6228,13 +6228,13 @@
         <v>100</v>
       </c>
       <c r="I117">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-23T14:30:00.000Z</v>
       </c>
       <c r="K117">
-        <v>6003953579000</v>
+        <v>5464274598200</v>
       </c>
       <c r="L117">
         <v>352384100</v>
@@ -6243,13 +6243,13 @@
         <v>100</v>
       </c>
       <c r="N117">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="O117">
         <v>-16892500</v>
       </c>
       <c r="P117">
-        <v>-43698679000</v>
+        <v>-53436731200</v>
       </c>
     </row>
     <row r="118">
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>2000000</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6278,13 +6278,13 @@
         <v>200</v>
       </c>
       <c r="I118">
-        <v>2000000</v>
+        <v>2000</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-23T14:32:00.000Z</v>
       </c>
       <c r="K118">
-        <v>6003955579000</v>
+        <v>5464274600200</v>
       </c>
       <c r="L118">
         <v>352384300</v>
@@ -6293,13 +6293,13 @@
         <v>200</v>
       </c>
       <c r="N118">
-        <v>2000000</v>
+        <v>2000</v>
       </c>
       <c r="O118">
         <v>-16892300</v>
       </c>
       <c r="P118">
-        <v>-43696679000</v>
+        <v>-53436729200</v>
       </c>
     </row>
     <row r="119">
@@ -6316,25 +6316,25 @@
         <v>37495300</v>
       </c>
       <c r="E119">
-        <v>4684393000</v>
+        <v>4141136800</v>
       </c>
       <c r="F119">
-        <v>8293498000</v>
+        <v>4575419800</v>
       </c>
       <c r="G119">
-        <v>705862135000</v>
+        <v>603638860600</v>
       </c>
       <c r="H119">
         <v>38197700</v>
       </c>
       <c r="I119">
-        <v>718840026000</v>
+        <v>612355417200</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-23T14:44:00.000Z</v>
       </c>
       <c r="K119">
-        <v>6722795605000</v>
+        <v>6076630017400</v>
       </c>
       <c r="L119">
         <v>390582000</v>
@@ -6343,13 +6343,13 @@
         <v>147800</v>
       </c>
       <c r="N119">
-        <v>3609105000</v>
+        <v>434283000</v>
       </c>
       <c r="O119">
         <v>-16744500</v>
       </c>
       <c r="P119">
-        <v>-40087574000</v>
+        <v>-53002446200</v>
       </c>
     </row>
     <row r="120">
@@ -6384,7 +6384,7 @@
         <v>2022-12-23T14:52:00.000Z</v>
       </c>
       <c r="K120">
-        <v>6722805505000</v>
+        <v>6076639917400</v>
       </c>
       <c r="L120">
         <v>390583000</v>
@@ -6399,7 +6399,7 @@
         <v>-16745500</v>
       </c>
       <c r="P120">
-        <v>-40097474000</v>
+        <v>-53012346200</v>
       </c>
     </row>
     <row r="121">
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>61000000</v>
+        <v>61000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6428,13 +6428,13 @@
         <v>6100</v>
       </c>
       <c r="I121">
-        <v>61000000</v>
+        <v>61000</v>
       </c>
       <c r="J121" t="str">
         <v>2022-12-23T14:56:00.000Z</v>
       </c>
       <c r="K121">
-        <v>6722866505000</v>
+        <v>6076639978400</v>
       </c>
       <c r="L121">
         <v>390589100</v>
@@ -6443,13 +6443,13 @@
         <v>6100</v>
       </c>
       <c r="N121">
-        <v>61000000</v>
+        <v>61000</v>
       </c>
       <c r="O121">
         <v>-16739400</v>
       </c>
       <c r="P121">
-        <v>-40036474000</v>
+        <v>-53012285200</v>
       </c>
     </row>
     <row r="122">
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6478,13 +6478,13 @@
         <v>100</v>
       </c>
       <c r="I122">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="J122" t="str">
         <v>2022-12-23T14:58:00.000Z</v>
       </c>
       <c r="K122">
-        <v>6722867505000</v>
+        <v>6076639979400</v>
       </c>
       <c r="L122">
         <v>390589200</v>
@@ -6493,13 +6493,13 @@
         <v>100</v>
       </c>
       <c r="N122">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="O122">
         <v>-16739300</v>
       </c>
       <c r="P122">
-        <v>-40035474000</v>
+        <v>-53012284200</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221223/VNINDEX_HOSE_5p_20221223.xlsx
+++ b/name/vnindex/20221223/VNINDEX_HOSE_5p_20221223.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>22132789605</v>
+      </c>
+      <c r="V2">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W2">
+        <v>50220165119</v>
+      </c>
+      <c r="X2">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y2">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z2">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA2">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB2">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>751249400</v>
       </c>
+      <c r="Q3">
+        <v>27594640200</v>
+      </c>
+      <c r="R3">
+        <v>26843390800</v>
+      </c>
+      <c r="S3">
+        <v>1762500</v>
+      </c>
+      <c r="T3">
+        <v>1839400</v>
+      </c>
+      <c r="U3">
+        <v>22132789605</v>
+      </c>
+      <c r="V3">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W3">
+        <v>50220165119</v>
+      </c>
+      <c r="X3">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y3">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z3">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA3">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB3">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC3">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-4466567900</v>
       </c>
+      <c r="Q4">
+        <v>42531908200</v>
+      </c>
+      <c r="R4">
+        <v>46998476100</v>
+      </c>
+      <c r="S4">
+        <v>2735600</v>
+      </c>
+      <c r="T4">
+        <v>3206200</v>
+      </c>
+      <c r="U4">
+        <v>22132789605</v>
+      </c>
+      <c r="V4">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W4">
+        <v>50220165119</v>
+      </c>
+      <c r="X4">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y4">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z4">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA4">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB4">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC4">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-19522695500</v>
       </c>
+      <c r="Q5">
+        <v>56484117200</v>
+      </c>
+      <c r="R5">
+        <v>76006812700</v>
+      </c>
+      <c r="S5">
+        <v>3587800</v>
+      </c>
+      <c r="T5">
+        <v>5778000</v>
+      </c>
+      <c r="U5">
+        <v>22132789605</v>
+      </c>
+      <c r="V5">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W5">
+        <v>50220165119</v>
+      </c>
+      <c r="X5">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y5">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z5">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA5">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB5">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC5">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-32141884500</v>
       </c>
+      <c r="Q6">
+        <v>76700843600</v>
+      </c>
+      <c r="R6">
+        <v>108842728100</v>
+      </c>
+      <c r="S6">
+        <v>5017700</v>
+      </c>
+      <c r="T6">
+        <v>8118100</v>
+      </c>
+      <c r="U6">
+        <v>22132789605</v>
+      </c>
+      <c r="V6">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W6">
+        <v>50220165119</v>
+      </c>
+      <c r="X6">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y6">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z6">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA6">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB6">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC6">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-41242870900</v>
       </c>
+      <c r="Q7">
+        <v>93555710700</v>
+      </c>
+      <c r="R7">
+        <v>134798581600</v>
+      </c>
+      <c r="S7">
+        <v>6148400</v>
+      </c>
+      <c r="T7">
+        <v>10023400</v>
+      </c>
+      <c r="U7">
+        <v>22132789605</v>
+      </c>
+      <c r="V7">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W7">
+        <v>50220165119</v>
+      </c>
+      <c r="X7">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y7">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z7">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA7">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB7">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC7">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-41677561400</v>
       </c>
+      <c r="Q8">
+        <v>109743560000</v>
+      </c>
+      <c r="R8">
+        <v>151421121400</v>
+      </c>
+      <c r="S8">
+        <v>7122500</v>
+      </c>
+      <c r="T8">
+        <v>11085300</v>
+      </c>
+      <c r="U8">
+        <v>22132789605</v>
+      </c>
+      <c r="V8">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W8">
+        <v>50220165119</v>
+      </c>
+      <c r="X8">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y8">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z8">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA8">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB8">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-51254559900</v>
       </c>
+      <c r="Q9">
+        <v>124808537900</v>
+      </c>
+      <c r="R9">
+        <v>176063097800</v>
+      </c>
+      <c r="S9">
+        <v>8059300</v>
+      </c>
+      <c r="T9">
+        <v>12554500</v>
+      </c>
+      <c r="U9">
+        <v>22132789605</v>
+      </c>
+      <c r="V9">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W9">
+        <v>50220165119</v>
+      </c>
+      <c r="X9">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y9">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z9">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA9">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB9">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC9">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-72503136000</v>
       </c>
+      <c r="Q10">
+        <v>138465931500</v>
+      </c>
+      <c r="R10">
+        <v>210969067500</v>
+      </c>
+      <c r="S10">
+        <v>9091300</v>
+      </c>
+      <c r="T10">
+        <v>15030800</v>
+      </c>
+      <c r="U10">
+        <v>22132789605</v>
+      </c>
+      <c r="V10">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W10">
+        <v>50220165119</v>
+      </c>
+      <c r="X10">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y10">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z10">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA10">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB10">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC10">
+        <v>48.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-70175944600</v>
       </c>
+      <c r="Q11">
+        <v>161793395400</v>
+      </c>
+      <c r="R11">
+        <v>231969340000</v>
+      </c>
+      <c r="S11">
+        <v>10969900</v>
+      </c>
+      <c r="T11">
+        <v>16429500</v>
+      </c>
+      <c r="U11">
+        <v>22132789605</v>
+      </c>
+      <c r="V11">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W11">
+        <v>50220165119</v>
+      </c>
+      <c r="X11">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y11">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z11">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA11">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB11">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC11">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-55875812500</v>
       </c>
+      <c r="Q12">
+        <v>192814764900</v>
+      </c>
+      <c r="R12">
+        <v>248690577400</v>
+      </c>
+      <c r="S12">
+        <v>12995200</v>
+      </c>
+      <c r="T12">
+        <v>17598200</v>
+      </c>
+      <c r="U12">
+        <v>22132789605</v>
+      </c>
+      <c r="V12">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W12">
+        <v>50220165119</v>
+      </c>
+      <c r="X12">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y12">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z12">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA12">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB12">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC12">
+        <v>32.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-23166160400</v>
       </c>
+      <c r="Q13">
+        <v>238816556900</v>
+      </c>
+      <c r="R13">
+        <v>261982717300</v>
+      </c>
+      <c r="S13">
+        <v>16318100</v>
+      </c>
+      <c r="T13">
+        <v>18517800</v>
+      </c>
+      <c r="U13">
+        <v>22132789605</v>
+      </c>
+      <c r="V13">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W13">
+        <v>50220165119</v>
+      </c>
+      <c r="X13">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y13">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z13">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA13">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB13">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC13">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>10344705700</v>
       </c>
+      <c r="Q14">
+        <v>289535838200</v>
+      </c>
+      <c r="R14">
+        <v>279191132500</v>
+      </c>
+      <c r="S14">
+        <v>19879000</v>
+      </c>
+      <c r="T14">
+        <v>19660400</v>
+      </c>
+      <c r="U14">
+        <v>22132789605</v>
+      </c>
+      <c r="V14">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W14">
+        <v>50220165119</v>
+      </c>
+      <c r="X14">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y14">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z14">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA14">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB14">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC14">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>23303177800</v>
       </c>
+      <c r="Q15">
+        <v>324839243000</v>
+      </c>
+      <c r="R15">
+        <v>301536065200</v>
+      </c>
+      <c r="S15">
+        <v>22447600</v>
+      </c>
+      <c r="T15">
+        <v>21232900</v>
+      </c>
+      <c r="U15">
+        <v>22132789605</v>
+      </c>
+      <c r="V15">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W15">
+        <v>50220165119</v>
+      </c>
+      <c r="X15">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y15">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z15">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA15">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB15">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC15">
+        <v>29.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>35571633000</v>
       </c>
+      <c r="Q16">
+        <v>357358505000</v>
+      </c>
+      <c r="R16">
+        <v>321786872000</v>
+      </c>
+      <c r="S16">
+        <v>24778900</v>
+      </c>
+      <c r="T16">
+        <v>23012300</v>
+      </c>
+      <c r="U16">
+        <v>22132789605</v>
+      </c>
+      <c r="V16">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W16">
+        <v>50220165119</v>
+      </c>
+      <c r="X16">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y16">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z16">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA16">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB16">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC16">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>25158500600</v>
       </c>
+      <c r="Q17">
+        <v>376402238700</v>
+      </c>
+      <c r="R17">
+        <v>351243738100</v>
+      </c>
+      <c r="S17">
+        <v>26310000</v>
+      </c>
+      <c r="T17">
+        <v>25094100</v>
+      </c>
+      <c r="U17">
+        <v>22132789605</v>
+      </c>
+      <c r="V17">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W17">
+        <v>50220165119</v>
+      </c>
+      <c r="X17">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y17">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z17">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA17">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB17">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC17">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-1335503900</v>
       </c>
+      <c r="Q18">
+        <v>391858558200</v>
+      </c>
+      <c r="R18">
+        <v>393194062100</v>
+      </c>
+      <c r="S18">
+        <v>27369600</v>
+      </c>
+      <c r="T18">
+        <v>28190400</v>
+      </c>
+      <c r="U18">
+        <v>22132789605</v>
+      </c>
+      <c r="V18">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W18">
+        <v>50220165119</v>
+      </c>
+      <c r="X18">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y18">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z18">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA18">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB18">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC18">
+        <v>60.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-14908452500</v>
       </c>
+      <c r="Q19">
+        <v>406014068500</v>
+      </c>
+      <c r="R19">
+        <v>420922521000</v>
+      </c>
+      <c r="S19">
+        <v>28331600</v>
+      </c>
+      <c r="T19">
+        <v>30302600</v>
+      </c>
+      <c r="U19">
+        <v>22132789605</v>
+      </c>
+      <c r="V19">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W19">
+        <v>50220165119</v>
+      </c>
+      <c r="X19">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y19">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z19">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA19">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB19">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC19">
+        <v>31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-14459275400</v>
       </c>
+      <c r="Q20">
+        <v>426734706000</v>
+      </c>
+      <c r="R20">
+        <v>441193981400</v>
+      </c>
+      <c r="S20">
+        <v>29923700</v>
+      </c>
+      <c r="T20">
+        <v>31569200</v>
+      </c>
+      <c r="U20">
+        <v>22132789605</v>
+      </c>
+      <c r="V20">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W20">
+        <v>50220165119</v>
+      </c>
+      <c r="X20">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y20">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z20">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA20">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB20">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-12370777100</v>
       </c>
+      <c r="Q21">
+        <v>445849257500</v>
+      </c>
+      <c r="R21">
+        <v>458220034600</v>
+      </c>
+      <c r="S21">
+        <v>31435300</v>
+      </c>
+      <c r="T21">
+        <v>32643100</v>
+      </c>
+      <c r="U21">
+        <v>22132789605</v>
+      </c>
+      <c r="V21">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W21">
+        <v>50220165119</v>
+      </c>
+      <c r="X21">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y21">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z21">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA21">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB21">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC21">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-7591000700</v>
       </c>
+      <c r="Q22">
+        <v>464145242700</v>
+      </c>
+      <c r="R22">
+        <v>471736243400</v>
+      </c>
+      <c r="S22">
+        <v>32679400</v>
+      </c>
+      <c r="T22">
+        <v>33502500</v>
+      </c>
+      <c r="U22">
+        <v>22132789605</v>
+      </c>
+      <c r="V22">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W22">
+        <v>50220165119</v>
+      </c>
+      <c r="X22">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y22">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z22">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA22">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB22">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC22">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-5384868000</v>
       </c>
+      <c r="Q23">
+        <v>481628203400</v>
+      </c>
+      <c r="R23">
+        <v>487013071400</v>
+      </c>
+      <c r="S23">
+        <v>33751500</v>
+      </c>
+      <c r="T23">
+        <v>34605800</v>
+      </c>
+      <c r="U23">
+        <v>22132789605</v>
+      </c>
+      <c r="V23">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W23">
+        <v>50220165119</v>
+      </c>
+      <c r="X23">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y23">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z23">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA23">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB23">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC23">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>3155753100</v>
       </c>
+      <c r="Q24">
+        <v>508442972400</v>
+      </c>
+      <c r="R24">
+        <v>505287219300</v>
+      </c>
+      <c r="S24">
+        <v>35380500</v>
+      </c>
+      <c r="T24">
+        <v>35825700</v>
+      </c>
+      <c r="U24">
+        <v>22132789605</v>
+      </c>
+      <c r="V24">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W24">
+        <v>50220165119</v>
+      </c>
+      <c r="X24">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y24">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z24">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA24">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB24">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC24">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-1500295800</v>
       </c>
+      <c r="Q25">
+        <v>525933422500</v>
+      </c>
+      <c r="R25">
+        <v>527433718300</v>
+      </c>
+      <c r="S25">
+        <v>36525100</v>
+      </c>
+      <c r="T25">
+        <v>37155500</v>
+      </c>
+      <c r="U25">
+        <v>22132789605</v>
+      </c>
+      <c r="V25">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W25">
+        <v>50220165119</v>
+      </c>
+      <c r="X25">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y25">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z25">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA25">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB25">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC25">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-5751197300</v>
       </c>
+      <c r="Q26">
+        <v>548450769500</v>
+      </c>
+      <c r="R26">
+        <v>554201966800</v>
+      </c>
+      <c r="S26">
+        <v>37950200</v>
+      </c>
+      <c r="T26">
+        <v>38609600</v>
+      </c>
+      <c r="U26">
+        <v>22132789605</v>
+      </c>
+      <c r="V26">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W26">
+        <v>50220165119</v>
+      </c>
+      <c r="X26">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y26">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z26">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA26">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB26">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC26">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-4328191900</v>
       </c>
+      <c r="Q27">
+        <v>563876048800</v>
+      </c>
+      <c r="R27">
+        <v>568204240700</v>
+      </c>
+      <c r="S27">
+        <v>38946700</v>
+      </c>
+      <c r="T27">
+        <v>39432900</v>
+      </c>
+      <c r="U27">
+        <v>22132789605</v>
+      </c>
+      <c r="V27">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W27">
+        <v>50220165119</v>
+      </c>
+      <c r="X27">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y27">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z27">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA27">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB27">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC27">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>1807321200</v>
       </c>
+      <c r="Q28">
+        <v>579976107300</v>
+      </c>
+      <c r="R28">
+        <v>578168786100</v>
+      </c>
+      <c r="S28">
+        <v>40026900</v>
+      </c>
+      <c r="T28">
+        <v>40427300</v>
+      </c>
+      <c r="U28">
+        <v>22132789605</v>
+      </c>
+      <c r="V28">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W28">
+        <v>50220165119</v>
+      </c>
+      <c r="X28">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y28">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z28">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA28">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB28">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC28">
+        <v>14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-5260111000</v>
       </c>
+      <c r="Q29">
+        <v>591457032200</v>
+      </c>
+      <c r="R29">
+        <v>596717143200</v>
+      </c>
+      <c r="S29">
+        <v>40776200</v>
+      </c>
+      <c r="T29">
+        <v>41473300</v>
+      </c>
+      <c r="U29">
+        <v>22132789605</v>
+      </c>
+      <c r="V29">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W29">
+        <v>50220165119</v>
+      </c>
+      <c r="X29">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y29">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z29">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA29">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB29">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC29">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>66800700</v>
       </c>
+      <c r="Q30">
+        <v>608149853300</v>
+      </c>
+      <c r="R30">
+        <v>608083052600</v>
+      </c>
+      <c r="S30">
+        <v>41877800</v>
+      </c>
+      <c r="T30">
+        <v>42288200</v>
+      </c>
+      <c r="U30">
+        <v>22132789605</v>
+      </c>
+      <c r="V30">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W30">
+        <v>50220165119</v>
+      </c>
+      <c r="X30">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y30">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z30">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA30">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB30">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC30">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>8790851700</v>
       </c>
+      <c r="Q31">
+        <v>626565849400</v>
+      </c>
+      <c r="R31">
+        <v>617774997700</v>
+      </c>
+      <c r="S31">
+        <v>42992500</v>
+      </c>
+      <c r="T31">
+        <v>42890100</v>
+      </c>
+      <c r="U31">
+        <v>22132789605</v>
+      </c>
+      <c r="V31">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W31">
+        <v>50220165119</v>
+      </c>
+      <c r="X31">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y31">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z31">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA31">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB31">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC31">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>15456319200</v>
       </c>
+      <c r="Q32">
+        <v>649812560800</v>
+      </c>
+      <c r="R32">
+        <v>634356241600</v>
+      </c>
+      <c r="S32">
+        <v>44239200</v>
+      </c>
+      <c r="T32">
+        <v>43956100</v>
+      </c>
+      <c r="U32">
+        <v>22132789605</v>
+      </c>
+      <c r="V32">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W32">
+        <v>50220165119</v>
+      </c>
+      <c r="X32">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y32">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z32">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA32">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB32">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC32">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>3424694600</v>
       </c>
+      <c r="Q33">
+        <v>662423528300</v>
+      </c>
+      <c r="R33">
+        <v>658998833700</v>
+      </c>
+      <c r="S33">
+        <v>46330100</v>
+      </c>
+      <c r="T33">
+        <v>45415500</v>
+      </c>
+      <c r="U33">
+        <v>22132789605</v>
+      </c>
+      <c r="V33">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W33">
+        <v>50220165119</v>
+      </c>
+      <c r="X33">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y33">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z33">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA33">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB33">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC33">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-3307952900</v>
       </c>
+      <c r="Q34">
+        <v>677083985200</v>
+      </c>
+      <c r="R34">
+        <v>680391938100</v>
+      </c>
+      <c r="S34">
+        <v>47231600</v>
+      </c>
+      <c r="T34">
+        <v>46755400</v>
+      </c>
+      <c r="U34">
+        <v>22132789605</v>
+      </c>
+      <c r="V34">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W34">
+        <v>50220165119</v>
+      </c>
+      <c r="X34">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y34">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z34">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA34">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB34">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC34">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-4225705600</v>
       </c>
+      <c r="Q35">
+        <v>689383328200</v>
+      </c>
+      <c r="R35">
+        <v>693609033800</v>
+      </c>
+      <c r="S35">
+        <v>47960800</v>
+      </c>
+      <c r="T35">
+        <v>47759000</v>
+      </c>
+      <c r="U35">
+        <v>22132789605</v>
+      </c>
+      <c r="V35">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W35">
+        <v>50220165119</v>
+      </c>
+      <c r="X35">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y35">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z35">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA35">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB35">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC35">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-25256450000</v>
       </c>
+      <c r="Q36">
+        <v>705315208300</v>
+      </c>
+      <c r="R36">
+        <v>730571658300</v>
+      </c>
+      <c r="S36">
+        <v>48924000</v>
+      </c>
+      <c r="T36">
+        <v>49886000</v>
+      </c>
+      <c r="U36">
+        <v>22132789605</v>
+      </c>
+      <c r="V36">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W36">
+        <v>50220165119</v>
+      </c>
+      <c r="X36">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y36">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z36">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA36">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB36">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC36">
+        <v>48</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-70809234000</v>
       </c>
+      <c r="Q37">
+        <v>717846497000</v>
+      </c>
+      <c r="R37">
+        <v>788655731000</v>
+      </c>
+      <c r="S37">
+        <v>49676400</v>
+      </c>
+      <c r="T37">
+        <v>54125200</v>
+      </c>
+      <c r="U37">
+        <v>22132789605</v>
+      </c>
+      <c r="V37">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W37">
+        <v>50220165119</v>
+      </c>
+      <c r="X37">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y37">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z37">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA37">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB37">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC37">
+        <v>104</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-127985379400</v>
       </c>
+      <c r="Q38">
+        <v>727946867300</v>
+      </c>
+      <c r="R38">
+        <v>855932246700</v>
+      </c>
+      <c r="S38">
+        <v>50328300</v>
+      </c>
+      <c r="T38">
+        <v>58491100</v>
+      </c>
+      <c r="U38">
+        <v>22132789605</v>
+      </c>
+      <c r="V38">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W38">
+        <v>50220165119</v>
+      </c>
+      <c r="X38">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y38">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z38">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA38">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB38">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC38">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-185649867400</v>
       </c>
+      <c r="Q39">
+        <v>738613655500</v>
+      </c>
+      <c r="R39">
+        <v>924263522900</v>
+      </c>
+      <c r="S39">
+        <v>51115600</v>
+      </c>
+      <c r="T39">
+        <v>62790300</v>
+      </c>
+      <c r="U39">
+        <v>22132789605</v>
+      </c>
+      <c r="V39">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W39">
+        <v>50220165119</v>
+      </c>
+      <c r="X39">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y39">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z39">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA39">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB39">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC39">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-195649499500</v>
       </c>
+      <c r="Q40">
+        <v>753679544500</v>
+      </c>
+      <c r="R40">
+        <v>949329044000</v>
+      </c>
+      <c r="S40">
+        <v>52233700</v>
+      </c>
+      <c r="T40">
+        <v>64478500</v>
+      </c>
+      <c r="U40">
+        <v>22132789605</v>
+      </c>
+      <c r="V40">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W40">
+        <v>50220165119</v>
+      </c>
+      <c r="X40">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y40">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z40">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA40">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB40">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC40">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-192155814100</v>
       </c>
+      <c r="Q41">
+        <v>769422656500</v>
+      </c>
+      <c r="R41">
+        <v>961578470600</v>
+      </c>
+      <c r="S41">
+        <v>53206300</v>
+      </c>
+      <c r="T41">
+        <v>65258400</v>
+      </c>
+      <c r="U41">
+        <v>22132789605</v>
+      </c>
+      <c r="V41">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W41">
+        <v>50220165119</v>
+      </c>
+      <c r="X41">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y41">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z41">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA41">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB41">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC41">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-191517068400</v>
       </c>
+      <c r="Q42">
+        <v>779797823700</v>
+      </c>
+      <c r="R42">
+        <v>971314892100</v>
+      </c>
+      <c r="S42">
+        <v>53930000</v>
+      </c>
+      <c r="T42">
+        <v>65977400</v>
+      </c>
+      <c r="U42">
+        <v>22132789605</v>
+      </c>
+      <c r="V42">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W42">
+        <v>50220165119</v>
+      </c>
+      <c r="X42">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y42">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z42">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA42">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB42">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC42">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-184155181400</v>
       </c>
+      <c r="Q43">
+        <v>796526147500</v>
+      </c>
+      <c r="R43">
+        <v>980681328900</v>
+      </c>
+      <c r="S43">
+        <v>55041100</v>
+      </c>
+      <c r="T43">
+        <v>66708400</v>
+      </c>
+      <c r="U43">
+        <v>22132789605</v>
+      </c>
+      <c r="V43">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W43">
+        <v>50220165119</v>
+      </c>
+      <c r="X43">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y43">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z43">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA43">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB43">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC43">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-194140146200</v>
       </c>
+      <c r="Q44">
+        <v>806468301200</v>
+      </c>
+      <c r="R44">
+        <v>1000608447400</v>
+      </c>
+      <c r="S44">
+        <v>56037700</v>
+      </c>
+      <c r="T44">
+        <v>67912200</v>
+      </c>
+      <c r="U44">
+        <v>22132789605</v>
+      </c>
+      <c r="V44">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W44">
+        <v>50220165119</v>
+      </c>
+      <c r="X44">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y44">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z44">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA44">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB44">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC44">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-197868780600</v>
       </c>
+      <c r="Q45">
+        <v>818242484800</v>
+      </c>
+      <c r="R45">
+        <v>1016111265400</v>
+      </c>
+      <c r="S45">
+        <v>56759900</v>
+      </c>
+      <c r="T45">
+        <v>68909400</v>
+      </c>
+      <c r="U45">
+        <v>22132789605</v>
+      </c>
+      <c r="V45">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W45">
+        <v>50220165119</v>
+      </c>
+      <c r="X45">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y45">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z45">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA45">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB45">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC45">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-212644925400</v>
       </c>
+      <c r="Q46">
+        <v>829834410000</v>
+      </c>
+      <c r="R46">
+        <v>1042479335400</v>
+      </c>
+      <c r="S46">
+        <v>57465700</v>
+      </c>
+      <c r="T46">
+        <v>70423600</v>
+      </c>
+      <c r="U46">
+        <v>22132789605</v>
+      </c>
+      <c r="V46">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W46">
+        <v>50220165119</v>
+      </c>
+      <c r="X46">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y46">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z46">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA46">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB46">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC46">
+        <v>33.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-209093388100</v>
       </c>
+      <c r="Q47">
+        <v>844887749800</v>
+      </c>
+      <c r="R47">
+        <v>1053981137900</v>
+      </c>
+      <c r="S47">
+        <v>58331700</v>
+      </c>
+      <c r="T47">
+        <v>71259800</v>
+      </c>
+      <c r="U47">
+        <v>22132789605</v>
+      </c>
+      <c r="V47">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W47">
+        <v>50220165119</v>
+      </c>
+      <c r="X47">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y47">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z47">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA47">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB47">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC47">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-216593342600</v>
       </c>
+      <c r="Q48">
+        <v>852711419900</v>
+      </c>
+      <c r="R48">
+        <v>1069304762500</v>
+      </c>
+      <c r="S48">
+        <v>58748200</v>
+      </c>
+      <c r="T48">
+        <v>72266500</v>
+      </c>
+      <c r="U48">
+        <v>22132789605</v>
+      </c>
+      <c r="V48">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W48">
+        <v>50220165119</v>
+      </c>
+      <c r="X48">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y48">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z48">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA48">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB48">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC48">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-222597421700</v>
       </c>
+      <c r="Q49">
+        <v>860629061800</v>
+      </c>
+      <c r="R49">
+        <v>1083226483500</v>
+      </c>
+      <c r="S49">
+        <v>59265500</v>
+      </c>
+      <c r="T49">
+        <v>73273500</v>
+      </c>
+      <c r="U49">
+        <v>22132789605</v>
+      </c>
+      <c r="V49">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W49">
+        <v>50220165119</v>
+      </c>
+      <c r="X49">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y49">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z49">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA49">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB49">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC49">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-227991234900</v>
       </c>
+      <c r="Q50">
+        <v>872926364200</v>
+      </c>
+      <c r="R50">
+        <v>1100917599100</v>
+      </c>
+      <c r="S50">
+        <v>60049900</v>
+      </c>
+      <c r="T50">
+        <v>74664200</v>
+      </c>
+      <c r="U50">
+        <v>22132789605</v>
+      </c>
+      <c r="V50">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W50">
+        <v>50220165119</v>
+      </c>
+      <c r="X50">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y50">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z50">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA50">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB50">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC50">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-248623867700</v>
       </c>
+      <c r="Q51">
+        <v>882446883800</v>
+      </c>
+      <c r="R51">
+        <v>1131070751500</v>
+      </c>
+      <c r="S51">
+        <v>60832700</v>
+      </c>
+      <c r="T51">
+        <v>76212300</v>
+      </c>
+      <c r="U51">
+        <v>22132789605</v>
+      </c>
+      <c r="V51">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W51">
+        <v>50220165119</v>
+      </c>
+      <c r="X51">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y51">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z51">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA51">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB51">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC51">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-321214649900</v>
       </c>
+      <c r="Q52">
+        <v>887794914200</v>
+      </c>
+      <c r="R52">
+        <v>1209009564100</v>
+      </c>
+      <c r="S52">
+        <v>61170400</v>
+      </c>
+      <c r="T52">
+        <v>81537800</v>
+      </c>
+      <c r="U52">
+        <v>22132789605</v>
+      </c>
+      <c r="V52">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W52">
+        <v>50220165119</v>
+      </c>
+      <c r="X52">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y52">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z52">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA52">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB52">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC52">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-352440211700</v>
       </c>
+      <c r="Q53">
+        <v>895689982700</v>
+      </c>
+      <c r="R53">
+        <v>1248130194400</v>
+      </c>
+      <c r="S53">
+        <v>61738900</v>
+      </c>
+      <c r="T53">
+        <v>84632500</v>
+      </c>
+      <c r="U53">
+        <v>22132789605</v>
+      </c>
+      <c r="V53">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W53">
+        <v>50220165119</v>
+      </c>
+      <c r="X53">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y53">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z53">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA53">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB53">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC53">
+        <v>71.3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-366571738300</v>
       </c>
+      <c r="Q54">
+        <v>907979239000</v>
+      </c>
+      <c r="R54">
+        <v>1274550977300</v>
+      </c>
+      <c r="S54">
+        <v>62515200</v>
+      </c>
+      <c r="T54">
+        <v>86817700</v>
+      </c>
+      <c r="U54">
+        <v>22132789605</v>
+      </c>
+      <c r="V54">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W54">
+        <v>50220165119</v>
+      </c>
+      <c r="X54">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y54">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z54">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA54">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB54">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC54">
+        <v>32.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-409567953400</v>
       </c>
+      <c r="Q55">
+        <v>916107996500</v>
+      </c>
+      <c r="R55">
+        <v>1325675949900</v>
+      </c>
+      <c r="S55">
+        <v>63083800</v>
+      </c>
+      <c r="T55">
+        <v>90378400</v>
+      </c>
+      <c r="U55">
+        <v>22132789605</v>
+      </c>
+      <c r="V55">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W55">
+        <v>50220165119</v>
+      </c>
+      <c r="X55">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y55">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z55">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA55">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB55">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC55">
+        <v>98.1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-425605274600</v>
       </c>
+      <c r="Q56">
+        <v>931171210600</v>
+      </c>
+      <c r="R56">
+        <v>1356776485200</v>
+      </c>
+      <c r="S56">
+        <v>64072300</v>
+      </c>
+      <c r="T56">
+        <v>92457900</v>
+      </c>
+      <c r="U56">
+        <v>22132789605</v>
+      </c>
+      <c r="V56">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W56">
+        <v>50220165119</v>
+      </c>
+      <c r="X56">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y56">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z56">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA56">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB56">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC56">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-433853359400</v>
       </c>
+      <c r="Q57">
+        <v>945597840500</v>
+      </c>
+      <c r="R57">
+        <v>1379451199900</v>
+      </c>
+      <c r="S57">
+        <v>65068700</v>
+      </c>
+      <c r="T57">
+        <v>94364900</v>
+      </c>
+      <c r="U57">
+        <v>22132789605</v>
+      </c>
+      <c r="V57">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W57">
+        <v>50220165119</v>
+      </c>
+      <c r="X57">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y57">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z57">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA57">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB57">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC57">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-432488214400</v>
       </c>
+      <c r="Q58">
+        <v>961723552800</v>
+      </c>
+      <c r="R58">
+        <v>1394211767200</v>
+      </c>
+      <c r="S58">
+        <v>66140300</v>
+      </c>
+      <c r="T58">
+        <v>95385400</v>
+      </c>
+      <c r="U58">
+        <v>22132789605</v>
+      </c>
+      <c r="V58">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W58">
+        <v>50220165119</v>
+      </c>
+      <c r="X58">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y58">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z58">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA58">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB58">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC58">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-436636255200</v>
       </c>
+      <c r="Q59">
+        <v>975882371400</v>
+      </c>
+      <c r="R59">
+        <v>1412518626600</v>
+      </c>
+      <c r="S59">
+        <v>67099000</v>
+      </c>
+      <c r="T59">
+        <v>96725700</v>
+      </c>
+      <c r="U59">
+        <v>22132789605</v>
+      </c>
+      <c r="V59">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W59">
+        <v>50220165119</v>
+      </c>
+      <c r="X59">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y59">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z59">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA59">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB59">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC59">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-427229320100</v>
       </c>
+      <c r="Q60">
+        <v>998507431600</v>
+      </c>
+      <c r="R60">
+        <v>1425736751700</v>
+      </c>
+      <c r="S60">
+        <v>68811100</v>
+      </c>
+      <c r="T60">
+        <v>97574300</v>
+      </c>
+      <c r="U60">
+        <v>22132789605</v>
+      </c>
+      <c r="V60">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W60">
+        <v>50220165119</v>
+      </c>
+      <c r="X60">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y60">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z60">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA60">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB60">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC60">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-411032349500</v>
       </c>
+      <c r="Q61">
+        <v>1025177636400</v>
+      </c>
+      <c r="R61">
+        <v>1436209985900</v>
+      </c>
+      <c r="S61">
+        <v>70361700</v>
+      </c>
+      <c r="T61">
+        <v>98063000</v>
+      </c>
+      <c r="U61">
+        <v>22132789605</v>
+      </c>
+      <c r="V61">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W61">
+        <v>50220165119</v>
+      </c>
+      <c r="X61">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y61">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z61">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA61">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB61">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC61">
+        <v>37</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-404091685500</v>
       </c>
+      <c r="Q62">
+        <v>1041873267800</v>
+      </c>
+      <c r="R62">
+        <v>1445964953300</v>
+      </c>
+      <c r="S62">
+        <v>71294700</v>
+      </c>
+      <c r="T62">
+        <v>98684600</v>
+      </c>
+      <c r="U62">
+        <v>22132789605</v>
+      </c>
+      <c r="V62">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W62">
+        <v>50220165119</v>
+      </c>
+      <c r="X62">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y62">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z62">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA62">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB62">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC62">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-402231302400</v>
       </c>
+      <c r="Q63">
+        <v>1052922877100</v>
+      </c>
+      <c r="R63">
+        <v>1455154179500</v>
+      </c>
+      <c r="S63">
+        <v>71922400</v>
+      </c>
+      <c r="T63">
+        <v>99246700</v>
+      </c>
+      <c r="U63">
+        <v>22132789605</v>
+      </c>
+      <c r="V63">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W63">
+        <v>50220165119</v>
+      </c>
+      <c r="X63">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y63">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z63">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA63">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB63">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC63">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-407474328800</v>
       </c>
+      <c r="Q64">
+        <v>1063280554500</v>
+      </c>
+      <c r="R64">
+        <v>1470754883300</v>
+      </c>
+      <c r="S64">
+        <v>72634400</v>
+      </c>
+      <c r="T64">
+        <v>100149700</v>
+      </c>
+      <c r="U64">
+        <v>22132789605</v>
+      </c>
+      <c r="V64">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W64">
+        <v>50220165119</v>
+      </c>
+      <c r="X64">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y64">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z64">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA64">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB64">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC64">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-415377134300</v>
       </c>
+      <c r="Q65">
+        <v>1069287074200</v>
+      </c>
+      <c r="R65">
+        <v>1484664208500</v>
+      </c>
+      <c r="S65">
+        <v>73007600</v>
+      </c>
+      <c r="T65">
+        <v>100966900</v>
+      </c>
+      <c r="U65">
+        <v>22132789605</v>
+      </c>
+      <c r="V65">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W65">
+        <v>50220165119</v>
+      </c>
+      <c r="X65">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y65">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z65">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA65">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB65">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC65">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-414652950200</v>
       </c>
+      <c r="Q66">
+        <v>1078699233300</v>
+      </c>
+      <c r="R66">
+        <v>1493352183500</v>
+      </c>
+      <c r="S66">
+        <v>73418600</v>
+      </c>
+      <c r="T66">
+        <v>101864000</v>
+      </c>
+      <c r="U66">
+        <v>22132789605</v>
+      </c>
+      <c r="V66">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W66">
+        <v>50220165119</v>
+      </c>
+      <c r="X66">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y66">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z66">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA66">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB66">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC66">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-420030297800</v>
       </c>
+      <c r="Q67">
+        <v>1087682176300</v>
+      </c>
+      <c r="R67">
+        <v>1507712474100</v>
+      </c>
+      <c r="S67">
+        <v>73941500</v>
+      </c>
+      <c r="T67">
+        <v>102671000</v>
+      </c>
+      <c r="U67">
+        <v>22132789605</v>
+      </c>
+      <c r="V67">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W67">
+        <v>50220165119</v>
+      </c>
+      <c r="X67">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y67">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z67">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA67">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB67">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC67">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-428938387100</v>
       </c>
+      <c r="Q68">
+        <v>1095519860800</v>
+      </c>
+      <c r="R68">
+        <v>1524458247900</v>
+      </c>
+      <c r="S68">
+        <v>74548300</v>
+      </c>
+      <c r="T68">
+        <v>103621900</v>
+      </c>
+      <c r="U68">
+        <v>22132789605</v>
+      </c>
+      <c r="V68">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W68">
+        <v>50220165119</v>
+      </c>
+      <c r="X68">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y68">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z68">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA68">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB68">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC68">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-435398108500</v>
       </c>
+      <c r="Q69">
+        <v>1105104362100</v>
+      </c>
+      <c r="R69">
+        <v>1540502470600</v>
+      </c>
+      <c r="S69">
+        <v>75319900</v>
+      </c>
+      <c r="T69">
+        <v>104699800</v>
+      </c>
+      <c r="U69">
+        <v>22132789605</v>
+      </c>
+      <c r="V69">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W69">
+        <v>50220165119</v>
+      </c>
+      <c r="X69">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y69">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z69">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA69">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB69">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC69">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-449585694900</v>
       </c>
+      <c r="Q70">
+        <v>1115890421700</v>
+      </c>
+      <c r="R70">
+        <v>1565476116600</v>
+      </c>
+      <c r="S70">
+        <v>75942600</v>
+      </c>
+      <c r="T70">
+        <v>106134100</v>
+      </c>
+      <c r="U70">
+        <v>22132789605</v>
+      </c>
+      <c r="V70">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W70">
+        <v>50220165119</v>
+      </c>
+      <c r="X70">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y70">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z70">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA70">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB70">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC70">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-449582856300</v>
       </c>
+      <c r="Q71">
+        <v>1115893261700</v>
+      </c>
+      <c r="R71">
+        <v>1565476118000</v>
+      </c>
+      <c r="S71">
+        <v>75942800</v>
+      </c>
+      <c r="T71">
+        <v>106134200</v>
+      </c>
+      <c r="U71">
+        <v>22132789605</v>
+      </c>
+      <c r="V71">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W71">
+        <v>50220165119</v>
+      </c>
+      <c r="X71">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y71">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z71">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA71">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB71">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-497626798400</v>
       </c>
+      <c r="Q72">
+        <v>1150643327700</v>
+      </c>
+      <c r="R72">
+        <v>1648270126100</v>
+      </c>
+      <c r="S72">
+        <v>78246800</v>
+      </c>
+      <c r="T72">
+        <v>111753400</v>
+      </c>
+      <c r="U72">
+        <v>22132789605</v>
+      </c>
+      <c r="V72">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W72">
+        <v>50220165119</v>
+      </c>
+      <c r="X72">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y72">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z72">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA72">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB72">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC72">
+        <v>109.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-516151357700</v>
       </c>
+      <c r="Q73">
+        <v>1163569924600</v>
+      </c>
+      <c r="R73">
+        <v>1679721282300</v>
+      </c>
+      <c r="S73">
+        <v>79047400</v>
+      </c>
+      <c r="T73">
+        <v>113992600</v>
+      </c>
+      <c r="U73">
+        <v>22132789605</v>
+      </c>
+      <c r="V73">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W73">
+        <v>50220165119</v>
+      </c>
+      <c r="X73">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y73">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z73">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA73">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB73">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC73">
+        <v>42.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-507225526600</v>
       </c>
+      <c r="Q74">
+        <v>1189770216900</v>
+      </c>
+      <c r="R74">
+        <v>1696995743500</v>
+      </c>
+      <c r="S74">
+        <v>80897100</v>
+      </c>
+      <c r="T74">
+        <v>115141700</v>
+      </c>
+      <c r="U74">
+        <v>22132789605</v>
+      </c>
+      <c r="V74">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W74">
+        <v>50220165119</v>
+      </c>
+      <c r="X74">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y74">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z74">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA74">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB74">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC74">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-475445431600</v>
       </c>
+      <c r="Q75">
+        <v>1233347357200</v>
+      </c>
+      <c r="R75">
+        <v>1708792788800</v>
+      </c>
+      <c r="S75">
+        <v>83678300</v>
+      </c>
+      <c r="T75">
+        <v>115914200</v>
+      </c>
+      <c r="U75">
+        <v>22132789605</v>
+      </c>
+      <c r="V75">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W75">
+        <v>50220165119</v>
+      </c>
+      <c r="X75">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y75">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z75">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA75">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB75">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC75">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-455669971600</v>
       </c>
+      <c r="Q76">
+        <v>1266155087900</v>
+      </c>
+      <c r="R76">
+        <v>1721825059500</v>
+      </c>
+      <c r="S76">
+        <v>85836900</v>
+      </c>
+      <c r="T76">
+        <v>116783200</v>
+      </c>
+      <c r="U76">
+        <v>22132789605</v>
+      </c>
+      <c r="V76">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W76">
+        <v>50220165119</v>
+      </c>
+      <c r="X76">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y76">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z76">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA76">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB76">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC76">
+        <v>45.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-449075798500</v>
       </c>
+      <c r="Q77">
+        <v>1291398595600</v>
+      </c>
+      <c r="R77">
+        <v>1740474394100</v>
+      </c>
+      <c r="S77">
+        <v>87495900</v>
+      </c>
+      <c r="T77">
+        <v>118089200</v>
+      </c>
+      <c r="U77">
+        <v>22132789605</v>
+      </c>
+      <c r="V77">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W77">
+        <v>50220165119</v>
+      </c>
+      <c r="X77">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y77">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z77">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA77">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB77">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC77">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-462858947700</v>
       </c>
+      <c r="Q78">
+        <v>1308840266800</v>
+      </c>
+      <c r="R78">
+        <v>1771699214500</v>
+      </c>
+      <c r="S78">
+        <v>88462600</v>
+      </c>
+      <c r="T78">
+        <v>120402300</v>
+      </c>
+      <c r="U78">
+        <v>22132789605</v>
+      </c>
+      <c r="V78">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W78">
+        <v>50220165119</v>
+      </c>
+      <c r="X78">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y78">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z78">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA78">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB78">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC78">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-469256611200</v>
       </c>
+      <c r="Q79">
+        <v>1322598905900</v>
+      </c>
+      <c r="R79">
+        <v>1791855517100</v>
+      </c>
+      <c r="S79">
+        <v>89312200</v>
+      </c>
+      <c r="T79">
+        <v>121953700</v>
+      </c>
+      <c r="U79">
+        <v>22132789605</v>
+      </c>
+      <c r="V79">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W79">
+        <v>50220165119</v>
+      </c>
+      <c r="X79">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y79">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z79">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA79">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB79">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC79">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-473671806000</v>
       </c>
+      <c r="Q80">
+        <v>1336654716900</v>
+      </c>
+      <c r="R80">
+        <v>1810326522900</v>
+      </c>
+      <c r="S80">
+        <v>90154100</v>
+      </c>
+      <c r="T80">
+        <v>123365800</v>
+      </c>
+      <c r="U80">
+        <v>22132789605</v>
+      </c>
+      <c r="V80">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W80">
+        <v>50220165119</v>
+      </c>
+      <c r="X80">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y80">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z80">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA80">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB80">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC80">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-479839713600</v>
       </c>
+      <c r="Q81">
+        <v>1350586096200</v>
+      </c>
+      <c r="R81">
+        <v>1830425809800</v>
+      </c>
+      <c r="S81">
+        <v>91219600</v>
+      </c>
+      <c r="T81">
+        <v>124792000</v>
+      </c>
+      <c r="U81">
+        <v>22132789605</v>
+      </c>
+      <c r="V81">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W81">
+        <v>50220165119</v>
+      </c>
+      <c r="X81">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y81">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z81">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA81">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB81">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC81">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-503493189300</v>
       </c>
+      <c r="Q82">
+        <v>1358329986500</v>
+      </c>
+      <c r="R82">
+        <v>1861823175800</v>
+      </c>
+      <c r="S82">
+        <v>91816600</v>
+      </c>
+      <c r="T82">
+        <v>126947600</v>
+      </c>
+      <c r="U82">
+        <v>22132789605</v>
+      </c>
+      <c r="V82">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W82">
+        <v>50220165119</v>
+      </c>
+      <c r="X82">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y82">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z82">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA82">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB82">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC82">
+        <v>54</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-526021348600</v>
       </c>
+      <c r="Q83">
+        <v>1372508041900</v>
+      </c>
+      <c r="R83">
+        <v>1898529390500</v>
+      </c>
+      <c r="S83">
+        <v>92639500</v>
+      </c>
+      <c r="T83">
+        <v>129371700</v>
+      </c>
+      <c r="U83">
+        <v>22132789605</v>
+      </c>
+      <c r="V83">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W83">
+        <v>50220165119</v>
+      </c>
+      <c r="X83">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y83">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z83">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA83">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB83">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC83">
+        <v>51.4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-534226807500</v>
       </c>
+      <c r="Q84">
+        <v>1390483647000</v>
+      </c>
+      <c r="R84">
+        <v>1924710454500</v>
+      </c>
+      <c r="S84">
+        <v>93555600</v>
+      </c>
+      <c r="T84">
+        <v>131070500</v>
+      </c>
+      <c r="U84">
+        <v>22132789605</v>
+      </c>
+      <c r="V84">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W84">
+        <v>50220165119</v>
+      </c>
+      <c r="X84">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y84">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z84">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA84">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB84">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC84">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-557385464200</v>
       </c>
+      <c r="Q85">
+        <v>1408478955100</v>
+      </c>
+      <c r="R85">
+        <v>1965864419300</v>
+      </c>
+      <c r="S85">
+        <v>94484600</v>
+      </c>
+      <c r="T85">
+        <v>133398300</v>
+      </c>
+      <c r="U85">
+        <v>22132789605</v>
+      </c>
+      <c r="V85">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W85">
+        <v>50220165119</v>
+      </c>
+      <c r="X85">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y85">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z85">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA85">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB85">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC85">
+        <v>52.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-556861127900</v>
       </c>
+      <c r="Q86">
+        <v>1431529454200</v>
+      </c>
+      <c r="R86">
+        <v>1988390582100</v>
+      </c>
+      <c r="S86">
+        <v>95711100</v>
+      </c>
+      <c r="T86">
+        <v>134944200</v>
+      </c>
+      <c r="U86">
+        <v>22132789605</v>
+      </c>
+      <c r="V86">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W86">
+        <v>50220165119</v>
+      </c>
+      <c r="X86">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y86">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z86">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA86">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB86">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC86">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-554023634200</v>
       </c>
+      <c r="Q87">
+        <v>1454439608800</v>
+      </c>
+      <c r="R87">
+        <v>2008463243000</v>
+      </c>
+      <c r="S87">
+        <v>96901400</v>
+      </c>
+      <c r="T87">
+        <v>136244100</v>
+      </c>
+      <c r="U87">
+        <v>22132789605</v>
+      </c>
+      <c r="V87">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W87">
+        <v>50220165119</v>
+      </c>
+      <c r="X87">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y87">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z87">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA87">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB87">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC87">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-550230066600</v>
       </c>
+      <c r="Q88">
+        <v>1473736264700</v>
+      </c>
+      <c r="R88">
+        <v>2023966331300</v>
+      </c>
+      <c r="S88">
+        <v>98409000</v>
+      </c>
+      <c r="T88">
+        <v>137337200</v>
+      </c>
+      <c r="U88">
+        <v>22132789605</v>
+      </c>
+      <c r="V88">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W88">
+        <v>50220165119</v>
+      </c>
+      <c r="X88">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y88">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z88">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA88">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB88">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC88">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-547124959600</v>
       </c>
+      <c r="Q89">
+        <v>1498991617600</v>
+      </c>
+      <c r="R89">
+        <v>2046116577200</v>
+      </c>
+      <c r="S89">
+        <v>100213400</v>
+      </c>
+      <c r="T89">
+        <v>138432700</v>
+      </c>
+      <c r="U89">
+        <v>22132789605</v>
+      </c>
+      <c r="V89">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W89">
+        <v>50220165119</v>
+      </c>
+      <c r="X89">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y89">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z89">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA89">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB89">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC89">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-520797400200</v>
       </c>
+      <c r="Q90">
+        <v>1544012186900</v>
+      </c>
+      <c r="R90">
+        <v>2064809587100</v>
+      </c>
+      <c r="S90">
+        <v>102964100</v>
+      </c>
+      <c r="T90">
+        <v>139537000</v>
+      </c>
+      <c r="U90">
+        <v>22132789605</v>
+      </c>
+      <c r="V90">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W90">
+        <v>50220165119</v>
+      </c>
+      <c r="X90">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y90">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z90">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA90">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB90">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC90">
+        <v>60.1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-497289034700</v>
       </c>
+      <c r="Q91">
+        <v>1576531586700</v>
+      </c>
+      <c r="R91">
+        <v>2073820621400</v>
+      </c>
+      <c r="S91">
+        <v>104783900</v>
+      </c>
+      <c r="T91">
+        <v>140134000</v>
+      </c>
+      <c r="U91">
+        <v>22132789605</v>
+      </c>
+      <c r="V91">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W91">
+        <v>50220165119</v>
+      </c>
+      <c r="X91">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y91">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z91">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA91">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB91">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC91">
+        <v>53.7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-475745898800</v>
       </c>
+      <c r="Q92">
+        <v>1612349716100</v>
+      </c>
+      <c r="R92">
+        <v>2088095614900</v>
+      </c>
+      <c r="S92">
+        <v>106879100</v>
+      </c>
+      <c r="T92">
+        <v>141138800</v>
+      </c>
+      <c r="U92">
+        <v>22132789605</v>
+      </c>
+      <c r="V92">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W92">
+        <v>50220165119</v>
+      </c>
+      <c r="X92">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y92">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z92">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA92">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB92">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC92">
+        <v>49.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-427172514500</v>
       </c>
+      <c r="Q93">
+        <v>1675241597700</v>
+      </c>
+      <c r="R93">
+        <v>2102414112200</v>
+      </c>
+      <c r="S93">
+        <v>110917100</v>
+      </c>
+      <c r="T93">
+        <v>142157700</v>
+      </c>
+      <c r="U93">
+        <v>22132789605</v>
+      </c>
+      <c r="V93">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W93">
+        <v>50220165119</v>
+      </c>
+      <c r="X93">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y93">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z93">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA93">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB93">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC93">
+        <v>110.9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-396025437000</v>
       </c>
+      <c r="Q94">
+        <v>1733640604200</v>
+      </c>
+      <c r="R94">
+        <v>2129666041200</v>
+      </c>
+      <c r="S94">
+        <v>114484800</v>
+      </c>
+      <c r="T94">
+        <v>143765700</v>
+      </c>
+      <c r="U94">
+        <v>22132789605</v>
+      </c>
+      <c r="V94">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W94">
+        <v>50220165119</v>
+      </c>
+      <c r="X94">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y94">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z94">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA94">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB94">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC94">
+        <v>71.1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-408556042400</v>
       </c>
+      <c r="Q95">
+        <v>1759401227500</v>
+      </c>
+      <c r="R95">
+        <v>2167957269900</v>
+      </c>
+      <c r="S95">
+        <v>116020800</v>
+      </c>
+      <c r="T95">
+        <v>146475300</v>
+      </c>
+      <c r="U95">
+        <v>22132789605</v>
+      </c>
+      <c r="V95">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W95">
+        <v>50220165119</v>
+      </c>
+      <c r="X95">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y95">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z95">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA95">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB95">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC95">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-432764024100</v>
       </c>
+      <c r="Q96">
+        <v>1766380763400</v>
+      </c>
+      <c r="R96">
+        <v>2199144787500</v>
+      </c>
+      <c r="S96">
+        <v>116542000</v>
+      </c>
+      <c r="T96">
+        <v>148786600</v>
+      </c>
+      <c r="U96">
+        <v>22132789605</v>
+      </c>
+      <c r="V96">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W96">
+        <v>50220165119</v>
+      </c>
+      <c r="X96">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y96">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z96">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA96">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB96">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC96">
+        <v>55.3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-429904561800</v>
       </c>
+      <c r="Q97">
+        <v>1792422555300</v>
+      </c>
+      <c r="R97">
+        <v>2222327117100</v>
+      </c>
+      <c r="S97">
+        <v>117777800</v>
+      </c>
+      <c r="T97">
+        <v>150250200</v>
+      </c>
+      <c r="U97">
+        <v>22132789605</v>
+      </c>
+      <c r="V97">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W97">
+        <v>50220165119</v>
+      </c>
+      <c r="X97">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y97">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z97">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA97">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB97">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC97">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-416285507200</v>
       </c>
+      <c r="Q98">
+        <v>1821736361500</v>
+      </c>
+      <c r="R98">
+        <v>2238021868700</v>
+      </c>
+      <c r="S98">
+        <v>119206300</v>
+      </c>
+      <c r="T98">
+        <v>151314800</v>
+      </c>
+      <c r="U98">
+        <v>22132789605</v>
+      </c>
+      <c r="V98">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W98">
+        <v>50220165119</v>
+      </c>
+      <c r="X98">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y98">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z98">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA98">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB98">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC98">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-399678644800</v>
       </c>
+      <c r="Q99">
+        <v>1851183639000</v>
+      </c>
+      <c r="R99">
+        <v>2250862283800</v>
+      </c>
+      <c r="S99">
+        <v>120977400</v>
+      </c>
+      <c r="T99">
+        <v>152115700</v>
+      </c>
+      <c r="U99">
+        <v>22132789605</v>
+      </c>
+      <c r="V99">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W99">
+        <v>50220165119</v>
+      </c>
+      <c r="X99">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y99">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z99">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA99">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB99">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC99">
+        <v>37.9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-403729191700</v>
       </c>
+      <c r="Q100">
+        <v>1868940044200</v>
+      </c>
+      <c r="R100">
+        <v>2272669235900</v>
+      </c>
+      <c r="S100">
+        <v>122071100</v>
+      </c>
+      <c r="T100">
+        <v>153299400</v>
+      </c>
+      <c r="U100">
+        <v>22132789605</v>
+      </c>
+      <c r="V100">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W100">
+        <v>50220165119</v>
+      </c>
+      <c r="X100">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y100">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z100">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA100">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB100">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC100">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-414640973800</v>
       </c>
+      <c r="Q101">
+        <v>1883780867900</v>
+      </c>
+      <c r="R101">
+        <v>2298421841700</v>
+      </c>
+      <c r="S101">
+        <v>122975700</v>
+      </c>
+      <c r="T101">
+        <v>154884400</v>
+      </c>
+      <c r="U101">
+        <v>22132789605</v>
+      </c>
+      <c r="V101">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W101">
+        <v>50220165119</v>
+      </c>
+      <c r="X101">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y101">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z101">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA101">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB101">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC101">
+        <v>24.9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-411997286100</v>
       </c>
+      <c r="Q102">
+        <v>1902744486800</v>
+      </c>
+      <c r="R102">
+        <v>2314741772900</v>
+      </c>
+      <c r="S102">
+        <v>124045400</v>
+      </c>
+      <c r="T102">
+        <v>155882000</v>
+      </c>
+      <c r="U102">
+        <v>22132789605</v>
+      </c>
+      <c r="V102">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W102">
+        <v>50220165119</v>
+      </c>
+      <c r="X102">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y102">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z102">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA102">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB102">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC102">
+        <v>6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-402411350400</v>
       </c>
+      <c r="Q103">
+        <v>1922108200800</v>
+      </c>
+      <c r="R103">
+        <v>2324519551200</v>
+      </c>
+      <c r="S103">
+        <v>125155000</v>
+      </c>
+      <c r="T103">
+        <v>156645900</v>
+      </c>
+      <c r="U103">
+        <v>22132789605</v>
+      </c>
+      <c r="V103">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W103">
+        <v>50220165119</v>
+      </c>
+      <c r="X103">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y103">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z103">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA103">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB103">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC103">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-373088566600</v>
       </c>
+      <c r="Q104">
+        <v>1964147131600</v>
+      </c>
+      <c r="R104">
+        <v>2337235698200</v>
+      </c>
+      <c r="S104">
+        <v>127399200</v>
+      </c>
+      <c r="T104">
+        <v>157513500</v>
+      </c>
+      <c r="U104">
+        <v>22132789605</v>
+      </c>
+      <c r="V104">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W104">
+        <v>50220165119</v>
+      </c>
+      <c r="X104">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y104">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z104">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA104">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB104">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC104">
+        <v>66.9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-334564949500</v>
       </c>
+      <c r="Q105">
+        <v>2024181815100</v>
+      </c>
+      <c r="R105">
+        <v>2358746764600</v>
+      </c>
+      <c r="S105">
+        <v>131073900</v>
+      </c>
+      <c r="T105">
+        <v>158264600</v>
+      </c>
+      <c r="U105">
+        <v>22132789605</v>
+      </c>
+      <c r="V105">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W105">
+        <v>50220165119</v>
+      </c>
+      <c r="X105">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y105">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z105">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA105">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB105">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC105">
+        <v>87.9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-286175747200</v>
       </c>
+      <c r="Q106">
+        <v>2086295477900</v>
+      </c>
+      <c r="R106">
+        <v>2372471225100</v>
+      </c>
+      <c r="S106">
+        <v>134694900</v>
+      </c>
+      <c r="T106">
+        <v>159055100</v>
+      </c>
+      <c r="U106">
+        <v>22132789605</v>
+      </c>
+      <c r="V106">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W106">
+        <v>50220165119</v>
+      </c>
+      <c r="X106">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y106">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z106">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA106">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB106">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC106">
+        <v>110.4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-259567654400</v>
       </c>
+      <c r="Q107">
+        <v>2138956091900</v>
+      </c>
+      <c r="R107">
+        <v>2398523746300</v>
+      </c>
+      <c r="S107">
+        <v>137474600</v>
+      </c>
+      <c r="T107">
+        <v>160707600</v>
+      </c>
+      <c r="U107">
+        <v>22132789605</v>
+      </c>
+      <c r="V107">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W107">
+        <v>50220165119</v>
+      </c>
+      <c r="X107">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y107">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z107">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA107">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB107">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC107">
+        <v>60.7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-268812322200</v>
       </c>
+      <c r="Q108">
+        <v>2170395272900</v>
+      </c>
+      <c r="R108">
+        <v>2439207595100</v>
+      </c>
+      <c r="S108">
+        <v>139160300</v>
+      </c>
+      <c r="T108">
+        <v>163116700</v>
+      </c>
+      <c r="U108">
+        <v>22132789605</v>
+      </c>
+      <c r="V108">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W108">
+        <v>50220165119</v>
+      </c>
+      <c r="X108">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y108">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z108">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA108">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB108">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC108">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-282754154100</v>
       </c>
+      <c r="Q109">
+        <v>2214622965000</v>
+      </c>
+      <c r="R109">
+        <v>2497377119100</v>
+      </c>
+      <c r="S109">
+        <v>141029500</v>
+      </c>
+      <c r="T109">
+        <v>167494600</v>
+      </c>
+      <c r="U109">
+        <v>22132789605</v>
+      </c>
+      <c r="V109">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W109">
+        <v>50220165119</v>
+      </c>
+      <c r="X109">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y109">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z109">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA109">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB109">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC109">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-246075359900</v>
       </c>
+      <c r="Q110">
+        <v>2278185679300</v>
+      </c>
+      <c r="R110">
+        <v>2524261039200</v>
+      </c>
+      <c r="S110">
+        <v>143747900</v>
+      </c>
+      <c r="T110">
+        <v>169244100</v>
+      </c>
+      <c r="U110">
+        <v>22132789605</v>
+      </c>
+      <c r="V110">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W110">
+        <v>50220165119</v>
+      </c>
+      <c r="X110">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y110">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z110">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA110">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB110">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC110">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-229607998400</v>
       </c>
+      <c r="Q111">
+        <v>2315881153400</v>
+      </c>
+      <c r="R111">
+        <v>2545489151800</v>
+      </c>
+      <c r="S111">
+        <v>145763600</v>
+      </c>
+      <c r="T111">
+        <v>170655700</v>
+      </c>
+      <c r="U111">
+        <v>22132789605</v>
+      </c>
+      <c r="V111">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W111">
+        <v>50220165119</v>
+      </c>
+      <c r="X111">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y111">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z111">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA111">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB111">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC111">
+        <v>37.6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-157143404500</v>
       </c>
+      <c r="Q112">
+        <v>2414958826800</v>
+      </c>
+      <c r="R112">
+        <v>2572102231300</v>
+      </c>
+      <c r="S112">
+        <v>150610200</v>
+      </c>
+      <c r="T112">
+        <v>172067900</v>
+      </c>
+      <c r="U112">
+        <v>22132789605</v>
+      </c>
+      <c r="V112">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W112">
+        <v>50220165119</v>
+      </c>
+      <c r="X112">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y112">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z112">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA112">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB112">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC112">
+        <v>165.4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-145161597800</v>
       </c>
+      <c r="Q113">
+        <v>2463084140600</v>
+      </c>
+      <c r="R113">
+        <v>2608245738400</v>
+      </c>
+      <c r="S113">
+        <v>153662100</v>
+      </c>
+      <c r="T113">
+        <v>174109400</v>
+      </c>
+      <c r="U113">
+        <v>22132789605</v>
+      </c>
+      <c r="V113">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W113">
+        <v>50220165119</v>
+      </c>
+      <c r="X113">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y113">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z113">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA113">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB113">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC113">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-127133120400</v>
       </c>
+      <c r="Q114">
+        <v>2515950754700</v>
+      </c>
+      <c r="R114">
+        <v>2643083875100</v>
+      </c>
+      <c r="S114">
+        <v>156545700</v>
+      </c>
+      <c r="T114">
+        <v>176288300</v>
+      </c>
+      <c r="U114">
+        <v>22132789605</v>
+      </c>
+      <c r="V114">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W114">
+        <v>50220165119</v>
+      </c>
+      <c r="X114">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y114">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z114">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA114">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB114">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC114">
+        <v>41.1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-112825724400</v>
       </c>
+      <c r="Q115">
+        <v>2580080824600</v>
+      </c>
+      <c r="R115">
+        <v>2692906549000</v>
+      </c>
+      <c r="S115">
+        <v>160018200</v>
+      </c>
+      <c r="T115">
+        <v>179684300</v>
+      </c>
+      <c r="U115">
+        <v>22132789605</v>
+      </c>
+      <c r="V115">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W115">
+        <v>50220165119</v>
+      </c>
+      <c r="X115">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y115">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z115">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA115">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB115">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC115">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-53436732200</v>
       </c>
+      <c r="Q116">
+        <v>2673492057400</v>
+      </c>
+      <c r="R116">
+        <v>2726928789600</v>
+      </c>
+      <c r="S116">
+        <v>165420300</v>
+      </c>
+      <c r="T116">
+        <v>182312900</v>
+      </c>
+      <c r="U116">
+        <v>22132789605</v>
+      </c>
+      <c r="V116">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W116">
+        <v>50220165119</v>
+      </c>
+      <c r="X116">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y116">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z116">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA116">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB116">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC116">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-53436731200</v>
       </c>
+      <c r="Q117">
+        <v>2673492058400</v>
+      </c>
+      <c r="R117">
+        <v>2726928789600</v>
+      </c>
+      <c r="S117">
+        <v>165420400</v>
+      </c>
+      <c r="T117">
+        <v>182312900</v>
+      </c>
+      <c r="U117">
+        <v>22132789605</v>
+      </c>
+      <c r="V117">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W117">
+        <v>50220165119</v>
+      </c>
+      <c r="X117">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y117">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z117">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA117">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB117">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-53436729200</v>
       </c>
+      <c r="Q118">
+        <v>2673492060400</v>
+      </c>
+      <c r="R118">
+        <v>2726928789600</v>
+      </c>
+      <c r="S118">
+        <v>165420600</v>
+      </c>
+      <c r="T118">
+        <v>182312900</v>
+      </c>
+      <c r="U118">
+        <v>22132789605</v>
+      </c>
+      <c r="V118">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W118">
+        <v>50220165119</v>
+      </c>
+      <c r="X118">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y118">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z118">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA118">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB118">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-53002446200</v>
       </c>
+      <c r="Q119">
+        <v>2678067480200</v>
+      </c>
+      <c r="R119">
+        <v>2731069926400</v>
+      </c>
+      <c r="S119">
+        <v>165845700</v>
+      </c>
+      <c r="T119">
+        <v>182590200</v>
+      </c>
+      <c r="U119">
+        <v>22132789605</v>
+      </c>
+      <c r="V119">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W119">
+        <v>50220165119</v>
+      </c>
+      <c r="X119">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y119">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z119">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA119">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB119">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-53012346200</v>
       </c>
+      <c r="Q120">
+        <v>2678067480200</v>
+      </c>
+      <c r="R120">
+        <v>2731079826400</v>
+      </c>
+      <c r="S120">
+        <v>165845700</v>
+      </c>
+      <c r="T120">
+        <v>182591200</v>
+      </c>
+      <c r="U120">
+        <v>22132789605</v>
+      </c>
+      <c r="V120">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W120">
+        <v>50220165119</v>
+      </c>
+      <c r="X120">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y120">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z120">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA120">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB120">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>-53012285200</v>
       </c>
+      <c r="Q121">
+        <v>2678067541200</v>
+      </c>
+      <c r="R121">
+        <v>2731079826400</v>
+      </c>
+      <c r="S121">
+        <v>165851800</v>
+      </c>
+      <c r="T121">
+        <v>182591200</v>
+      </c>
+      <c r="U121">
+        <v>22132789605</v>
+      </c>
+      <c r="V121">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W121">
+        <v>50220165119</v>
+      </c>
+      <c r="X121">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y121">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z121">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA121">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB121">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,10 +11220,49 @@
       <c r="P122">
         <v>-53012284200</v>
       </c>
+      <c r="Q122">
+        <v>2678067542200</v>
+      </c>
+      <c r="R122">
+        <v>2731079826400</v>
+      </c>
+      <c r="S122">
+        <v>165851900</v>
+      </c>
+      <c r="T122">
+        <v>182591200</v>
+      </c>
+      <c r="U122">
+        <v>22132789605</v>
+      </c>
+      <c r="V122">
+        <v>22570907656.2</v>
+      </c>
+      <c r="W122">
+        <v>50220165119</v>
+      </c>
+      <c r="X122">
+        <v>3228009.9</v>
+      </c>
+      <c r="Y122">
+        <v>1370676.9</v>
+      </c>
+      <c r="Z122">
+        <v>1509018.2</v>
+      </c>
+      <c r="AA122">
+        <v>-138341.3</v>
+      </c>
+      <c r="AB122">
+        <v>-438118051.2</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P122"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC122"/>
   </ignoredErrors>
 </worksheet>
 </file>